--- a/annotador-core/src/main/resources/rules/TEST-ES2.xlsx
+++ b/annotador-core/src/main/resources/rules/TEST-ES2.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$195</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$D$195</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="962">
   <si>
     <t xml:space="preserve"> Problemas con pasado</t>
   </si>
@@ -894,15 +894,6 @@
     <t>esa persona hizo lo mismo &lt;TIMEX3 tid="t1" type="DATE" value="PAST_REF"&gt;en el pasado&lt;/TIMEX3&gt;.</t>
   </si>
   <si>
-    <t>ya lo veremos &lt;TIMEX3 tid="t1" type="DATE" value="PAST_REF"&gt;pasado&lt;/TIMEX3&gt; o al siguiente.</t>
-  </si>
-  <si>
-    <t>ya lo veremos &lt;TIMEX3 tid="t1" type="DATE" value="PAST_REF"&gt;pasado&lt;/TIMEX3&gt;.</t>
-  </si>
-  <si>
-    <t>ya lo veremos &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20TMO"&gt;pasado mañana&lt;/TIMEX3&gt;.</t>
-  </si>
-  <si>
     <t>el segundo perro tardó &lt;TIMEX3 tid="t1" type="DURATION" value="PT2S"&gt;dos segundos&lt;/TIMEX3&gt;.</t>
   </si>
   <si>
@@ -948,12 +939,6 @@
     <t>La sentencia se hizo publica &lt;TIMEX3 tid="t1" type="DURATION" value="PXD"&gt;unos cuantos días&lt;/TIMEX3&gt; después.</t>
   </si>
   <si>
-    <t>&lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20TMO"&gt;Esta mañana&lt;/TIMEX3&gt;, &lt;TIMEX3 tid="t2" type="TIME" value="2019-12-20TAF"&gt;aquella tarde&lt;/TIMEX3&gt;, en &lt;TIMEX3 tid="t3" type="TIME" value="2019-12-20TMO"&gt;la mañana&lt;/TIMEX3&gt; del &lt;TIMEX3 tid="t4" type="DATE" value="2019-12-10"&gt;día 10&lt;/TIMEX3&gt;, &lt;TIMEX3 tid="t5" type="TIME" value="2019-12-10TMO"&gt;esa mañana&lt;/TIMEX3&gt;, lo hizo de &lt;TIMEX3 tid="t6" type="TIME" value="2019-12-10TMO"&gt;buena mañana&lt;/TIMEX3&gt;. Pasado &lt;TIMEX3 tid="t7" type="DATE" value="2019-12-21"&gt;mañana&lt;/TIMEX3&gt; vamos a comer, porque &lt;TIMEX3 tid="t8" type="DATE" value="PAST_REF"&gt;pasado&lt;/TIMEX3&gt; es un gran &lt;TIMEX3 tid="t9" type="DURATION" value="P1D"&gt;día&lt;/TIMEX3&gt;. Una vez haya pasado &lt;TIMEX3 tid="t10" type="DATE" value="2019-12-21"&gt;mañana&lt;/TIMEX3&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;TIMEX3 tid="t1" type="DATE" value="2019-12-21"&gt;Mañana&lt;/TIMEX3&gt; lo veremos, en &lt;TIMEX3 tid="t2" type="TIME" value="2019-12-21TMO"&gt;la mañana&lt;/TIMEX3&gt; del &lt;TIMEX3 tid="t3" type="DATE" value="2019-12-10"&gt;día 10&lt;/TIMEX3&gt;, &lt;TIMEX3 tid="t4" type="TIME" value="2019-12-10TMO"&gt;esa mañana&lt;/TIMEX3&gt;, lo hizo de &lt;TIMEX3 tid="t5" type="TIME" value="2019-12-10TMO"&gt;buena mañana&lt;/TIMEX3&gt;. Pasado &lt;TIMEX3 tid="t6" type="DATE" value="2019-12-21"&gt;mañana&lt;/TIMEX3&gt; vamos a comer, porque &lt;TIMEX3 tid="t7" type="DATE" value="PAST_REF"&gt;pasado&lt;/TIMEX3&gt; es un gran &lt;TIMEX3 tid="t8" type="DURATION" value="P1D"&gt;día&lt;/TIMEX3&gt;. Una vez haya pasado &lt;TIMEX3 tid="t9" type="DATE" value="2019-12-21"&gt;mañana&lt;/TIMEX3&gt;.</t>
-  </si>
-  <si>
     <t>&lt;TIMEX3 tid="t1" type="DURATION" value="PXD"&gt;muchos días&lt;/TIMEX3&gt; después, y además &lt;TIMEX3 tid="t2" type="DURATION" value="P1W2D"&gt;dos días y una semana&lt;/TIMEX3&gt; después.</t>
   </si>
   <si>
@@ -963,9 +948,6 @@
     <t>el futuro nos depara algo &lt;TIMEX3 tid="t1" type="DATE" value="FUTURE_REF"&gt;futuro&lt;/TIMEX3&gt; igual que a su futuro hijo.</t>
   </si>
   <si>
-    <t>&lt;TIMEX3 tid="t1" type="DATE" value="2019-12-21"&gt;mañana&lt;/TIMEX3&gt; comeré en &lt;TIMEX3 tid="t2" type="TIME" value="2019-12-21TMO"&gt;la mañana&lt;/TIMEX3&gt;, no la segunda &lt;TIMEX3 tid="t3" type="DATE" value="2019-12-21"&gt;mañana&lt;/TIMEX3&gt; pero &lt;TIMEX3 tid="t4" type="TIME" value="2019-12-21TMO"&gt;varias mañanas&lt;/TIMEX3&gt; seguidas, pensando en &lt;TIMEX3 tid="t5" type="TIME" value="2019-12-21TMO"&gt;el mañana&lt;/TIMEX3&gt;, o en &lt;TIMEX3 tid="t6" type="DATE" value="2019-12-21"&gt;el día&lt;/TIMEX3&gt; &lt;TIMEX3 tid="t7" type="DATE" value="FUTURE_REF"&gt;de&lt;/TIMEX3&gt; &lt;TIMEX3 tid="t8" type="DATE" value="2019-12-21"&gt;mañana&lt;/TIMEX3&gt;.</t>
-  </si>
-  <si>
     <t>&lt;TIMEX3 tid="t1" type="DURATION" value="P600D"&gt;seiscientos días&lt;/TIMEX3&gt;.</t>
   </si>
   <si>
@@ -1158,9 +1140,6 @@
     <t>las &lt;TIMEX3 tid="t1" type="DATE" value="FUTURE_REF"&gt;próximas&lt;/TIMEX3&gt; horas, &lt;TIMEX3 tid="t2" type="DATE" value="2019"&gt;el año siguiente&lt;/TIMEX3&gt;.</t>
   </si>
   <si>
-    <t>el mes &lt;TIMEX3 tid="t1" type="DATE" value="PAST_REF"&gt;pasado&lt;/TIMEX3&gt;, &lt;TIMEX3 tid="t2" type="DATE" value="2019"&gt;el pasado año&lt;/TIMEX3&gt;.</t>
-  </si>
-  <si>
     <t>A las &lt;TIMEX3 tid="t1" type="TIME" value="T22:50"&gt;22:50&lt;/TIMEX3&gt;.</t>
   </si>
   <si>
@@ -1209,9 +1188,6 @@
     <t>&lt;TIMEX3 tid="t1" type="SET" value="P022W" freq="1D"&gt;un día cada dos semanas&lt;/TIMEX3&gt;.</t>
   </si>
   <si>
-    <t>&lt;TIMEX3 tid="t1" type="DATE" value="2019-12-21"&gt;Mañana&lt;/TIMEX3&gt; vamos allí.</t>
-  </si>
-  <si>
     <t>una o &lt;TIMEX3 tid="t1" type="DURATION" value="P2W"&gt;dos semanas&lt;/TIMEX3&gt;.</t>
   </si>
   <si>
@@ -1401,9 +1377,6 @@
     <t>En nombre del Institut professionnel des agents immobiliers (IPI), por Mes Y. Paquay y H. Nyssen, avocats.</t>
   </si>
   <si>
-    <t>Ya lo veremos &lt;TIMEX3 tid="t1" type="DATE" value="PAST_REF"&gt;pasado&lt;/TIMEX3&gt; o al siguiente.</t>
-  </si>
-  <si>
     <t>&lt;TIMEX3 tid="t1" type="DATE" value="1974-05-30"&gt;treinta de mayo de mil novecientos setenta y cuatro&lt;/TIMEX3&gt;.</t>
   </si>
   <si>
@@ -1554,9 +1527,6 @@
     <t>tuvo carácter musical y se cerró, por &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20TNI"&gt;la noche&lt;/TIMEX3&gt;.</t>
   </si>
   <si>
-    <t>hasta finales del pasado &lt;TIMEX3 tid="t1" type="DATE" value="2019-05"&gt;mayo&lt;/TIMEX3&gt; .</t>
-  </si>
-  <si>
     <t>Al cumplirse &lt;TIMEX3 tid="t1" type="DATE" value="2019-12-20"&gt;hoy&lt;/TIMEX3&gt; la segunda jornada de la protesta.</t>
   </si>
   <si>
@@ -2014,6 +1984,936 @@
   </si>
   <si>
     <t>madrileños aseguró que el siglo XXI será el siglo de la ciencia y la tecnología.</t>
+  </si>
+  <si>
+    <t>ya lo veremos &lt;TIMEX3 tid="t1" type="DATE" value="2019-12-22"&gt;pasado mañana&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>ya lo veremos &lt;TIMEX3 tid="t1" type="DATE" value="2019-12-22"&gt;pasado&lt;/TIMEX3&gt; o al siguiente.</t>
+  </si>
+  <si>
+    <t>ya lo veremos &lt;TIMEX3 tid="t1" type="DATE" value="2019-12-22"&gt;pasado&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20TMO"&gt;Esta mañana&lt;/TIMEX3&gt;, &lt;TIMEX3 tid="t2" type="TIME" value="2019-12-20TAF"&gt;aquella tarde&lt;/TIMEX3&gt;, en &lt;TIMEX3 tid="t3" type="TIME" value="2019-12-20TMO"&gt;la mañana&lt;/TIMEX3&gt; del &lt;TIMEX3 tid="t4" type="DATE" value="2019-12-10"&gt;día 10&lt;/TIMEX3&gt;, &lt;TIMEX3 tid="t5" type="TIME" value="2019-12-10TMO"&gt;esa mañana&lt;/TIMEX3&gt;, lo hizo de &lt;TIMEX3 tid="t6" type="TIME" value="2019-12-10TMO"&gt;buena mañana&lt;/TIMEX3&gt;. Pasado &lt;TIMEX3 tid="t7" type="DATE" value="2019-12-21"&gt;mañana&lt;/TIMEX3&gt; vamos a comer, porque &lt;TIMEX3 tid="t8" type="DATE" value="2019-12-22"&gt;pasado&lt;/TIMEX3&gt; es un gran &lt;TIMEX3 tid="t9" type="DURATION" value="P1D"&gt;día&lt;/TIMEX3&gt;. Una vez haya pasado &lt;TIMEX3 tid="t10" type="DATE" value="2019-12-21"&gt;mañana&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Mañana lo veremos, en &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20TMO"&gt;la mañana&lt;/TIMEX3&gt; del &lt;TIMEX3 tid="t2" type="DATE" value="2019-12-10"&gt;día 10&lt;/TIMEX3&gt;, &lt;TIMEX3 tid="t3" type="TIME" value="2019-12-10TMO"&gt;esa mañana&lt;/TIMEX3&gt;, lo hizo de &lt;TIMEX3 tid="t4" type="TIME" value="2019-12-10TMO"&gt;buena mañana&lt;/TIMEX3&gt;. Pasado &lt;TIMEX3 tid="t5" type="DATE" value="2019-12-21"&gt;mañana&lt;/TIMEX3&gt; vamos a comer, porque &lt;TIMEX3 tid="t6" type="DATE" value="2019-12-22"&gt;pasado&lt;/TIMEX3&gt; es un gran &lt;TIMEX3 tid="t7" type="DURATION" value="P1D"&gt;día&lt;/TIMEX3&gt;. Una vez haya pasado &lt;TIMEX3 tid="t8" type="DATE" value="2019-12-21"&gt;mañana&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>mañana comeré en &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20TMO"&gt;la mañana&lt;/TIMEX3&gt;, no la segunda &lt;TIMEX3 tid="t2" type="DATE" value="2019-12-21"&gt;mañana&lt;/TIMEX3&gt; pero &lt;TIMEX3 tid="t3" type="TIME" value="2019-12-21TMO"&gt;varias mañanas&lt;/TIMEX3&gt; seguidas, pensando en &lt;TIMEX3 tid="t4" type="TIME" value="2019-12-21TMO"&gt;el mañana&lt;/TIMEX3&gt;, o en &lt;TIMEX3 tid="t5" type="DATE" value="2019-12-21"&gt;el día&lt;/TIMEX3&gt; &lt;TIMEX3 tid="t6" type="DATE" value="FUTURE_REF"&gt;de&lt;/TIMEX3&gt; &lt;TIMEX3 tid="t7" type="DATE" value="2019-12-21"&gt;mañana&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>el mes &lt;TIMEX3 tid="t1" type="DATE" value="2019-12-22"&gt;pasado&lt;/TIMEX3&gt;, &lt;TIMEX3 tid="t2" type="DATE" value="2019"&gt;el pasado año&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Ya lo veremos &lt;TIMEX3 tid="t1" type="DATE" value="2019-12-22"&gt;pasado&lt;/TIMEX3&gt; o al siguiente.</t>
+  </si>
+  <si>
+    <t>hasta finales del &lt;TIMEX3 tid="t1" type="DATE" value="2019-12-22"&gt;pasado&lt;/TIMEX3&gt; &lt;TIMEX3 tid="t2" type="DATE" value="2019-05"&gt;mayo&lt;/TIMEX3&gt; .</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>00001</t>
+  </si>
+  <si>
+    <t>00002</t>
+  </si>
+  <si>
+    <t>00003</t>
+  </si>
+  <si>
+    <t>00004</t>
+  </si>
+  <si>
+    <t>00005</t>
+  </si>
+  <si>
+    <t>00006</t>
+  </si>
+  <si>
+    <t>00007</t>
+  </si>
+  <si>
+    <t>00008</t>
+  </si>
+  <si>
+    <t>00009</t>
+  </si>
+  <si>
+    <t>00010</t>
+  </si>
+  <si>
+    <t>00011</t>
+  </si>
+  <si>
+    <t>00012</t>
+  </si>
+  <si>
+    <t>00013</t>
+  </si>
+  <si>
+    <t>00014</t>
+  </si>
+  <si>
+    <t>00015</t>
+  </si>
+  <si>
+    <t>00016</t>
+  </si>
+  <si>
+    <t>00017</t>
+  </si>
+  <si>
+    <t>00018</t>
+  </si>
+  <si>
+    <t>00019</t>
+  </si>
+  <si>
+    <t>00020</t>
+  </si>
+  <si>
+    <t>00021</t>
+  </si>
+  <si>
+    <t>00022</t>
+  </si>
+  <si>
+    <t>00023</t>
+  </si>
+  <si>
+    <t>00024</t>
+  </si>
+  <si>
+    <t>00025</t>
+  </si>
+  <si>
+    <t>00026</t>
+  </si>
+  <si>
+    <t>00027</t>
+  </si>
+  <si>
+    <t>00028</t>
+  </si>
+  <si>
+    <t>00029</t>
+  </si>
+  <si>
+    <t>00030</t>
+  </si>
+  <si>
+    <t>00031</t>
+  </si>
+  <si>
+    <t>00032</t>
+  </si>
+  <si>
+    <t>00033</t>
+  </si>
+  <si>
+    <t>00034</t>
+  </si>
+  <si>
+    <t>00035</t>
+  </si>
+  <si>
+    <t>00036</t>
+  </si>
+  <si>
+    <t>00037</t>
+  </si>
+  <si>
+    <t>00038</t>
+  </si>
+  <si>
+    <t>00039</t>
+  </si>
+  <si>
+    <t>00040</t>
+  </si>
+  <si>
+    <t>00041</t>
+  </si>
+  <si>
+    <t>00042</t>
+  </si>
+  <si>
+    <t>00043</t>
+  </si>
+  <si>
+    <t>00044</t>
+  </si>
+  <si>
+    <t>00045</t>
+  </si>
+  <si>
+    <t>00046</t>
+  </si>
+  <si>
+    <t>00047</t>
+  </si>
+  <si>
+    <t>00048</t>
+  </si>
+  <si>
+    <t>00049</t>
+  </si>
+  <si>
+    <t>00050</t>
+  </si>
+  <si>
+    <t>00051</t>
+  </si>
+  <si>
+    <t>00052</t>
+  </si>
+  <si>
+    <t>00053</t>
+  </si>
+  <si>
+    <t>00054</t>
+  </si>
+  <si>
+    <t>00055</t>
+  </si>
+  <si>
+    <t>00056</t>
+  </si>
+  <si>
+    <t>00057</t>
+  </si>
+  <si>
+    <t>00058</t>
+  </si>
+  <si>
+    <t>00059</t>
+  </si>
+  <si>
+    <t>00060</t>
+  </si>
+  <si>
+    <t>00061</t>
+  </si>
+  <si>
+    <t>00062</t>
+  </si>
+  <si>
+    <t>00063</t>
+  </si>
+  <si>
+    <t>00064</t>
+  </si>
+  <si>
+    <t>00065</t>
+  </si>
+  <si>
+    <t>00066</t>
+  </si>
+  <si>
+    <t>00067</t>
+  </si>
+  <si>
+    <t>00068</t>
+  </si>
+  <si>
+    <t>00069</t>
+  </si>
+  <si>
+    <t>00070</t>
+  </si>
+  <si>
+    <t>00071</t>
+  </si>
+  <si>
+    <t>00072</t>
+  </si>
+  <si>
+    <t>00073</t>
+  </si>
+  <si>
+    <t>00074</t>
+  </si>
+  <si>
+    <t>00075</t>
+  </si>
+  <si>
+    <t>00076</t>
+  </si>
+  <si>
+    <t>00077</t>
+  </si>
+  <si>
+    <t>00078</t>
+  </si>
+  <si>
+    <t>00079</t>
+  </si>
+  <si>
+    <t>00080</t>
+  </si>
+  <si>
+    <t>00081</t>
+  </si>
+  <si>
+    <t>00082</t>
+  </si>
+  <si>
+    <t>00083</t>
+  </si>
+  <si>
+    <t>00084</t>
+  </si>
+  <si>
+    <t>00085</t>
+  </si>
+  <si>
+    <t>00086</t>
+  </si>
+  <si>
+    <t>00087</t>
+  </si>
+  <si>
+    <t>00088</t>
+  </si>
+  <si>
+    <t>00089</t>
+  </si>
+  <si>
+    <t>00090</t>
+  </si>
+  <si>
+    <t>00091</t>
+  </si>
+  <si>
+    <t>00092</t>
+  </si>
+  <si>
+    <t>00093</t>
+  </si>
+  <si>
+    <t>00094</t>
+  </si>
+  <si>
+    <t>00095</t>
+  </si>
+  <si>
+    <t>00096</t>
+  </si>
+  <si>
+    <t>00097</t>
+  </si>
+  <si>
+    <t>00098</t>
+  </si>
+  <si>
+    <t>00099</t>
+  </si>
+  <si>
+    <t>00100</t>
+  </si>
+  <si>
+    <t>00101</t>
+  </si>
+  <si>
+    <t>00102</t>
+  </si>
+  <si>
+    <t>00103</t>
+  </si>
+  <si>
+    <t>00104</t>
+  </si>
+  <si>
+    <t>00105</t>
+  </si>
+  <si>
+    <t>00106</t>
+  </si>
+  <si>
+    <t>00107</t>
+  </si>
+  <si>
+    <t>00108</t>
+  </si>
+  <si>
+    <t>00109</t>
+  </si>
+  <si>
+    <t>00110</t>
+  </si>
+  <si>
+    <t>00111</t>
+  </si>
+  <si>
+    <t>00112</t>
+  </si>
+  <si>
+    <t>00113</t>
+  </si>
+  <si>
+    <t>00114</t>
+  </si>
+  <si>
+    <t>00115</t>
+  </si>
+  <si>
+    <t>00116</t>
+  </si>
+  <si>
+    <t>00117</t>
+  </si>
+  <si>
+    <t>00118</t>
+  </si>
+  <si>
+    <t>00119</t>
+  </si>
+  <si>
+    <t>00120</t>
+  </si>
+  <si>
+    <t>00121</t>
+  </si>
+  <si>
+    <t>00122</t>
+  </si>
+  <si>
+    <t>00123</t>
+  </si>
+  <si>
+    <t>00124</t>
+  </si>
+  <si>
+    <t>00125</t>
+  </si>
+  <si>
+    <t>00126</t>
+  </si>
+  <si>
+    <t>00127</t>
+  </si>
+  <si>
+    <t>00128</t>
+  </si>
+  <si>
+    <t>00129</t>
+  </si>
+  <si>
+    <t>00130</t>
+  </si>
+  <si>
+    <t>00131</t>
+  </si>
+  <si>
+    <t>00132</t>
+  </si>
+  <si>
+    <t>00133</t>
+  </si>
+  <si>
+    <t>00134</t>
+  </si>
+  <si>
+    <t>00135</t>
+  </si>
+  <si>
+    <t>00136</t>
+  </si>
+  <si>
+    <t>00137</t>
+  </si>
+  <si>
+    <t>00138</t>
+  </si>
+  <si>
+    <t>00139</t>
+  </si>
+  <si>
+    <t>00140</t>
+  </si>
+  <si>
+    <t>00141</t>
+  </si>
+  <si>
+    <t>00142</t>
+  </si>
+  <si>
+    <t>00143</t>
+  </si>
+  <si>
+    <t>00144</t>
+  </si>
+  <si>
+    <t>00145</t>
+  </si>
+  <si>
+    <t>00146</t>
+  </si>
+  <si>
+    <t>00147</t>
+  </si>
+  <si>
+    <t>00148</t>
+  </si>
+  <si>
+    <t>00149</t>
+  </si>
+  <si>
+    <t>00150</t>
+  </si>
+  <si>
+    <t>00151</t>
+  </si>
+  <si>
+    <t>00152</t>
+  </si>
+  <si>
+    <t>00153</t>
+  </si>
+  <si>
+    <t>00154</t>
+  </si>
+  <si>
+    <t>00155</t>
+  </si>
+  <si>
+    <t>00156</t>
+  </si>
+  <si>
+    <t>00157</t>
+  </si>
+  <si>
+    <t>00158</t>
+  </si>
+  <si>
+    <t>00159</t>
+  </si>
+  <si>
+    <t>00160</t>
+  </si>
+  <si>
+    <t>00161</t>
+  </si>
+  <si>
+    <t>00162</t>
+  </si>
+  <si>
+    <t>00163</t>
+  </si>
+  <si>
+    <t>00164</t>
+  </si>
+  <si>
+    <t>00165</t>
+  </si>
+  <si>
+    <t>00166</t>
+  </si>
+  <si>
+    <t>00167</t>
+  </si>
+  <si>
+    <t>00168</t>
+  </si>
+  <si>
+    <t>00169</t>
+  </si>
+  <si>
+    <t>00170</t>
+  </si>
+  <si>
+    <t>00171</t>
+  </si>
+  <si>
+    <t>00172</t>
+  </si>
+  <si>
+    <t>00173</t>
+  </si>
+  <si>
+    <t>00174</t>
+  </si>
+  <si>
+    <t>00175</t>
+  </si>
+  <si>
+    <t>00176</t>
+  </si>
+  <si>
+    <t>00177</t>
+  </si>
+  <si>
+    <t>00178</t>
+  </si>
+  <si>
+    <t>00179</t>
+  </si>
+  <si>
+    <t>00180</t>
+  </si>
+  <si>
+    <t>00181</t>
+  </si>
+  <si>
+    <t>00182</t>
+  </si>
+  <si>
+    <t>00183</t>
+  </si>
+  <si>
+    <t>00184</t>
+  </si>
+  <si>
+    <t>00185</t>
+  </si>
+  <si>
+    <t>00186</t>
+  </si>
+  <si>
+    <t>00187</t>
+  </si>
+  <si>
+    <t>00188</t>
+  </si>
+  <si>
+    <t>00189</t>
+  </si>
+  <si>
+    <t>00190</t>
+  </si>
+  <si>
+    <t>00191</t>
+  </si>
+  <si>
+    <t>00192</t>
+  </si>
+  <si>
+    <t>00193</t>
+  </si>
+  <si>
+    <t>00194</t>
+  </si>
+  <si>
+    <t>00195</t>
+  </si>
+  <si>
+    <t>00196</t>
+  </si>
+  <si>
+    <t>00197</t>
+  </si>
+  <si>
+    <t>00198</t>
+  </si>
+  <si>
+    <t>00199</t>
+  </si>
+  <si>
+    <t>00200</t>
+  </si>
+  <si>
+    <t>00201</t>
+  </si>
+  <si>
+    <t>00202</t>
+  </si>
+  <si>
+    <t>00203</t>
+  </si>
+  <si>
+    <t>00204</t>
+  </si>
+  <si>
+    <t>00205</t>
+  </si>
+  <si>
+    <t>00206</t>
+  </si>
+  <si>
+    <t>00207</t>
+  </si>
+  <si>
+    <t>00208</t>
+  </si>
+  <si>
+    <t>00209</t>
+  </si>
+  <si>
+    <t>00210</t>
+  </si>
+  <si>
+    <t>00211</t>
+  </si>
+  <si>
+    <t>00212</t>
+  </si>
+  <si>
+    <t>00213</t>
+  </si>
+  <si>
+    <t>00214</t>
+  </si>
+  <si>
+    <t>00215</t>
+  </si>
+  <si>
+    <t>00216</t>
+  </si>
+  <si>
+    <t>00217</t>
+  </si>
+  <si>
+    <t>00218</t>
+  </si>
+  <si>
+    <t>00219</t>
+  </si>
+  <si>
+    <t>00220</t>
+  </si>
+  <si>
+    <t>00221</t>
+  </si>
+  <si>
+    <t>00222</t>
+  </si>
+  <si>
+    <t>00223</t>
+  </si>
+  <si>
+    <t>00224</t>
+  </si>
+  <si>
+    <t>00225</t>
+  </si>
+  <si>
+    <t>00226</t>
+  </si>
+  <si>
+    <t>00227</t>
+  </si>
+  <si>
+    <t>00228</t>
+  </si>
+  <si>
+    <t>00229</t>
+  </si>
+  <si>
+    <t>00230</t>
+  </si>
+  <si>
+    <t>00231</t>
+  </si>
+  <si>
+    <t>00232</t>
+  </si>
+  <si>
+    <t>00233</t>
+  </si>
+  <si>
+    <t>00234</t>
+  </si>
+  <si>
+    <t>00235</t>
+  </si>
+  <si>
+    <t>00236</t>
+  </si>
+  <si>
+    <t>00237</t>
+  </si>
+  <si>
+    <t>00238</t>
+  </si>
+  <si>
+    <t>00239</t>
+  </si>
+  <si>
+    <t>00240</t>
+  </si>
+  <si>
+    <t>00241</t>
+  </si>
+  <si>
+    <t>00242</t>
+  </si>
+  <si>
+    <t>00243</t>
+  </si>
+  <si>
+    <t>00244</t>
+  </si>
+  <si>
+    <t>00245</t>
+  </si>
+  <si>
+    <t>00246</t>
+  </si>
+  <si>
+    <t>00247</t>
+  </si>
+  <si>
+    <t>00248</t>
+  </si>
+  <si>
+    <t>00249</t>
+  </si>
+  <si>
+    <t>00250</t>
+  </si>
+  <si>
+    <t>00251</t>
+  </si>
+  <si>
+    <t>00252</t>
+  </si>
+  <si>
+    <t>00253</t>
+  </si>
+  <si>
+    <t>00254</t>
+  </si>
+  <si>
+    <t>00255</t>
+  </si>
+  <si>
+    <t>00256</t>
+  </si>
+  <si>
+    <t>00257</t>
+  </si>
+  <si>
+    <t>00258</t>
+  </si>
+  <si>
+    <t>00259</t>
+  </si>
+  <si>
+    <t>00260</t>
+  </si>
+  <si>
+    <t>00261</t>
+  </si>
+  <si>
+    <t>00262</t>
+  </si>
+  <si>
+    <t>00263</t>
+  </si>
+  <si>
+    <t>00264</t>
+  </si>
+  <si>
+    <t>00265</t>
+  </si>
+  <si>
+    <t>00266</t>
+  </si>
+  <si>
+    <t>00267</t>
+  </si>
+  <si>
+    <t>00268</t>
+  </si>
+  <si>
+    <t>00269</t>
+  </si>
+  <si>
+    <t>00270</t>
+  </si>
+  <si>
+    <t>00271</t>
+  </si>
+  <si>
+    <t>00272</t>
+  </si>
+  <si>
+    <t>00273</t>
+  </si>
+  <si>
+    <t>00274</t>
+  </si>
+  <si>
+    <t>00275</t>
+  </si>
+  <si>
+    <t>00276</t>
+  </si>
+  <si>
+    <t>00277</t>
+  </si>
+  <si>
+    <t>00278</t>
+  </si>
+  <si>
+    <t>00279</t>
+  </si>
+  <si>
+    <t>00280</t>
+  </si>
+  <si>
+    <t>00281</t>
+  </si>
+  <si>
+    <t>00282</t>
+  </si>
+  <si>
+    <t>00283</t>
+  </si>
+  <si>
+    <t>00284</t>
+  </si>
+  <si>
+    <t>00285</t>
+  </si>
+  <si>
+    <t>00286</t>
+  </si>
+  <si>
+    <t>00287</t>
+  </si>
+  <si>
+    <t>00288</t>
+  </si>
+  <si>
+    <t>00289</t>
+  </si>
+  <si>
+    <t>00290</t>
+  </si>
+  <si>
+    <t>00291</t>
+  </si>
+  <si>
+    <t>00292</t>
+  </si>
+  <si>
+    <t>00293</t>
+  </si>
+  <si>
+    <t>00294</t>
+  </si>
+  <si>
+    <t>00295</t>
+  </si>
+  <si>
+    <t>00296</t>
+  </si>
+  <si>
+    <t>00297</t>
+  </si>
+  <si>
+    <t>00298</t>
+  </si>
+  <si>
+    <t>00299</t>
+  </si>
+  <si>
+    <t>en mayo me gusta ir con Abril al campo, sobre todo los jueves y los domingos…</t>
   </si>
 </sst>
 </file>
@@ -2049,9 +2949,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2332,2996 +3233,3896 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E300"/>
+  <dimension ref="A1:F300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="73.6328125" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" customWidth="1"/>
-    <col min="4" max="4" width="59.81640625" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" customWidth="1"/>
+    <col min="4" max="4" width="25.6328125" customWidth="1"/>
+    <col min="5" max="5" width="59.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B1" t="s">
         <v>171</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>172</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>173</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>174</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B2" t="s">
+        <v>961</v>
+      </c>
+      <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B5" t="s">
         <v>286</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B6" t="s">
+        <v>523</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B7" t="s">
+        <v>524</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B8" t="s">
+        <v>525</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B9" t="s">
+        <v>526</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B10" t="s">
+        <v>527</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B11" t="s">
+        <v>528</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B12" t="s">
+        <v>529</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B13" t="s">
+        <v>530</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B14" t="s">
+        <v>531</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B28" t="s">
+        <v>532</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B29" t="s">
         <v>533</v>
       </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B30" t="s">
         <v>534</v>
       </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B31" t="s">
         <v>535</v>
       </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B32" t="s">
         <v>536</v>
       </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B33" t="s">
         <v>537</v>
       </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="D33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B34" t="s">
         <v>538</v>
       </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="D34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B35" t="s">
         <v>539</v>
       </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="D35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B36" t="s">
         <v>540</v>
       </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B37" t="s">
         <v>541</v>
       </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="D37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B38" t="s">
         <v>542</v>
       </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="D38" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B39" t="s">
         <v>543</v>
       </c>
-      <c r="C29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="D39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B40" t="s">
         <v>544</v>
       </c>
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="D40" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B41" t="s">
         <v>545</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D41" t="s">
         <v>62</v>
       </c>
-      <c r="D31" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="E41" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B42" t="s">
         <v>546</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D42" t="s">
         <v>62</v>
       </c>
-      <c r="D32" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="E42" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B43" t="s">
         <v>547</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D43" t="s">
         <v>62</v>
       </c>
-      <c r="D33" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="E43" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B44" t="s">
         <v>548</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D44" t="s">
         <v>62</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E44" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B45" t="s">
+        <v>549</v>
+      </c>
+      <c r="D45" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B51" t="s">
+        <v>322</v>
+      </c>
+      <c r="D51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B52" t="s">
+        <v>323</v>
+      </c>
+      <c r="D52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D56" t="s">
+        <v>57</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B57" t="s">
+        <v>324</v>
+      </c>
+      <c r="D57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E57" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B58" t="s">
+        <v>325</v>
+      </c>
+      <c r="D58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B59" t="s">
+        <v>100</v>
+      </c>
+      <c r="D59" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B60" t="s">
+        <v>551</v>
+      </c>
+      <c r="D60" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B61" t="s">
+        <v>552</v>
+      </c>
+      <c r="D61" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B62" t="s">
+        <v>553</v>
+      </c>
+      <c r="D62" t="s">
+        <v>99</v>
+      </c>
+      <c r="E62" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B63" t="s">
+        <v>554</v>
+      </c>
+      <c r="D63" t="s">
+        <v>99</v>
+      </c>
+      <c r="E63" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B64" t="s">
+        <v>555</v>
+      </c>
+      <c r="D64" t="s">
+        <v>99</v>
+      </c>
+      <c r="E64" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B65" t="s">
+        <v>556</v>
+      </c>
+      <c r="D65" t="s">
+        <v>99</v>
+      </c>
+      <c r="E65" t="s">
+        <v>332</v>
+      </c>
+      <c r="F65" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B66" t="s">
+        <v>557</v>
+      </c>
+      <c r="D66" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D67" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B68" t="s">
+        <v>558</v>
+      </c>
+      <c r="D68" t="s">
+        <v>119</v>
+      </c>
+      <c r="E68" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B69" t="s">
+        <v>559</v>
+      </c>
+      <c r="D69" t="s">
+        <v>119</v>
+      </c>
+      <c r="E69" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B70" t="s">
+        <v>560</v>
+      </c>
+      <c r="D70" t="s">
+        <v>119</v>
+      </c>
+      <c r="E70" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B71" t="s">
+        <v>561</v>
+      </c>
+      <c r="D71" t="s">
+        <v>137</v>
+      </c>
+      <c r="E71" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B72" t="s">
+        <v>562</v>
+      </c>
+      <c r="D72" t="s">
+        <v>137</v>
+      </c>
+      <c r="E72" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B73" t="s">
+        <v>563</v>
+      </c>
+      <c r="D73" t="s">
+        <v>137</v>
+      </c>
+      <c r="E73" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B74" t="s">
+        <v>564</v>
+      </c>
+      <c r="D74" t="s">
+        <v>137</v>
+      </c>
+      <c r="E74" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B75" t="s">
+        <v>565</v>
+      </c>
+      <c r="D75" t="s">
+        <v>137</v>
+      </c>
+      <c r="E75" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B76" t="s">
+        <v>561</v>
+      </c>
+      <c r="D76" t="s">
+        <v>137</v>
+      </c>
+      <c r="E76" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B77" t="s">
+        <v>566</v>
+      </c>
+      <c r="D77" t="s">
+        <v>137</v>
+      </c>
+      <c r="E77" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B78" t="s">
+        <v>567</v>
+      </c>
+      <c r="D78" t="s">
+        <v>137</v>
+      </c>
+      <c r="E78" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B79" t="s">
+        <v>568</v>
+      </c>
+      <c r="D79" t="s">
+        <v>137</v>
+      </c>
+      <c r="E79" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B80" t="s">
+        <v>569</v>
+      </c>
+      <c r="D80" t="s">
+        <v>137</v>
+      </c>
+      <c r="E80" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B81" t="s">
+        <v>570</v>
+      </c>
+      <c r="D81" t="s">
+        <v>137</v>
+      </c>
+      <c r="E81" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B82" t="s">
+        <v>571</v>
+      </c>
+      <c r="D82" t="s">
+        <v>137</v>
+      </c>
+      <c r="E82" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B83" t="s">
+        <v>572</v>
+      </c>
+      <c r="D83" t="s">
+        <v>137</v>
+      </c>
+      <c r="E83" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B84" t="s">
+        <v>150</v>
+      </c>
+      <c r="D84" t="s">
+        <v>137</v>
+      </c>
+      <c r="E84" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B85" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E85" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B86" t="s">
+        <v>50</v>
+      </c>
+      <c r="D86" t="s">
+        <v>48</v>
+      </c>
+      <c r="E86" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B87" t="s">
+        <v>51</v>
+      </c>
+      <c r="D87" t="s">
+        <v>48</v>
+      </c>
+      <c r="E87" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B88" t="s">
+        <v>52</v>
+      </c>
+      <c r="D88" t="s">
+        <v>48</v>
+      </c>
+      <c r="E88" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B89" t="s">
+        <v>53</v>
+      </c>
+      <c r="D89" t="s">
+        <v>48</v>
+      </c>
+      <c r="E89" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B90" t="s">
+        <v>54</v>
+      </c>
+      <c r="D90" t="s">
+        <v>48</v>
+      </c>
+      <c r="E90" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B91" t="s">
+        <v>55</v>
+      </c>
+      <c r="D91" t="s">
+        <v>48</v>
+      </c>
+      <c r="E91" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B92" t="s">
+        <v>56</v>
+      </c>
+      <c r="D92" t="s">
+        <v>48</v>
+      </c>
+      <c r="E92" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B93" t="s">
+        <v>573</v>
+      </c>
+      <c r="D93" t="s">
+        <v>48</v>
+      </c>
+      <c r="E93" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B94" t="s">
+        <v>574</v>
+      </c>
+      <c r="D94" t="s">
+        <v>48</v>
+      </c>
+      <c r="E94" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B95" t="s">
+        <v>575</v>
+      </c>
+      <c r="D95" t="s">
+        <v>48</v>
+      </c>
+      <c r="E95" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B96" t="s">
+        <v>576</v>
+      </c>
+      <c r="D96" t="s">
+        <v>48</v>
+      </c>
+      <c r="E96" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B97" t="s">
+        <v>577</v>
+      </c>
+      <c r="D97" t="s">
+        <v>48</v>
+      </c>
+      <c r="E97" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B98" t="s">
+        <v>82</v>
+      </c>
+      <c r="D98" t="s">
+        <v>48</v>
+      </c>
+      <c r="E98" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B99" t="s">
+        <v>83</v>
+      </c>
+      <c r="D99" t="s">
+        <v>48</v>
+      </c>
+      <c r="E99" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B100" t="s">
+        <v>84</v>
+      </c>
+      <c r="D100" t="s">
+        <v>48</v>
+      </c>
+      <c r="E100" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B101" t="s">
+        <v>85</v>
+      </c>
+      <c r="D101" t="s">
+        <v>48</v>
+      </c>
+      <c r="E101" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B102" t="s">
+        <v>86</v>
+      </c>
+      <c r="D102" t="s">
+        <v>48</v>
+      </c>
+      <c r="E102" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B103" t="s">
+        <v>87</v>
+      </c>
+      <c r="D103" t="s">
+        <v>48</v>
+      </c>
+      <c r="E103" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B104" t="s">
+        <v>88</v>
+      </c>
+      <c r="D104" t="s">
+        <v>48</v>
+      </c>
+      <c r="E104" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B105" t="s">
+        <v>89</v>
+      </c>
+      <c r="D105" t="s">
+        <v>48</v>
+      </c>
+      <c r="E105" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B106" t="s">
+        <v>90</v>
+      </c>
+      <c r="D106" t="s">
+        <v>48</v>
+      </c>
+      <c r="E106" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B107" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" t="s">
+        <v>48</v>
+      </c>
+      <c r="E107" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B108" t="s">
+        <v>92</v>
+      </c>
+      <c r="D108" t="s">
+        <v>48</v>
+      </c>
+      <c r="E108" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B109" t="s">
+        <v>93</v>
+      </c>
+      <c r="D109" t="s">
+        <v>48</v>
+      </c>
+      <c r="E109" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B110" t="s">
+        <v>578</v>
+      </c>
+      <c r="D110" t="s">
+        <v>48</v>
+      </c>
+      <c r="E110" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B111" t="s">
+        <v>579</v>
+      </c>
+      <c r="D111" t="s">
+        <v>48</v>
+      </c>
+      <c r="E111" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B112" t="s">
+        <v>580</v>
+      </c>
+      <c r="D112" t="s">
+        <v>48</v>
+      </c>
+      <c r="E112" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B113" t="s">
+        <v>581</v>
+      </c>
+      <c r="D113" t="s">
+        <v>48</v>
+      </c>
+      <c r="E113" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B114" t="s">
+        <v>98</v>
+      </c>
+      <c r="D114" t="s">
+        <v>48</v>
+      </c>
+      <c r="E114" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B115" t="s">
+        <v>582</v>
+      </c>
+      <c r="D115" t="s">
+        <v>151</v>
+      </c>
+      <c r="E115" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B116" t="s">
+        <v>583</v>
+      </c>
+      <c r="D116" t="s">
+        <v>151</v>
+      </c>
+      <c r="E116" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B117" t="s">
+        <v>584</v>
+      </c>
+      <c r="D117" t="s">
+        <v>151</v>
+      </c>
+      <c r="E117" t="s">
+        <v>363</v>
+      </c>
+      <c r="F117" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B118" t="s">
+        <v>585</v>
+      </c>
+      <c r="D118" t="s">
+        <v>151</v>
+      </c>
+      <c r="E118" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B119" t="s">
+        <v>586</v>
+      </c>
+      <c r="D119" t="s">
+        <v>151</v>
+      </c>
+      <c r="E119" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B120" t="s">
+        <v>587</v>
+      </c>
+      <c r="D120" t="s">
+        <v>151</v>
+      </c>
+      <c r="E120" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B121" t="s">
+        <v>588</v>
+      </c>
+      <c r="D121" t="s">
+        <v>151</v>
+      </c>
+      <c r="E121" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B122" t="s">
+        <v>589</v>
+      </c>
+      <c r="D122" t="s">
+        <v>151</v>
+      </c>
+      <c r="E122" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B123" t="s">
+        <v>590</v>
+      </c>
+      <c r="D123" t="s">
+        <v>151</v>
+      </c>
+      <c r="E123" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B124" t="s">
+        <v>591</v>
+      </c>
+      <c r="D124" t="s">
+        <v>151</v>
+      </c>
+      <c r="E124" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B125" t="s">
+        <v>49</v>
+      </c>
+      <c r="D125" t="s">
+        <v>151</v>
+      </c>
+      <c r="E125" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B126" t="s">
+        <v>50</v>
+      </c>
+      <c r="D126" t="s">
+        <v>151</v>
+      </c>
+      <c r="E126" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B127" t="s">
+        <v>51</v>
+      </c>
+      <c r="D127" t="s">
+        <v>151</v>
+      </c>
+      <c r="E127" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B128" t="s">
+        <v>52</v>
+      </c>
+      <c r="D128" t="s">
+        <v>151</v>
+      </c>
+      <c r="E128" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B129" t="s">
+        <v>53</v>
+      </c>
+      <c r="D129" t="s">
+        <v>151</v>
+      </c>
+      <c r="E129" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B130" t="s">
+        <v>54</v>
+      </c>
+      <c r="D130" t="s">
+        <v>151</v>
+      </c>
+      <c r="E130" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B131" t="s">
+        <v>55</v>
+      </c>
+      <c r="D131" t="s">
+        <v>151</v>
+      </c>
+      <c r="E131" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B132" t="s">
+        <v>162</v>
+      </c>
+      <c r="D132" t="s">
+        <v>151</v>
+      </c>
+      <c r="E132" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B133" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133" t="s">
+        <v>25</v>
+      </c>
+      <c r="E133" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="B134" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134" t="s">
+        <v>25</v>
+      </c>
+      <c r="E134" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B135" t="s">
+        <v>592</v>
+      </c>
+      <c r="D135" t="s">
+        <v>25</v>
+      </c>
+      <c r="E135" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B136" t="s">
+        <v>593</v>
+      </c>
+      <c r="D136" t="s">
+        <v>25</v>
+      </c>
+      <c r="E136" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B137" t="s">
+        <v>544</v>
+      </c>
+      <c r="D137" t="s">
+        <v>25</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>549</v>
-      </c>
-      <c r="C35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B138" t="s">
+        <v>594</v>
+      </c>
+      <c r="D138" t="s">
+        <v>25</v>
+      </c>
+      <c r="E138" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>551</v>
-      </c>
-      <c r="C37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>552</v>
-      </c>
-      <c r="C38" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>553</v>
-      </c>
-      <c r="C39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>554</v>
-      </c>
-      <c r="C40" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="D139" t="s">
+        <v>25</v>
+      </c>
+      <c r="E139" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>555</v>
-      </c>
-      <c r="C41" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>556</v>
-      </c>
-      <c r="C42" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>557</v>
-      </c>
-      <c r="C43" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>558</v>
-      </c>
-      <c r="C44" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>559</v>
-      </c>
-      <c r="C45" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B140" t="s">
+        <v>41</v>
+      </c>
+      <c r="D140" t="s">
+        <v>25</v>
+      </c>
+      <c r="E140" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B141" t="s">
+        <v>42</v>
+      </c>
+      <c r="D141" t="s">
+        <v>25</v>
+      </c>
+      <c r="E141" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="B142" t="s">
+        <v>595</v>
+      </c>
+      <c r="D142" t="s">
+        <v>25</v>
+      </c>
+      <c r="E142" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B143" t="s">
+        <v>596</v>
+      </c>
+      <c r="D143" t="s">
+        <v>25</v>
+      </c>
+      <c r="E143" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B144" t="s">
+        <v>597</v>
+      </c>
+      <c r="D144" t="s">
+        <v>25</v>
+      </c>
+      <c r="E144" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B145" t="s">
+        <v>598</v>
+      </c>
+      <c r="D145" t="s">
+        <v>25</v>
+      </c>
+      <c r="E145" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B146" t="s">
+        <v>599</v>
+      </c>
+      <c r="D146" t="s">
+        <v>25</v>
+      </c>
+      <c r="E146" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B147" t="s">
+        <v>600</v>
+      </c>
+      <c r="D147" t="s">
+        <v>25</v>
+      </c>
+      <c r="E147" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B148" t="s">
+        <v>601</v>
+      </c>
+      <c r="D148" t="s">
+        <v>25</v>
+      </c>
+      <c r="E148" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B149" t="s">
+        <v>602</v>
+      </c>
+      <c r="D149" t="s">
+        <v>25</v>
+      </c>
+      <c r="E149" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B150" t="s">
+        <v>603</v>
+      </c>
+      <c r="D150" t="s">
+        <v>25</v>
+      </c>
+      <c r="E150" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B151" t="s">
         <v>560</v>
       </c>
-      <c r="C46" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C47" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C48" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C50" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C51" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>329</v>
-      </c>
-      <c r="C52" t="s">
-        <v>57</v>
-      </c>
-      <c r="D52" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C53" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C54" t="s">
-        <v>57</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C55" t="s">
-        <v>57</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C56" t="s">
-        <v>57</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>330</v>
-      </c>
-      <c r="C57" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>331</v>
-      </c>
-      <c r="C58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D58" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>100</v>
-      </c>
-      <c r="C59" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>561</v>
-      </c>
-      <c r="C60" t="s">
-        <v>99</v>
-      </c>
-      <c r="D60" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>562</v>
-      </c>
-      <c r="C61" t="s">
-        <v>99</v>
-      </c>
-      <c r="D61" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>563</v>
-      </c>
-      <c r="C62" t="s">
-        <v>99</v>
-      </c>
-      <c r="D62" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>564</v>
-      </c>
-      <c r="C63" t="s">
-        <v>99</v>
-      </c>
-      <c r="D63" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>565</v>
-      </c>
-      <c r="C64" t="s">
-        <v>99</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="D151" t="s">
+        <v>25</v>
+      </c>
+      <c r="E151" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>566</v>
-      </c>
-      <c r="C65" t="s">
-        <v>99</v>
-      </c>
-      <c r="D65" t="s">
-        <v>338</v>
-      </c>
-      <c r="E65" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>567</v>
-      </c>
-      <c r="C66" t="s">
-        <v>99</v>
-      </c>
-      <c r="D66" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>120</v>
-      </c>
-      <c r="C67" t="s">
-        <v>119</v>
-      </c>
-      <c r="D67" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>568</v>
-      </c>
-      <c r="C68" t="s">
-        <v>119</v>
-      </c>
-      <c r="D68" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>569</v>
-      </c>
-      <c r="C69" t="s">
-        <v>119</v>
-      </c>
-      <c r="D69" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>570</v>
-      </c>
-      <c r="C70" t="s">
-        <v>119</v>
-      </c>
-      <c r="D70" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>571</v>
-      </c>
-      <c r="C71" t="s">
-        <v>137</v>
-      </c>
-      <c r="D71" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>572</v>
-      </c>
-      <c r="C72" t="s">
-        <v>137</v>
-      </c>
-      <c r="D72" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>573</v>
-      </c>
-      <c r="C73" t="s">
-        <v>137</v>
-      </c>
-      <c r="D73" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>574</v>
-      </c>
-      <c r="C74" t="s">
-        <v>137</v>
-      </c>
-      <c r="D74" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>575</v>
-      </c>
-      <c r="C75" t="s">
-        <v>137</v>
-      </c>
-      <c r="D75" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>571</v>
-      </c>
-      <c r="C76" t="s">
-        <v>137</v>
-      </c>
-      <c r="D76" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>576</v>
-      </c>
-      <c r="C77" t="s">
-        <v>137</v>
-      </c>
-      <c r="D77" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>577</v>
-      </c>
-      <c r="C78" t="s">
-        <v>137</v>
-      </c>
-      <c r="D78" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>578</v>
-      </c>
-      <c r="C79" t="s">
-        <v>137</v>
-      </c>
-      <c r="D79" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>579</v>
-      </c>
-      <c r="C80" t="s">
-        <v>137</v>
-      </c>
-      <c r="D80" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>580</v>
-      </c>
-      <c r="C81" t="s">
-        <v>137</v>
-      </c>
-      <c r="D81" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>581</v>
-      </c>
-      <c r="C82" t="s">
-        <v>137</v>
-      </c>
-      <c r="D82" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>582</v>
-      </c>
-      <c r="C83" t="s">
-        <v>137</v>
-      </c>
-      <c r="D83" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>150</v>
-      </c>
-      <c r="C84" t="s">
-        <v>137</v>
-      </c>
-      <c r="D84" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>49</v>
-      </c>
-      <c r="C85" t="s">
-        <v>48</v>
-      </c>
-      <c r="D85" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>50</v>
-      </c>
-      <c r="C86" t="s">
-        <v>48</v>
-      </c>
-      <c r="D86" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>51</v>
-      </c>
-      <c r="C87" t="s">
-        <v>48</v>
-      </c>
-      <c r="D87" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>52</v>
-      </c>
-      <c r="C88" t="s">
-        <v>48</v>
-      </c>
-      <c r="D88" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>53</v>
-      </c>
-      <c r="C89" t="s">
-        <v>48</v>
-      </c>
-      <c r="D89" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>54</v>
-      </c>
-      <c r="C90" t="s">
-        <v>48</v>
-      </c>
-      <c r="D90" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>55</v>
-      </c>
-      <c r="C91" t="s">
-        <v>48</v>
-      </c>
-      <c r="D91" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>56</v>
-      </c>
-      <c r="C92" t="s">
-        <v>48</v>
-      </c>
-      <c r="D92" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>583</v>
-      </c>
-      <c r="C93" t="s">
-        <v>48</v>
-      </c>
-      <c r="D93" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>584</v>
-      </c>
-      <c r="C94" t="s">
-        <v>48</v>
-      </c>
-      <c r="D94" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>585</v>
-      </c>
-      <c r="C95" t="s">
-        <v>48</v>
-      </c>
-      <c r="D95" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>586</v>
-      </c>
-      <c r="C96" t="s">
-        <v>48</v>
-      </c>
-      <c r="D96" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>587</v>
-      </c>
-      <c r="C97" t="s">
-        <v>48</v>
-      </c>
-      <c r="D97" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>82</v>
-      </c>
-      <c r="C98" t="s">
-        <v>48</v>
-      </c>
-      <c r="D98" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>83</v>
-      </c>
-      <c r="C99" t="s">
-        <v>48</v>
-      </c>
-      <c r="D99" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B152" t="s">
+        <v>604</v>
+      </c>
+      <c r="D152" t="s">
+        <v>25</v>
+      </c>
+      <c r="E152" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B153" t="s">
+        <v>605</v>
+      </c>
+      <c r="D153" t="s">
+        <v>25</v>
+      </c>
+      <c r="E153" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B154" t="s">
+        <v>606</v>
+      </c>
+      <c r="D154" t="s">
+        <v>25</v>
+      </c>
+      <c r="E154" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B155" t="s">
+        <v>607</v>
+      </c>
+      <c r="D155" t="s">
+        <v>25</v>
+      </c>
+      <c r="E155" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B156" t="s">
+        <v>608</v>
+      </c>
+      <c r="D156" t="s">
+        <v>25</v>
+      </c>
+      <c r="E156" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="B157" t="s">
+        <v>609</v>
+      </c>
+      <c r="D157" t="s">
+        <v>25</v>
+      </c>
+      <c r="E157" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B158" t="s">
+        <v>390</v>
+      </c>
+      <c r="D158" t="s">
+        <v>25</v>
+      </c>
+      <c r="E158" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B159" t="s">
+        <v>610</v>
+      </c>
+      <c r="D159" t="s">
+        <v>124</v>
+      </c>
+      <c r="E159" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B160" t="s">
+        <v>611</v>
+      </c>
+      <c r="D160" t="s">
+        <v>124</v>
+      </c>
+      <c r="E160" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B161" t="s">
+        <v>612</v>
+      </c>
+      <c r="D161" t="s">
+        <v>124</v>
+      </c>
+      <c r="E161" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B162" t="s">
+        <v>613</v>
+      </c>
+      <c r="D162" t="s">
+        <v>124</v>
+      </c>
+      <c r="E162" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B163" t="s">
+        <v>109</v>
+      </c>
+      <c r="D163" t="s">
+        <v>108</v>
+      </c>
+      <c r="E163" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>84</v>
-      </c>
-      <c r="C100" t="s">
-        <v>48</v>
-      </c>
-      <c r="D100" t="s">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B164" t="s">
+        <v>110</v>
+      </c>
+      <c r="D164" t="s">
+        <v>108</v>
+      </c>
+      <c r="E164" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>85</v>
-      </c>
-      <c r="C101" t="s">
-        <v>48</v>
-      </c>
-      <c r="D101" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>86</v>
-      </c>
-      <c r="C102" t="s">
-        <v>48</v>
-      </c>
-      <c r="D102" t="s">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B165" t="s">
+        <v>111</v>
+      </c>
+      <c r="D165" t="s">
+        <v>108</v>
+      </c>
+      <c r="E165" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>87</v>
-      </c>
-      <c r="C103" t="s">
-        <v>48</v>
-      </c>
-      <c r="D103" t="s">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="B166" t="s">
+        <v>112</v>
+      </c>
+      <c r="D166" t="s">
+        <v>108</v>
+      </c>
+      <c r="E166" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>88</v>
-      </c>
-      <c r="C104" t="s">
-        <v>48</v>
-      </c>
-      <c r="D104" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>89</v>
-      </c>
-      <c r="C105" t="s">
-        <v>48</v>
-      </c>
-      <c r="D105" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>90</v>
-      </c>
-      <c r="C106" t="s">
-        <v>48</v>
-      </c>
-      <c r="D106" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>91</v>
-      </c>
-      <c r="C107" t="s">
-        <v>48</v>
-      </c>
-      <c r="D107" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>92</v>
-      </c>
-      <c r="C108" t="s">
-        <v>48</v>
-      </c>
-      <c r="D108" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>93</v>
-      </c>
-      <c r="C109" t="s">
-        <v>48</v>
-      </c>
-      <c r="D109" t="s">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B167" t="s">
+        <v>113</v>
+      </c>
+      <c r="D167" t="s">
+        <v>108</v>
+      </c>
+      <c r="E167" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>588</v>
-      </c>
-      <c r="C110" t="s">
-        <v>48</v>
-      </c>
-      <c r="D110" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>589</v>
-      </c>
-      <c r="C111" t="s">
-        <v>48</v>
-      </c>
-      <c r="D111" t="s">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B168" t="s">
+        <v>395</v>
+      </c>
+      <c r="D168" t="s">
+        <v>108</v>
+      </c>
+      <c r="E168" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B169" t="s">
+        <v>614</v>
+      </c>
+      <c r="D169" t="s">
+        <v>108</v>
+      </c>
+      <c r="E169" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B170" t="s">
+        <v>615</v>
+      </c>
+      <c r="D170" t="s">
+        <v>108</v>
+      </c>
+      <c r="E170" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B171" t="s">
+        <v>616</v>
+      </c>
+      <c r="D171" t="s">
+        <v>108</v>
+      </c>
+      <c r="E171" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B172" t="s">
+        <v>118</v>
+      </c>
+      <c r="D172" t="s">
+        <v>108</v>
+      </c>
+      <c r="E172" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B173" t="s">
+        <v>44</v>
+      </c>
+      <c r="D173" t="s">
+        <v>43</v>
+      </c>
+      <c r="E173" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B174" t="s">
+        <v>45</v>
+      </c>
+      <c r="D174" t="s">
+        <v>43</v>
+      </c>
+      <c r="E174" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B175" t="s">
+        <v>46</v>
+      </c>
+      <c r="D175" t="s">
+        <v>43</v>
+      </c>
+      <c r="E175" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B176" t="s">
+        <v>47</v>
+      </c>
+      <c r="D176" t="s">
+        <v>43</v>
+      </c>
+      <c r="E176" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B177" t="s">
+        <v>403</v>
+      </c>
+      <c r="E177" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="B178" t="s">
+        <v>277</v>
+      </c>
+      <c r="D178" t="s">
+        <v>124</v>
+      </c>
+      <c r="E178" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B179" t="s">
+        <v>176</v>
+      </c>
+      <c r="D179" t="s">
+        <v>124</v>
+      </c>
+      <c r="E179" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B180" t="s">
+        <v>276</v>
+      </c>
+      <c r="D180" t="s">
+        <v>124</v>
+      </c>
+      <c r="E180" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B181" t="s">
+        <v>617</v>
+      </c>
+      <c r="D181" t="s">
+        <v>278</v>
+      </c>
+      <c r="E181" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B182" t="s">
+        <v>178</v>
+      </c>
+      <c r="D182" t="s">
+        <v>124</v>
+      </c>
+      <c r="E182" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B183" t="s">
+        <v>179</v>
+      </c>
+      <c r="D183" t="s">
+        <v>279</v>
+      </c>
+      <c r="E183" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B184" t="s">
+        <v>618</v>
+      </c>
+      <c r="D184" t="s">
+        <v>124</v>
+      </c>
+      <c r="E184" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B185" t="s">
+        <v>181</v>
+      </c>
+      <c r="D185" t="s">
+        <v>278</v>
+      </c>
+      <c r="E185" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B186" t="s">
+        <v>182</v>
+      </c>
+      <c r="E186" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B187" t="s">
+        <v>619</v>
+      </c>
+      <c r="E187" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="B188" t="s">
+        <v>620</v>
+      </c>
+      <c r="E188" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="B189" t="s">
+        <v>185</v>
+      </c>
+      <c r="E189" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B190" t="s">
+        <v>186</v>
+      </c>
+      <c r="E190" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="B191" t="s">
+        <v>187</v>
+      </c>
+      <c r="E191" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A192" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="B192" t="s">
+        <v>188</v>
+      </c>
+      <c r="E192" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="B193" t="s">
+        <v>189</v>
+      </c>
+      <c r="E193" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B194" t="s">
+        <v>621</v>
+      </c>
+      <c r="E194" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="B195" t="s">
+        <v>622</v>
+      </c>
+      <c r="E195" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="B196" t="s">
+        <v>623</v>
+      </c>
+      <c r="E196" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A197" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="B197" t="s">
+        <v>624</v>
+      </c>
+      <c r="E197" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="B198" t="s">
+        <v>194</v>
+      </c>
+      <c r="E198" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A199" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="B199" t="s">
+        <v>195</v>
+      </c>
+      <c r="E199" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="B200" t="s">
+        <v>196</v>
+      </c>
+      <c r="E200" t="s">
+        <v>426</v>
+      </c>
+      <c r="F200" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="B201" t="s">
+        <v>197</v>
+      </c>
+      <c r="E201" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B202" t="s">
+        <v>198</v>
+      </c>
+      <c r="E202" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A203" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="B203" t="s">
+        <v>625</v>
+      </c>
+      <c r="E203" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A204" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="B204" t="s">
+        <v>626</v>
+      </c>
+      <c r="E204" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A205" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="B205" t="s">
+        <v>627</v>
+      </c>
+      <c r="E205" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A206" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="B206" t="s">
+        <v>202</v>
+      </c>
+      <c r="E206" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A207" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B207" t="s">
+        <v>203</v>
+      </c>
+      <c r="E207" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A208" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="B208" t="s">
+        <v>204</v>
+      </c>
+      <c r="E208" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A209" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="B209" t="s">
+        <v>628</v>
+      </c>
+      <c r="E209" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A210" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="B210" t="s">
+        <v>206</v>
+      </c>
+      <c r="E210" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A211" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="B211" t="s">
+        <v>207</v>
+      </c>
+      <c r="E211" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A212" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="B212" t="s">
+        <v>208</v>
+      </c>
+      <c r="E212" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A213" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="B213" t="s">
+        <v>629</v>
+      </c>
+      <c r="E213" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A214" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="B214" t="s">
+        <v>210</v>
+      </c>
+      <c r="E214" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A215" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="B215" t="s">
+        <v>211</v>
+      </c>
+      <c r="E215" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A216" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="B216" t="s">
+        <v>212</v>
+      </c>
+      <c r="E216" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A217" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="B217" t="s">
+        <v>213</v>
+      </c>
+      <c r="E217" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A218" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="B218" t="s">
+        <v>214</v>
+      </c>
+      <c r="E218" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A219" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="B219" t="s">
+        <v>215</v>
+      </c>
+      <c r="E219" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A220" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="B220" t="s">
+        <v>216</v>
+      </c>
+      <c r="E220" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A221" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="B221" t="s">
+        <v>217</v>
+      </c>
+      <c r="E221" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A222" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="B222" t="s">
+        <v>218</v>
+      </c>
+      <c r="E222" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A223" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="B223" t="s">
+        <v>448</v>
+      </c>
+      <c r="E223" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A224" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B224" t="s">
+        <v>630</v>
+      </c>
+      <c r="E224" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A225" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="B225" t="s">
+        <v>631</v>
+      </c>
+      <c r="E225" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A226" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B226" t="s">
+        <v>603</v>
+      </c>
+      <c r="E226" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A227" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B227" t="s">
+        <v>450</v>
+      </c>
+      <c r="E227" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A228" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="B228" t="s">
+        <v>632</v>
+      </c>
+      <c r="E228" t="s">
+        <v>451</v>
+      </c>
+      <c r="F228" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A229" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="B229" t="s">
+        <v>633</v>
+      </c>
+      <c r="E229" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A230" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="B230" t="s">
+        <v>634</v>
+      </c>
+      <c r="E230" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A231" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="B231" t="s">
+        <v>454</v>
+      </c>
+      <c r="E231" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A232" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="B232" t="s">
+        <v>635</v>
+      </c>
+      <c r="E232" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A233" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="B233" t="s">
+        <v>226</v>
+      </c>
+      <c r="E233" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A234" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="B234" t="s">
+        <v>227</v>
+      </c>
+      <c r="E234" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A235" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="B235" t="s">
+        <v>215</v>
+      </c>
+      <c r="E235" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A236" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B236" t="s">
+        <v>228</v>
+      </c>
+      <c r="E236" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A237" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="B237" t="s">
+        <v>214</v>
+      </c>
+      <c r="E237" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A238" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="B238" t="s">
+        <v>229</v>
+      </c>
+      <c r="E238" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A239" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="B239" t="s">
+        <v>230</v>
+      </c>
+      <c r="E239" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A240" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="B240" t="s">
+        <v>636</v>
+      </c>
+      <c r="E240" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A241" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="B241" t="s">
+        <v>620</v>
+      </c>
+      <c r="E241" t="s">
+        <v>414</v>
+      </c>
+      <c r="F241" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A242" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="B242" t="s">
+        <v>232</v>
+      </c>
+      <c r="E242" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A243" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="B243" t="s">
+        <v>233</v>
+      </c>
+      <c r="E243" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A244" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="B244" t="s">
+        <v>234</v>
+      </c>
+      <c r="E244" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A245" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="B245" t="s">
+        <v>637</v>
+      </c>
+      <c r="E245" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A246" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="B246" t="s">
+        <v>236</v>
+      </c>
+      <c r="E246" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A247" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="B247" t="s">
+        <v>237</v>
+      </c>
+      <c r="E247" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A248" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="B248" t="s">
+        <v>638</v>
+      </c>
+      <c r="E248" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A249" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="B249" t="s">
+        <v>189</v>
+      </c>
+      <c r="E249" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A250" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B250" t="s">
+        <v>239</v>
+      </c>
+      <c r="E250" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A251" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="B251" t="s">
+        <v>240</v>
+      </c>
+      <c r="E251" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A252" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B252" t="s">
+        <v>188</v>
+      </c>
+      <c r="E252" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A253" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="B253" t="s">
+        <v>187</v>
+      </c>
+      <c r="E253" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A254" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="B254" t="s">
+        <v>241</v>
+      </c>
+      <c r="E254" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A255" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="B255" t="s">
+        <v>242</v>
+      </c>
+      <c r="E255" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A256" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="B256" t="s">
+        <v>243</v>
+      </c>
+      <c r="E256" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A257" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="B257" t="s">
+        <v>244</v>
+      </c>
+      <c r="E257" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A258" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="B258" t="s">
+        <v>639</v>
+      </c>
+      <c r="E258" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A259" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="B259" t="s">
+        <v>234</v>
+      </c>
+      <c r="E259" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A260" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="B260" t="s">
+        <v>185</v>
+      </c>
+      <c r="E260" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A261" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B261" t="s">
+        <v>230</v>
+      </c>
+      <c r="E261" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A262" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="B262" t="s">
+        <v>212</v>
+      </c>
+      <c r="E262" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A263" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="B263" t="s">
+        <v>246</v>
+      </c>
+      <c r="E263" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A264" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="B264" t="s">
+        <v>247</v>
+      </c>
+      <c r="E264" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A265" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="B265" t="s">
+        <v>248</v>
+      </c>
+      <c r="E265" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A266" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="B266" t="s">
+        <v>249</v>
+      </c>
+      <c r="E266" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A267" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="B267" t="s">
+        <v>250</v>
+      </c>
+      <c r="E267" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A268" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="B268" t="s">
+        <v>251</v>
+      </c>
+      <c r="E268" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A269" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B269" t="s">
+        <v>640</v>
+      </c>
+      <c r="E269" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A270" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="B270" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>590</v>
-      </c>
-      <c r="C112" t="s">
-        <v>48</v>
-      </c>
-      <c r="D112" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>591</v>
-      </c>
-      <c r="C113" t="s">
-        <v>48</v>
-      </c>
-      <c r="D113" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>98</v>
-      </c>
-      <c r="C114" t="s">
-        <v>48</v>
-      </c>
-      <c r="D114" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>592</v>
-      </c>
-      <c r="C115" t="s">
-        <v>151</v>
-      </c>
-      <c r="D115" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>593</v>
-      </c>
-      <c r="C116" t="s">
-        <v>151</v>
-      </c>
-      <c r="D116" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>594</v>
-      </c>
-      <c r="C117" t="s">
-        <v>151</v>
-      </c>
-      <c r="D117" t="s">
-        <v>369</v>
-      </c>
-      <c r="E117" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>595</v>
-      </c>
-      <c r="C118" t="s">
-        <v>151</v>
-      </c>
-      <c r="D118" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>596</v>
-      </c>
-      <c r="C119" t="s">
-        <v>151</v>
-      </c>
-      <c r="D119" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>597</v>
-      </c>
-      <c r="C120" t="s">
-        <v>151</v>
-      </c>
-      <c r="D120" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>598</v>
-      </c>
-      <c r="C121" t="s">
-        <v>151</v>
-      </c>
-      <c r="D121" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>599</v>
-      </c>
-      <c r="C122" t="s">
-        <v>151</v>
-      </c>
-      <c r="D122" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>600</v>
-      </c>
-      <c r="C123" t="s">
-        <v>151</v>
-      </c>
-      <c r="D123" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>601</v>
-      </c>
-      <c r="C124" t="s">
-        <v>151</v>
-      </c>
-      <c r="D124" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>49</v>
-      </c>
-      <c r="C125" t="s">
-        <v>151</v>
-      </c>
-      <c r="D125" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>50</v>
-      </c>
-      <c r="C126" t="s">
-        <v>151</v>
-      </c>
-      <c r="D126" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>51</v>
-      </c>
-      <c r="C127" t="s">
-        <v>151</v>
-      </c>
-      <c r="D127" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>52</v>
-      </c>
-      <c r="C128" t="s">
-        <v>151</v>
-      </c>
-      <c r="D128" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>53</v>
-      </c>
-      <c r="C129" t="s">
-        <v>151</v>
-      </c>
-      <c r="D129" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>54</v>
-      </c>
-      <c r="C130" t="s">
-        <v>151</v>
-      </c>
-      <c r="D130" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>55</v>
-      </c>
-      <c r="C131" t="s">
-        <v>151</v>
-      </c>
-      <c r="D131" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>162</v>
-      </c>
-      <c r="C132" t="s">
-        <v>151</v>
-      </c>
-      <c r="D132" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>26</v>
-      </c>
-      <c r="C133" t="s">
-        <v>25</v>
-      </c>
-      <c r="D133" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>27</v>
-      </c>
-      <c r="C134" t="s">
-        <v>25</v>
-      </c>
-      <c r="D134" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>602</v>
-      </c>
-      <c r="C135" t="s">
-        <v>25</v>
-      </c>
-      <c r="D135" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
+      <c r="E270" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A271" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="B271" t="s">
+        <v>253</v>
+      </c>
+      <c r="E271" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A272" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="B272" t="s">
+        <v>254</v>
+      </c>
+      <c r="E272" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A273" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="B273" t="s">
         <v>603</v>
       </c>
-      <c r="C136" t="s">
-        <v>25</v>
-      </c>
-      <c r="D136" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>554</v>
-      </c>
-      <c r="C137" t="s">
-        <v>25</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>604</v>
-      </c>
-      <c r="C138" t="s">
-        <v>25</v>
-      </c>
-      <c r="D138" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C139" t="s">
-        <v>25</v>
-      </c>
-      <c r="D139" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>41</v>
-      </c>
-      <c r="C140" t="s">
-        <v>25</v>
-      </c>
-      <c r="D140" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>42</v>
-      </c>
-      <c r="C141" t="s">
-        <v>25</v>
-      </c>
-      <c r="D141" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>605</v>
-      </c>
-      <c r="C142" t="s">
-        <v>25</v>
-      </c>
-      <c r="D142" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>606</v>
-      </c>
-      <c r="C143" t="s">
-        <v>25</v>
-      </c>
-      <c r="D143" t="s">
+      <c r="E273" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>607</v>
-      </c>
-      <c r="C144" t="s">
-        <v>25</v>
-      </c>
-      <c r="D144" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>608</v>
-      </c>
-      <c r="C145" t="s">
-        <v>25</v>
-      </c>
-      <c r="D145" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>609</v>
-      </c>
-      <c r="C146" t="s">
-        <v>25</v>
-      </c>
-      <c r="D146" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>610</v>
-      </c>
-      <c r="C147" t="s">
-        <v>25</v>
-      </c>
-      <c r="D147" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>611</v>
-      </c>
-      <c r="C148" t="s">
-        <v>25</v>
-      </c>
-      <c r="D148" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>612</v>
-      </c>
-      <c r="C149" t="s">
-        <v>25</v>
-      </c>
-      <c r="D149" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>613</v>
-      </c>
-      <c r="C150" t="s">
-        <v>25</v>
-      </c>
-      <c r="D150" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>570</v>
-      </c>
-      <c r="C151" t="s">
-        <v>25</v>
-      </c>
-      <c r="D151" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>614</v>
-      </c>
-      <c r="C152" t="s">
-        <v>25</v>
-      </c>
-      <c r="D152" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>615</v>
-      </c>
-      <c r="C153" t="s">
-        <v>25</v>
-      </c>
-      <c r="D153" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>616</v>
-      </c>
-      <c r="C154" t="s">
-        <v>25</v>
-      </c>
-      <c r="D154" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>617</v>
-      </c>
-      <c r="C155" t="s">
-        <v>25</v>
-      </c>
-      <c r="D155" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>618</v>
-      </c>
-      <c r="C156" t="s">
-        <v>25</v>
-      </c>
-      <c r="D156" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>619</v>
-      </c>
-      <c r="C157" t="s">
-        <v>25</v>
-      </c>
-      <c r="D157" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>398</v>
-      </c>
-      <c r="C158" t="s">
-        <v>25</v>
-      </c>
-      <c r="D158" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>620</v>
-      </c>
-      <c r="C159" t="s">
-        <v>124</v>
-      </c>
-      <c r="D159" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>621</v>
-      </c>
-      <c r="C160" t="s">
-        <v>124</v>
-      </c>
-      <c r="D160" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A274" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B274" t="s">
+        <v>641</v>
+      </c>
+      <c r="E274" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A275" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="B275" t="s">
+        <v>450</v>
+      </c>
+      <c r="E275" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A276" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B276" t="s">
+        <v>632</v>
+      </c>
+      <c r="E276" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A277" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="B277" t="s">
+        <v>642</v>
+      </c>
+      <c r="E277" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A278" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B278" t="s">
         <v>622</v>
       </c>
-      <c r="C161" t="s">
-        <v>124</v>
-      </c>
-      <c r="D161" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>623</v>
-      </c>
-      <c r="C162" t="s">
-        <v>124</v>
-      </c>
-      <c r="D162" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>109</v>
-      </c>
-      <c r="C163" t="s">
-        <v>108</v>
-      </c>
-      <c r="D163" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>110</v>
-      </c>
-      <c r="C164" t="s">
-        <v>108</v>
-      </c>
-      <c r="D164" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>111</v>
-      </c>
-      <c r="C165" t="s">
-        <v>108</v>
-      </c>
-      <c r="D165" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>112</v>
-      </c>
-      <c r="C166" t="s">
-        <v>108</v>
-      </c>
-      <c r="D166" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>113</v>
-      </c>
-      <c r="C167" t="s">
-        <v>108</v>
-      </c>
-      <c r="D167" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>403</v>
-      </c>
-      <c r="C168" t="s">
-        <v>108</v>
-      </c>
-      <c r="D168" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>624</v>
-      </c>
-      <c r="C169" t="s">
-        <v>108</v>
-      </c>
-      <c r="D169" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>625</v>
-      </c>
-      <c r="C170" t="s">
-        <v>108</v>
-      </c>
-      <c r="D170" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>626</v>
-      </c>
-      <c r="C171" t="s">
-        <v>108</v>
-      </c>
-      <c r="D171" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>118</v>
-      </c>
-      <c r="C172" t="s">
-        <v>108</v>
-      </c>
-      <c r="D172" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
-        <v>44</v>
-      </c>
-      <c r="C173" t="s">
-        <v>43</v>
-      </c>
-      <c r="D173" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
-        <v>45</v>
-      </c>
-      <c r="C174" t="s">
-        <v>43</v>
-      </c>
-      <c r="D174" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
-        <v>46</v>
-      </c>
-      <c r="C175" t="s">
-        <v>43</v>
-      </c>
-      <c r="D175" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>47</v>
-      </c>
-      <c r="C176" t="s">
-        <v>43</v>
-      </c>
-      <c r="D176" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
-        <v>411</v>
-      </c>
-      <c r="D177" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
-        <v>277</v>
-      </c>
-      <c r="C178" t="s">
-        <v>124</v>
-      </c>
-      <c r="D178" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
-        <v>176</v>
-      </c>
-      <c r="C179" t="s">
-        <v>124</v>
-      </c>
-      <c r="D179" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>276</v>
-      </c>
-      <c r="C180" t="s">
-        <v>124</v>
-      </c>
-      <c r="D180" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
+      <c r="E278" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A279" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="B279" t="s">
+        <v>643</v>
+      </c>
+      <c r="E279" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A280" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="B280" t="s">
+        <v>275</v>
+      </c>
+      <c r="E280" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A281" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="B281" t="s">
+        <v>644</v>
+      </c>
+      <c r="E281" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A282" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="B282" t="s">
+        <v>628</v>
+      </c>
+      <c r="E282" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A283" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B283" t="s">
+        <v>259</v>
+      </c>
+      <c r="E283" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A284" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="B284" t="s">
         <v>627</v>
       </c>
-      <c r="C181" t="s">
-        <v>278</v>
-      </c>
-      <c r="D181" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>178</v>
-      </c>
-      <c r="C182" t="s">
-        <v>124</v>
-      </c>
-      <c r="D182" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>179</v>
-      </c>
-      <c r="C183" t="s">
-        <v>279</v>
-      </c>
-      <c r="D183" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>628</v>
-      </c>
-      <c r="C184" t="s">
-        <v>124</v>
-      </c>
-      <c r="D184" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>181</v>
-      </c>
-      <c r="C185" t="s">
-        <v>278</v>
-      </c>
-      <c r="D185" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
-        <v>182</v>
-      </c>
-      <c r="D186" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
-        <v>629</v>
-      </c>
-      <c r="D187" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
-        <v>630</v>
-      </c>
-      <c r="D188" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
-        <v>185</v>
-      </c>
-      <c r="D189" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
-        <v>186</v>
-      </c>
-      <c r="D190" t="s">
+      <c r="E284" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A285" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="B285" t="s">
+        <v>645</v>
+      </c>
+      <c r="E285" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A286" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="B286" t="s">
+        <v>646</v>
+      </c>
+      <c r="E286" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A287" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="B287" t="s">
+        <v>647</v>
+      </c>
+      <c r="E287" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A288" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="B288" t="s">
+        <v>648</v>
+      </c>
+      <c r="E288" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A289" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="B289" t="s">
+        <v>649</v>
+      </c>
+      <c r="E289" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A290" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="B290" t="s">
+        <v>265</v>
+      </c>
+      <c r="E290" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A291" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="B291" t="s">
+        <v>266</v>
+      </c>
+      <c r="E291" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A292" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="B292" t="s">
+        <v>267</v>
+      </c>
+      <c r="E292" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A293" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="B293" t="s">
+        <v>268</v>
+      </c>
+      <c r="E293" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A294" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="B294" t="s">
+        <v>195</v>
+      </c>
+      <c r="E294" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A295" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="B295" t="s">
+        <v>204</v>
+      </c>
+      <c r="E295" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A296" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="B296" t="s">
+        <v>194</v>
+      </c>
+      <c r="E296" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
-        <v>187</v>
-      </c>
-      <c r="D191" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
-        <v>188</v>
-      </c>
-      <c r="D192" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
-        <v>189</v>
-      </c>
-      <c r="D193" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
-        <v>631</v>
-      </c>
-      <c r="D194" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>632</v>
-      </c>
-      <c r="D195" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>633</v>
-      </c>
-      <c r="D196" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>634</v>
-      </c>
-      <c r="D197" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>194</v>
-      </c>
-      <c r="D198" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>195</v>
-      </c>
-      <c r="D199" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
-        <v>196</v>
-      </c>
-      <c r="D200" t="s">
-        <v>434</v>
-      </c>
-      <c r="E200" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
-        <v>197</v>
-      </c>
-      <c r="D201" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
-        <v>198</v>
-      </c>
-      <c r="D202" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
-        <v>635</v>
-      </c>
-      <c r="D203" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
-        <v>636</v>
-      </c>
-      <c r="D204" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
-        <v>637</v>
-      </c>
-      <c r="D205" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
-        <v>202</v>
-      </c>
-      <c r="D206" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
-        <v>203</v>
-      </c>
-      <c r="D207" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
-        <v>204</v>
-      </c>
-      <c r="D208" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
-        <v>638</v>
-      </c>
-      <c r="D209" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
-        <v>206</v>
-      </c>
-      <c r="D210" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
-        <v>207</v>
-      </c>
-      <c r="D211" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
-        <v>208</v>
-      </c>
-      <c r="D212" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A213" t="s">
-        <v>639</v>
-      </c>
-      <c r="D213" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A214" t="s">
-        <v>210</v>
-      </c>
-      <c r="D214" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A215" t="s">
-        <v>211</v>
-      </c>
-      <c r="D215" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A216" t="s">
-        <v>212</v>
-      </c>
-      <c r="D216" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A217" t="s">
-        <v>213</v>
-      </c>
-      <c r="D217" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A218" t="s">
-        <v>214</v>
-      </c>
-      <c r="D218" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
-        <v>215</v>
-      </c>
-      <c r="D219" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A220" t="s">
-        <v>216</v>
-      </c>
-      <c r="D220" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A221" t="s">
-        <v>217</v>
-      </c>
-      <c r="D221" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A222" t="s">
-        <v>218</v>
-      </c>
-      <c r="D222" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A223" t="s">
-        <v>456</v>
-      </c>
-      <c r="D223" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A224" t="s">
-        <v>640</v>
-      </c>
-      <c r="D224" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A225" t="s">
-        <v>641</v>
-      </c>
-      <c r="D225" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A226" t="s">
-        <v>613</v>
-      </c>
-      <c r="D226" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A227" t="s">
-        <v>459</v>
-      </c>
-      <c r="D227" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A228" t="s">
-        <v>642</v>
-      </c>
-      <c r="D228" t="s">
-        <v>460</v>
-      </c>
-      <c r="E228" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A229" t="s">
-        <v>643</v>
-      </c>
-      <c r="D229" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
-        <v>644</v>
-      </c>
-      <c r="D230" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A231" t="s">
-        <v>463</v>
-      </c>
-      <c r="D231" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A232" t="s">
-        <v>645</v>
-      </c>
-      <c r="D232" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A233" t="s">
-        <v>226</v>
-      </c>
-      <c r="D233" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
-        <v>227</v>
-      </c>
-      <c r="D234" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
-        <v>215</v>
-      </c>
-      <c r="D235" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A236" t="s">
-        <v>228</v>
-      </c>
-      <c r="D236" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
-        <v>214</v>
-      </c>
-      <c r="D237" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A238" t="s">
-        <v>229</v>
-      </c>
-      <c r="D238" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A239" t="s">
-        <v>230</v>
-      </c>
-      <c r="D239" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A240" t="s">
-        <v>646</v>
-      </c>
-      <c r="D240" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A241" t="s">
-        <v>630</v>
-      </c>
-      <c r="D241" t="s">
-        <v>422</v>
-      </c>
-      <c r="E241" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A242" t="s">
-        <v>232</v>
-      </c>
-      <c r="D242" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A243" t="s">
-        <v>233</v>
-      </c>
-      <c r="D243" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A244" t="s">
-        <v>234</v>
-      </c>
-      <c r="D244" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A245" t="s">
-        <v>647</v>
-      </c>
-      <c r="D245" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A246" t="s">
-        <v>236</v>
-      </c>
-      <c r="D246" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A247" t="s">
-        <v>237</v>
-      </c>
-      <c r="D247" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A248" t="s">
-        <v>648</v>
-      </c>
-      <c r="D248" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A249" t="s">
-        <v>189</v>
-      </c>
-      <c r="D249" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A250" t="s">
-        <v>239</v>
-      </c>
-      <c r="D250" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A251" t="s">
-        <v>240</v>
-      </c>
-      <c r="D251" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A252" t="s">
-        <v>188</v>
-      </c>
-      <c r="D252" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A253" t="s">
-        <v>187</v>
-      </c>
-      <c r="D253" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A254" t="s">
-        <v>241</v>
-      </c>
-      <c r="D254" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A255" t="s">
-        <v>242</v>
-      </c>
-      <c r="D255" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A256" t="s">
-        <v>243</v>
-      </c>
-      <c r="D256" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
-        <v>244</v>
-      </c>
-      <c r="D257" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
-        <v>649</v>
-      </c>
-      <c r="D258" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A259" t="s">
-        <v>234</v>
-      </c>
-      <c r="D259" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A260" t="s">
-        <v>185</v>
-      </c>
-      <c r="D260" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A261" t="s">
-        <v>230</v>
-      </c>
-      <c r="D261" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A262" t="s">
-        <v>212</v>
-      </c>
-      <c r="D262" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A263" t="s">
-        <v>246</v>
-      </c>
-      <c r="D263" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A264" t="s">
-        <v>247</v>
-      </c>
-      <c r="D264" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A265" t="s">
-        <v>248</v>
-      </c>
-      <c r="D265" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A266" t="s">
-        <v>249</v>
-      </c>
-      <c r="D266" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A267" t="s">
-        <v>250</v>
-      </c>
-      <c r="D267" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A268" t="s">
-        <v>251</v>
-      </c>
-      <c r="D268" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A269" t="s">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A297" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="B297" t="s">
+        <v>269</v>
+      </c>
+      <c r="E297" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A298" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="B298" t="s">
+        <v>270</v>
+      </c>
+      <c r="E298" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A299" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="B299" t="s">
         <v>650</v>
       </c>
-      <c r="D269" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A270" t="s">
-        <v>534</v>
-      </c>
-      <c r="D270" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A271" t="s">
-        <v>253</v>
-      </c>
-      <c r="D271" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A272" t="s">
-        <v>254</v>
-      </c>
-      <c r="D272" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A273" t="s">
-        <v>613</v>
-      </c>
-      <c r="D273" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A274" t="s">
+      <c r="E299" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A300" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="B300" t="s">
         <v>651</v>
       </c>
-      <c r="D274" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A275" t="s">
-        <v>459</v>
-      </c>
-      <c r="D275" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A276" t="s">
-        <v>642</v>
-      </c>
-      <c r="D276" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A277" t="s">
-        <v>652</v>
-      </c>
-      <c r="D277" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A278" t="s">
-        <v>632</v>
-      </c>
-      <c r="D278" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A279" t="s">
-        <v>653</v>
-      </c>
-      <c r="D279" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A280" t="s">
-        <v>275</v>
-      </c>
-      <c r="D280" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A281" t="s">
-        <v>654</v>
-      </c>
-      <c r="D281" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A282" t="s">
-        <v>638</v>
-      </c>
-      <c r="D282" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A283" t="s">
-        <v>259</v>
-      </c>
-      <c r="D283" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A284" t="s">
-        <v>637</v>
-      </c>
-      <c r="D284" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A285" t="s">
-        <v>655</v>
-      </c>
-      <c r="D285" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A286" t="s">
-        <v>656</v>
-      </c>
-      <c r="D286" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A287" t="s">
-        <v>657</v>
-      </c>
-      <c r="D287" t="s">
+      <c r="E300" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A288" t="s">
-        <v>658</v>
-      </c>
-      <c r="D288" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A289" t="s">
-        <v>659</v>
-      </c>
-      <c r="D289" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A290" t="s">
-        <v>265</v>
-      </c>
-      <c r="D290" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A291" t="s">
-        <v>266</v>
-      </c>
-      <c r="D291" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A292" t="s">
-        <v>267</v>
-      </c>
-      <c r="D292" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A293" t="s">
-        <v>268</v>
-      </c>
-      <c r="D293" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A294" t="s">
-        <v>195</v>
-      </c>
-      <c r="D294" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A295" t="s">
-        <v>204</v>
-      </c>
-      <c r="D295" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A296" t="s">
-        <v>194</v>
-      </c>
-      <c r="D296" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A297" t="s">
-        <v>269</v>
-      </c>
-      <c r="D297" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A298" t="s">
-        <v>270</v>
-      </c>
-      <c r="D298" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A299" t="s">
-        <v>660</v>
-      </c>
-      <c r="D299" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A300" t="s">
-        <v>661</v>
-      </c>
-      <c r="D300" t="s">
-        <v>510</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C195">
-    <sortState ref="A2:C195">
-      <sortCondition ref="C1:C195"/>
+  <autoFilter ref="B1:D195">
+    <sortState ref="B2:D195">
+      <sortCondition ref="D1:D195"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/annotador-core/src/main/resources/rules/TEST-ES2.xlsx
+++ b/annotador-core/src/main/resources/rules/TEST-ES2.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$D$195</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="969">
   <si>
     <t xml:space="preserve"> Problemas con pasado</t>
   </si>
@@ -1110,9 +1110,6 @@
     <t>las &lt;TIMEX3 tid="t1" type="TIME" value="T2:20"&gt;2.20&lt;/TIMEX3&gt;.</t>
   </si>
   <si>
-    <t>las &lt;TIMEX3 tid="t1" type="TIME" value="T1:55"&gt;dos menos 5&lt;/TIMEX3&gt;.</t>
-  </si>
-  <si>
     <t>&lt;TIMEX3 tid="t1" type="DURATION" value="PXM"&gt;varios meses&lt;/TIMEX3&gt;, &lt;TIMEX3 tid="t2" type="DURATION" value="PXM"&gt;algunos meses&lt;/TIMEX3&gt;, los &lt;TIMEX3 tid="t3" type="DURATION" value="PXM"&gt;meses&lt;/TIMEX3&gt;, aquellos maravillosos &lt;TIMEX3 tid="t4" type="DURATION" value="PXM"&gt;meses&lt;/TIMEX3&gt;, un par de &lt;TIMEX3 tid="t5" type="DURATION" value="PXM"&gt;meses&lt;/TIMEX3&gt;, durante &lt;TIMEX3 tid="t6" type="DURATION" value="P3D"&gt;tres días&lt;/TIMEX3&gt;.</t>
   </si>
   <si>
@@ -1188,6 +1185,9 @@
     <t>&lt;TIMEX3 tid="t1" type="SET" value="P022W" freq="1D"&gt;un día cada dos semanas&lt;/TIMEX3&gt;.</t>
   </si>
   <si>
+    <t>&lt;TIMEX3 tid="t1" type="DATE" value="2019-12-21"&gt;Mañana&lt;/TIMEX3&gt; vamos allí.</t>
+  </si>
+  <si>
     <t>una o &lt;TIMEX3 tid="t1" type="DURATION" value="P2W"&gt;dos semanas&lt;/TIMEX3&gt;.</t>
   </si>
   <si>
@@ -1569,12 +1569,6 @@
     <t>&lt;TIMEX3 tid="t1" type="TIME" value="T2:20TAF"&gt;las 2:20 de la tarde&lt;/TIMEX3&gt;.</t>
   </si>
   <si>
-    <t>&lt;TIMEX3 tid="t1" type="TIME" value="Tnull:00"&gt;las 2 menos 5&lt;/TIMEX3&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;TIMEX3 tid="t1" type="TIME" value="Tnull:00"&gt;las 2 menos cinco&lt;/TIMEX3&gt;.</t>
-  </si>
-  <si>
     <t>&lt;TIMEX3 tid="t1" type="TIME" value="T1:55TAF"&gt;las dos menos cinco de la tarde&lt;/TIMEX3&gt;.</t>
   </si>
   <si>
@@ -1599,27 +1593,9 @@
     <t>son &lt;TIMEX3 tid="t1" type="TIME" value="T10:00"&gt;las diez&lt;/TIMEX3&gt;.</t>
   </si>
   <si>
-    <t>esa persona hizo lo mismo en el pasado.</t>
-  </si>
-  <si>
     <t>ya lo veremos pasado o al siguiente.</t>
   </si>
   <si>
-    <t>ya lo veremos pasado.</t>
-  </si>
-  <si>
-    <t>ya lo veremos pasado mañana.</t>
-  </si>
-  <si>
-    <t>el segundo perro tardó dos segundos.</t>
-  </si>
-  <si>
-    <t>en ese momento.</t>
-  </si>
-  <si>
-    <t>en el año mil.</t>
-  </si>
-  <si>
     <t>El 10 de Junio de 1991.</t>
   </si>
   <si>
@@ -1635,9 +1611,6 @@
     <t>mañana comeré en la mañana, no la segunda mañana pero varias mañanas seguidas, pensando en el mañana, o en el día de mañana.</t>
   </si>
   <si>
-    <t>seiscientos días.</t>
-  </si>
-  <si>
     <t>unos 1991 días.</t>
   </si>
   <si>
@@ -1995,12 +1968,6 @@
     <t>ya lo veremos &lt;TIMEX3 tid="t1" type="DATE" value="2019-12-22"&gt;pasado&lt;/TIMEX3&gt;.</t>
   </si>
   <si>
-    <t>&lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20TMO"&gt;Esta mañana&lt;/TIMEX3&gt;, &lt;TIMEX3 tid="t2" type="TIME" value="2019-12-20TAF"&gt;aquella tarde&lt;/TIMEX3&gt;, en &lt;TIMEX3 tid="t3" type="TIME" value="2019-12-20TMO"&gt;la mañana&lt;/TIMEX3&gt; del &lt;TIMEX3 tid="t4" type="DATE" value="2019-12-10"&gt;día 10&lt;/TIMEX3&gt;, &lt;TIMEX3 tid="t5" type="TIME" value="2019-12-10TMO"&gt;esa mañana&lt;/TIMEX3&gt;, lo hizo de &lt;TIMEX3 tid="t6" type="TIME" value="2019-12-10TMO"&gt;buena mañana&lt;/TIMEX3&gt;. Pasado &lt;TIMEX3 tid="t7" type="DATE" value="2019-12-21"&gt;mañana&lt;/TIMEX3&gt; vamos a comer, porque &lt;TIMEX3 tid="t8" type="DATE" value="2019-12-22"&gt;pasado&lt;/TIMEX3&gt; es un gran &lt;TIMEX3 tid="t9" type="DURATION" value="P1D"&gt;día&lt;/TIMEX3&gt;. Una vez haya pasado &lt;TIMEX3 tid="t10" type="DATE" value="2019-12-21"&gt;mañana&lt;/TIMEX3&gt;.</t>
-  </si>
-  <si>
-    <t>Mañana lo veremos, en &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20TMO"&gt;la mañana&lt;/TIMEX3&gt; del &lt;TIMEX3 tid="t2" type="DATE" value="2019-12-10"&gt;día 10&lt;/TIMEX3&gt;, &lt;TIMEX3 tid="t3" type="TIME" value="2019-12-10TMO"&gt;esa mañana&lt;/TIMEX3&gt;, lo hizo de &lt;TIMEX3 tid="t4" type="TIME" value="2019-12-10TMO"&gt;buena mañana&lt;/TIMEX3&gt;. Pasado &lt;TIMEX3 tid="t5" type="DATE" value="2019-12-21"&gt;mañana&lt;/TIMEX3&gt; vamos a comer, porque &lt;TIMEX3 tid="t6" type="DATE" value="2019-12-22"&gt;pasado&lt;/TIMEX3&gt; es un gran &lt;TIMEX3 tid="t7" type="DURATION" value="P1D"&gt;día&lt;/TIMEX3&gt;. Una vez haya pasado &lt;TIMEX3 tid="t8" type="DATE" value="2019-12-21"&gt;mañana&lt;/TIMEX3&gt;.</t>
-  </si>
-  <si>
     <t>mañana comeré en &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20TMO"&gt;la mañana&lt;/TIMEX3&gt;, no la segunda &lt;TIMEX3 tid="t2" type="DATE" value="2019-12-21"&gt;mañana&lt;/TIMEX3&gt; pero &lt;TIMEX3 tid="t3" type="TIME" value="2019-12-21TMO"&gt;varias mañanas&lt;/TIMEX3&gt; seguidas, pensando en &lt;TIMEX3 tid="t4" type="TIME" value="2019-12-21TMO"&gt;el mañana&lt;/TIMEX3&gt;, o en &lt;TIMEX3 tid="t5" type="DATE" value="2019-12-21"&gt;el día&lt;/TIMEX3&gt; &lt;TIMEX3 tid="t6" type="DATE" value="FUTURE_REF"&gt;de&lt;/TIMEX3&gt; &lt;TIMEX3 tid="t7" type="DATE" value="2019-12-21"&gt;mañana&lt;/TIMEX3&gt;.</t>
   </si>
   <si>
@@ -2913,7 +2880,61 @@
     <t>00299</t>
   </si>
   <si>
-    <t>en mayo me gusta ir con Abril al campo, sobre todo los jueves y los domingos…</t>
+    <t>&lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20TMO"&gt;Esta mañana&lt;/TIMEX3&gt;, &lt;TIMEX3 tid="t2" type="TIME" value="2019-12-20TAF"&gt;aquella tarde&lt;/TIMEX3&gt;, en &lt;TIMEX3 tid="t3" type="TIME" value="2019-12-20TMO"&gt;la mañana&lt;/TIMEX3&gt; del &lt;TIMEX3 tid="t4" type="DATE" value="2019-12-10"&gt;día 10&lt;/TIMEX3&gt;, &lt;TIMEX3 tid="t5" type="TIME" value="2019-12-10TMO"&gt;esa mañana&lt;/TIMEX3&gt;, lo hizo de &lt;TIMEX3 tid="t6" type="TIME" value="2019-12-10TMO"&gt;buena mañana&lt;/TIMEX3&gt;. &lt;TIMEX3 tid="t7" type="DATE" value="2019-12-22"&gt;Pasado&lt;/TIMEX3&gt; mañana vamos a comer, porque &lt;TIMEX3 tid="t8" type="DATE" value="2019-12-22"&gt;pasado&lt;/TIMEX3&gt; es un gran &lt;TIMEX3 tid="t9" type="DURATION" value="P1D"&gt;día&lt;/TIMEX3&gt;. Una vez haya pasado mañana.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DATE" value="2019-12-21"&gt;Mañana&lt;/TIMEX3&gt; lo veremos, en &lt;TIMEX3 tid="t2" type="TIME" value="2019-12-21TMO"&gt;la mañana&lt;/TIMEX3&gt; del &lt;TIMEX3 tid="t3" type="DATE" value="2019-12-10"&gt;día 10&lt;/TIMEX3&gt;, &lt;TIMEX3 tid="t4" type="TIME" value="2019-12-10TMO"&gt;esa mañana&lt;/TIMEX3&gt;, lo hizo de &lt;TIMEX3 tid="t5" type="TIME" value="2019-12-10TMO"&gt;buena mañana&lt;/TIMEX3&gt;. &lt;TIMEX3 tid="t6" type="DATE" value="2019-12-22"&gt;Pasado&lt;/TIMEX3&gt; mañana vamos a comer, porque &lt;TIMEX3 tid="t7" type="DATE" value="2019-12-22"&gt;pasado&lt;/TIMEX3&gt; es un gran &lt;TIMEX3 tid="t8" type="DURATION" value="P1D"&gt;día&lt;/TIMEX3&gt;. Una vez haya pasado mañana.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="TIME" value="T1:55"&gt;las 2 menos 5&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="TIME" value="T1:55"&gt;las 2 menos cinco&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="TIME" value="T1:55"&gt;las dos menos 5&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>En mayo me gusta ir con Abril al campo, sobre todo los jueves y los domingos…</t>
+  </si>
+  <si>
+    <t>Esa persona hizo lo mismo en el pasado.</t>
+  </si>
+  <si>
+    <t>Ya lo veremos pasado.</t>
+  </si>
+  <si>
+    <t>Ya lo veremos pasado mañana.</t>
+  </si>
+  <si>
+    <t>El segundo perro tardó dos segundos.</t>
+  </si>
+  <si>
+    <t>En ese momento.</t>
+  </si>
+  <si>
+    <t>En el año mil.</t>
+  </si>
+  <si>
+    <t>Duró seiscientos días.</t>
+  </si>
+  <si>
+    <t>El último semestre saqué peores notas.</t>
+  </si>
+  <si>
+    <t>Hace dos cuatrimestres de eso.</t>
+  </si>
+  <si>
+    <t>Este trimestre.</t>
+  </si>
+  <si>
+    <t>00300</t>
+  </si>
+  <si>
+    <t>00301</t>
+  </si>
+  <si>
+    <t>00302</t>
   </si>
 </sst>
 </file>
@@ -3233,10 +3254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F300"/>
+  <dimension ref="A1:F303"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="B302" sqref="B302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3248,7 +3269,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="B1" t="s">
         <v>171</v>
@@ -3268,10 +3289,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="B2" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
@@ -3282,7 +3303,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -3296,7 +3317,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -3310,7 +3331,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="B5" t="s">
         <v>286</v>
@@ -3324,10 +3345,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="B6" t="s">
-        <v>523</v>
+        <v>956</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -3338,52 +3359,52 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="B7" t="s">
-        <v>524</v>
+        <v>621</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="B8" t="s">
-        <v>525</v>
+        <v>957</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="B9" t="s">
-        <v>526</v>
+        <v>958</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="B10" t="s">
-        <v>527</v>
+        <v>959</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -3394,10 +3415,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="B11" t="s">
-        <v>528</v>
+        <v>960</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -3408,10 +3429,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="B12" t="s">
-        <v>529</v>
+        <v>961</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -3422,10 +3443,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="B13" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -3436,10 +3457,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="B14" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -3450,7 +3471,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -3464,7 +3485,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -3478,7 +3499,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -3492,7 +3513,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -3506,7 +3527,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -3520,7 +3541,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
@@ -3534,7 +3555,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
@@ -3548,7 +3569,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -3562,7 +3583,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -3576,7 +3597,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
@@ -3590,7 +3611,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -3599,12 +3620,12 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>655</v>
+        <v>950</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
@@ -3613,12 +3634,12 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>656</v>
+        <v>951</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
@@ -3632,10 +3653,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="B28" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
@@ -3646,10 +3667,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="B29" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D29" t="s">
         <v>33</v>
@@ -3660,24 +3681,24 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="B30" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="D30" t="s">
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="B31" t="s">
-        <v>535</v>
+        <v>962</v>
       </c>
       <c r="D31" t="s">
         <v>62</v>
@@ -3688,10 +3709,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="B32" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="D32" t="s">
         <v>62</v>
@@ -3702,10 +3723,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="B33" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="D33" t="s">
         <v>62</v>
@@ -3716,10 +3737,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="B34" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="D34" t="s">
         <v>62</v>
@@ -3730,10 +3751,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="B35" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="D35" t="s">
         <v>62</v>
@@ -3744,10 +3765,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="B36" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="D36" t="s">
         <v>62</v>
@@ -3758,10 +3779,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="B37" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="D37" t="s">
         <v>62</v>
@@ -3772,10 +3793,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="B38" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="D38" t="s">
         <v>62</v>
@@ -3786,10 +3807,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="B39" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="D39" t="s">
         <v>62</v>
@@ -3800,10 +3821,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="B40" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="D40" t="s">
         <v>62</v>
@@ -3814,10 +3835,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="B41" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="D41" t="s">
         <v>62</v>
@@ -3828,10 +3849,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="B42" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="D42" t="s">
         <v>62</v>
@@ -3842,10 +3863,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="B43" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="D43" t="s">
         <v>62</v>
@@ -3856,10 +3877,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="B44" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="D44" t="s">
         <v>62</v>
@@ -3870,10 +3891,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="B45" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="D45" t="s">
         <v>62</v>
@@ -3884,10 +3905,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="D46" t="s">
         <v>57</v>
@@ -3898,10 +3919,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="D47" t="s">
         <v>57</v>
@@ -3912,10 +3933,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="D48" t="s">
         <v>57</v>
@@ -3926,10 +3947,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="D49" t="s">
         <v>57</v>
@@ -3940,10 +3961,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="D50" t="s">
         <v>57</v>
@@ -3954,7 +3975,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="B51" t="s">
         <v>322</v>
@@ -3968,7 +3989,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="B52" t="s">
         <v>323</v>
@@ -3982,10 +4003,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="D53" t="s">
         <v>57</v>
@@ -3996,10 +4017,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="D54" t="s">
         <v>57</v>
@@ -4010,10 +4031,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="D55" t="s">
         <v>57</v>
@@ -4024,10 +4045,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="D56" t="s">
         <v>57</v>
@@ -4038,7 +4059,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="B57" t="s">
         <v>324</v>
@@ -4052,7 +4073,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="B58" t="s">
         <v>325</v>
@@ -4066,7 +4087,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="B59" t="s">
         <v>100</v>
@@ -4080,10 +4101,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="B60" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="D60" t="s">
         <v>99</v>
@@ -4094,10 +4115,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="B61" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="D61" t="s">
         <v>99</v>
@@ -4108,10 +4129,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="B62" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="D62" t="s">
         <v>99</v>
@@ -4122,10 +4143,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="B63" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="D63" t="s">
         <v>99</v>
@@ -4136,10 +4157,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="B64" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="D64" t="s">
         <v>99</v>
@@ -4150,10 +4171,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="B65" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="D65" t="s">
         <v>99</v>
@@ -4167,10 +4188,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="B66" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="D66" t="s">
         <v>99</v>
@@ -4181,7 +4202,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="B67" t="s">
         <v>120</v>
@@ -4195,10 +4216,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="B68" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="D68" t="s">
         <v>119</v>
@@ -4209,10 +4230,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="B69" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -4223,10 +4244,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="B70" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="D70" t="s">
         <v>119</v>
@@ -4237,10 +4258,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="B71" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="D71" t="s">
         <v>137</v>
@@ -4251,10 +4272,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="B72" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="D72" t="s">
         <v>137</v>
@@ -4265,10 +4286,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="B73" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D73" t="s">
         <v>137</v>
@@ -4279,10 +4300,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="B74" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D74" t="s">
         <v>137</v>
@@ -4293,10 +4314,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="B75" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="D75" t="s">
         <v>137</v>
@@ -4307,10 +4328,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="B76" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="D76" t="s">
         <v>137</v>
@@ -4321,10 +4342,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="B77" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="D77" t="s">
         <v>137</v>
@@ -4335,10 +4356,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="B78" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="D78" t="s">
         <v>137</v>
@@ -4349,10 +4370,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="B79" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="D79" t="s">
         <v>137</v>
@@ -4363,10 +4384,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="B80" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="D80" t="s">
         <v>137</v>
@@ -4377,10 +4398,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="B81" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="D81" t="s">
         <v>137</v>
@@ -4391,10 +4412,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="B82" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="D82" t="s">
         <v>137</v>
@@ -4405,10 +4426,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="B83" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="D83" t="s">
         <v>137</v>
@@ -4419,7 +4440,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="B84" t="s">
         <v>150</v>
@@ -4433,7 +4454,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="B85" t="s">
         <v>49</v>
@@ -4447,7 +4468,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="B86" t="s">
         <v>50</v>
@@ -4461,7 +4482,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="B87" t="s">
         <v>51</v>
@@ -4475,7 +4496,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="B88" t="s">
         <v>52</v>
@@ -4489,7 +4510,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="B89" t="s">
         <v>53</v>
@@ -4503,7 +4524,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="B90" t="s">
         <v>54</v>
@@ -4517,7 +4538,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="B91" t="s">
         <v>55</v>
@@ -4531,7 +4552,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="B92" t="s">
         <v>56</v>
@@ -4545,10 +4566,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B93" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="D93" t="s">
         <v>48</v>
@@ -4559,10 +4580,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="B94" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="D94" t="s">
         <v>48</v>
@@ -4573,10 +4594,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="B95" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="D95" t="s">
         <v>48</v>
@@ -4587,10 +4608,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="B96" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="D96" t="s">
         <v>48</v>
@@ -4601,10 +4622,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="B97" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="D97" t="s">
         <v>48</v>
@@ -4615,7 +4636,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="B98" t="s">
         <v>82</v>
@@ -4629,7 +4650,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="B99" t="s">
         <v>83</v>
@@ -4643,7 +4664,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B100" t="s">
         <v>84</v>
@@ -4657,7 +4678,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="B101" t="s">
         <v>85</v>
@@ -4671,7 +4692,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="B102" t="s">
         <v>86</v>
@@ -4685,7 +4706,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="B103" t="s">
         <v>87</v>
@@ -4699,7 +4720,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="B104" t="s">
         <v>88</v>
@@ -4713,7 +4734,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="B105" t="s">
         <v>89</v>
@@ -4727,7 +4748,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="B106" t="s">
         <v>90</v>
@@ -4741,7 +4762,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="B107" t="s">
         <v>91</v>
@@ -4755,7 +4776,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="B108" t="s">
         <v>92</v>
@@ -4769,7 +4790,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="B109" t="s">
         <v>93</v>
@@ -4783,63 +4804,63 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="B110" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="D110" t="s">
         <v>48</v>
       </c>
       <c r="E110" t="s">
-        <v>513</v>
+        <v>952</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="B111" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="D111" t="s">
         <v>48</v>
       </c>
       <c r="E111" t="s">
-        <v>514</v>
+        <v>953</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="B112" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="D112" t="s">
         <v>48</v>
       </c>
       <c r="E112" t="s">
-        <v>360</v>
+        <v>954</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="B113" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D113" t="s">
         <v>48</v>
       </c>
       <c r="E113" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="B114" t="s">
         <v>98</v>
@@ -4848,49 +4869,49 @@
         <v>48</v>
       </c>
       <c r="E114" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="B115" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="D115" t="s">
         <v>151</v>
       </c>
       <c r="E115" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="B116" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="D116" t="s">
         <v>151</v>
       </c>
       <c r="E116" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="B117" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="D117" t="s">
         <v>151</v>
       </c>
       <c r="E117" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F117" t="s">
         <v>282</v>
@@ -4898,105 +4919,105 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="B118" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="D118" t="s">
         <v>151</v>
       </c>
       <c r="E118" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="B119" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D119" t="s">
         <v>151</v>
       </c>
       <c r="E119" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="B120" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="D120" t="s">
         <v>151</v>
       </c>
       <c r="E120" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="B121" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="D121" t="s">
         <v>151</v>
       </c>
       <c r="E121" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="B122" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="D122" t="s">
         <v>151</v>
       </c>
       <c r="E122" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="B123" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D123" t="s">
         <v>151</v>
       </c>
       <c r="E123" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="B124" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="D124" t="s">
         <v>151</v>
       </c>
       <c r="E124" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="B125" t="s">
         <v>49</v>
@@ -5010,7 +5031,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="B126" t="s">
         <v>50</v>
@@ -5024,7 +5045,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="B127" t="s">
         <v>51</v>
@@ -5038,7 +5059,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="B128" t="s">
         <v>52</v>
@@ -5052,7 +5073,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="B129" t="s">
         <v>53</v>
@@ -5066,7 +5087,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="B130" t="s">
         <v>54</v>
@@ -5080,7 +5101,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="B131" t="s">
         <v>55</v>
@@ -5094,7 +5115,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="B132" t="s">
         <v>162</v>
@@ -5103,12 +5124,12 @@
         <v>151</v>
       </c>
       <c r="E132" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="B133" t="s">
         <v>26</v>
@@ -5117,12 +5138,12 @@
         <v>25</v>
       </c>
       <c r="E133" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="B134" t="s">
         <v>27</v>
@@ -5131,43 +5152,43 @@
         <v>25</v>
       </c>
       <c r="E134" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="B135" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D135" t="s">
         <v>25</v>
       </c>
       <c r="E135" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="B136" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="D136" t="s">
         <v>25</v>
       </c>
       <c r="E136" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="B137" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="D137" t="s">
         <v>25</v>
@@ -5178,24 +5199,24 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="B138" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="D138" t="s">
         <v>25</v>
       </c>
       <c r="E138" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="D139" t="s">
         <v>25</v>
@@ -5206,7 +5227,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="B140" t="s">
         <v>41</v>
@@ -5220,7 +5241,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="B141" t="s">
         <v>42</v>
@@ -5229,141 +5250,141 @@
         <v>25</v>
       </c>
       <c r="E141" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="B142" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="D142" t="s">
         <v>25</v>
       </c>
       <c r="E142" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="B143" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="D143" t="s">
         <v>25</v>
       </c>
       <c r="E143" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="B144" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="D144" t="s">
         <v>25</v>
       </c>
       <c r="E144" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="B145" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="D145" t="s">
         <v>25</v>
       </c>
       <c r="E145" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="B146" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="D146" t="s">
         <v>25</v>
       </c>
       <c r="E146" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="B147" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="D147" t="s">
         <v>25</v>
       </c>
       <c r="E147" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="B148" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="D148" t="s">
         <v>25</v>
       </c>
       <c r="E148" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="B149" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="D149" t="s">
         <v>25</v>
       </c>
       <c r="E149" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="B150" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="D150" t="s">
         <v>25</v>
       </c>
       <c r="E150" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="B151" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="D151" t="s">
         <v>25</v>
@@ -5374,38 +5395,38 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="B152" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D152" t="s">
         <v>25</v>
       </c>
       <c r="E152" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="B153" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="D153" t="s">
         <v>25</v>
       </c>
       <c r="E153" t="s">
-        <v>605</v>
+        <v>385</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="B154" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="D154" t="s">
         <v>25</v>
@@ -5416,10 +5437,10 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="B155" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="D155" t="s">
         <v>25</v>
@@ -5430,10 +5451,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="B156" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="D156" t="s">
         <v>25</v>
@@ -5444,10 +5465,10 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="B157" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="D157" t="s">
         <v>25</v>
@@ -5458,7 +5479,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="B158" t="s">
         <v>390</v>
@@ -5472,10 +5493,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="B159" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="D159" t="s">
         <v>124</v>
@@ -5486,10 +5507,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="B160" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="D160" t="s">
         <v>124</v>
@@ -5500,10 +5521,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="B161" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="D161" t="s">
         <v>124</v>
@@ -5514,10 +5535,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="B162" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="D162" t="s">
         <v>124</v>
@@ -5528,7 +5549,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="B163" t="s">
         <v>109</v>
@@ -5537,12 +5558,12 @@
         <v>108</v>
       </c>
       <c r="E163" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="B164" t="s">
         <v>110</v>
@@ -5551,12 +5572,12 @@
         <v>108</v>
       </c>
       <c r="E164" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="B165" t="s">
         <v>111</v>
@@ -5565,12 +5586,12 @@
         <v>108</v>
       </c>
       <c r="E165" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="B166" t="s">
         <v>112</v>
@@ -5579,12 +5600,12 @@
         <v>108</v>
       </c>
       <c r="E166" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="B167" t="s">
         <v>113</v>
@@ -5593,12 +5614,12 @@
         <v>108</v>
       </c>
       <c r="E167" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="B168" t="s">
         <v>395</v>
@@ -5612,10 +5633,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="B169" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="D169" t="s">
         <v>108</v>
@@ -5626,10 +5647,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="B170" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="D170" t="s">
         <v>108</v>
@@ -5640,10 +5661,10 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="B171" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="D171" t="s">
         <v>108</v>
@@ -5654,7 +5675,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="B172" t="s">
         <v>118</v>
@@ -5668,7 +5689,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="B173" t="s">
         <v>44</v>
@@ -5682,7 +5703,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="B174" t="s">
         <v>45</v>
@@ -5696,7 +5717,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="B175" t="s">
         <v>46</v>
@@ -5710,7 +5731,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="B176" t="s">
         <v>47</v>
@@ -5724,7 +5745,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="B177" t="s">
         <v>403</v>
@@ -5735,7 +5756,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="B178" t="s">
         <v>277</v>
@@ -5749,7 +5770,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="B179" t="s">
         <v>176</v>
@@ -5763,7 +5784,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="B180" t="s">
         <v>276</v>
@@ -5777,10 +5798,10 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="B181" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="D181" t="s">
         <v>278</v>
@@ -5791,7 +5812,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="B182" t="s">
         <v>178</v>
@@ -5805,7 +5826,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="B183" t="s">
         <v>179</v>
@@ -5819,10 +5840,10 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="B184" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="D184" t="s">
         <v>124</v>
@@ -5833,7 +5854,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="B185" t="s">
         <v>181</v>
@@ -5847,7 +5868,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="B186" t="s">
         <v>182</v>
@@ -5858,10 +5879,10 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="B187" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="E187" t="s">
         <v>413</v>
@@ -5869,10 +5890,10 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="B188" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="E188" t="s">
         <v>414</v>
@@ -5880,7 +5901,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="B189" t="s">
         <v>185</v>
@@ -5891,7 +5912,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="B190" t="s">
         <v>186</v>
@@ -5902,7 +5923,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="B191" t="s">
         <v>187</v>
@@ -5913,7 +5934,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="B192" t="s">
         <v>188</v>
@@ -5924,7 +5945,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="B193" t="s">
         <v>189</v>
@@ -5935,10 +5956,10 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="B194" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="E194" t="s">
         <v>420</v>
@@ -5946,10 +5967,10 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="B195" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="E195" t="s">
         <v>421</v>
@@ -5957,10 +5978,10 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="B196" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="E196" t="s">
         <v>422</v>
@@ -5968,10 +5989,10 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="B197" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="E197" t="s">
         <v>423</v>
@@ -5979,7 +6000,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="B198" t="s">
         <v>194</v>
@@ -5990,7 +6011,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="B199" t="s">
         <v>195</v>
@@ -6001,7 +6022,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="B200" t="s">
         <v>196</v>
@@ -6015,7 +6036,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="B201" t="s">
         <v>197</v>
@@ -6026,7 +6047,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="B202" t="s">
         <v>198</v>
@@ -6037,10 +6058,10 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="B203" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="E203" t="s">
         <v>429</v>
@@ -6048,10 +6069,10 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="B204" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="E204" t="s">
         <v>430</v>
@@ -6059,10 +6080,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="B205" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E205" t="s">
         <v>431</v>
@@ -6070,7 +6091,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="B206" t="s">
         <v>202</v>
@@ -6081,7 +6102,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="B207" t="s">
         <v>203</v>
@@ -6092,7 +6113,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="B208" t="s">
         <v>204</v>
@@ -6103,10 +6124,10 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="B209" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="E209" t="s">
         <v>434</v>
@@ -6114,7 +6135,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="B210" t="s">
         <v>206</v>
@@ -6125,7 +6146,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="B211" t="s">
         <v>207</v>
@@ -6136,7 +6157,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="B212" t="s">
         <v>208</v>
@@ -6147,10 +6168,10 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="B213" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="E213" t="s">
         <v>438</v>
@@ -6158,7 +6179,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="B214" t="s">
         <v>210</v>
@@ -6169,7 +6190,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="B215" t="s">
         <v>211</v>
@@ -6180,7 +6201,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="B216" t="s">
         <v>212</v>
@@ -6191,7 +6212,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="B217" t="s">
         <v>213</v>
@@ -6202,7 +6223,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="B218" t="s">
         <v>214</v>
@@ -6213,7 +6234,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="B219" t="s">
         <v>215</v>
@@ -6224,7 +6245,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="B220" t="s">
         <v>216</v>
@@ -6235,7 +6256,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="B221" t="s">
         <v>217</v>
@@ -6246,7 +6267,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="B222" t="s">
         <v>218</v>
@@ -6257,7 +6278,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="B223" t="s">
         <v>448</v>
@@ -6268,21 +6289,21 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="B224" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="E224" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="B225" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="E225" t="s">
         <v>449</v>
@@ -6290,18 +6311,18 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="B226" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="E226" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="B227" t="s">
         <v>450</v>
@@ -6312,10 +6333,10 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="B228" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="E228" t="s">
         <v>451</v>
@@ -6326,10 +6347,10 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="B229" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="E229" t="s">
         <v>452</v>
@@ -6337,10 +6358,10 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="B230" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="E230" t="s">
         <v>453</v>
@@ -6348,7 +6369,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="B231" t="s">
         <v>454</v>
@@ -6359,10 +6380,10 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="B232" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="E232" t="s">
         <v>455</v>
@@ -6370,7 +6391,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="B233" t="s">
         <v>226</v>
@@ -6381,7 +6402,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="B234" t="s">
         <v>227</v>
@@ -6392,7 +6413,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="B235" t="s">
         <v>215</v>
@@ -6403,7 +6424,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="B236" t="s">
         <v>228</v>
@@ -6414,7 +6435,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="B237" t="s">
         <v>214</v>
@@ -6425,7 +6446,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="B238" t="s">
         <v>229</v>
@@ -6436,7 +6457,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="B239" t="s">
         <v>230</v>
@@ -6447,10 +6468,10 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="B240" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="E240" t="s">
         <v>459</v>
@@ -6458,10 +6479,10 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="B241" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="E241" t="s">
         <v>414</v>
@@ -6472,7 +6493,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="B242" t="s">
         <v>232</v>
@@ -6483,7 +6504,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="B243" t="s">
         <v>233</v>
@@ -6494,7 +6515,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="B244" t="s">
         <v>234</v>
@@ -6505,10 +6526,10 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="B245" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="E245" t="s">
         <v>463</v>
@@ -6516,7 +6537,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="B246" t="s">
         <v>236</v>
@@ -6527,7 +6548,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="B247" t="s">
         <v>237</v>
@@ -6538,10 +6559,10 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="B248" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="E248" t="s">
         <v>466</v>
@@ -6549,7 +6570,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="B249" t="s">
         <v>189</v>
@@ -6560,7 +6581,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="B250" t="s">
         <v>239</v>
@@ -6571,7 +6592,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="B251" t="s">
         <v>240</v>
@@ -6582,7 +6603,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="B252" t="s">
         <v>188</v>
@@ -6593,7 +6614,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="B253" t="s">
         <v>187</v>
@@ -6604,7 +6625,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="B254" t="s">
         <v>241</v>
@@ -6615,7 +6636,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="B255" t="s">
         <v>242</v>
@@ -6626,7 +6647,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="B256" t="s">
         <v>243</v>
@@ -6637,7 +6658,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="B257" t="s">
         <v>244</v>
@@ -6648,10 +6669,10 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="B258" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="E258" t="s">
         <v>473</v>
@@ -6659,7 +6680,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="B259" t="s">
         <v>234</v>
@@ -6670,7 +6691,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="B260" t="s">
         <v>185</v>
@@ -6681,7 +6702,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="B261" t="s">
         <v>230</v>
@@ -6692,7 +6713,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="B262" t="s">
         <v>212</v>
@@ -6703,7 +6724,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="B263" t="s">
         <v>246</v>
@@ -6714,7 +6735,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="B264" t="s">
         <v>247</v>
@@ -6725,7 +6746,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="B265" t="s">
         <v>248</v>
@@ -6736,7 +6757,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="B266" t="s">
         <v>249</v>
@@ -6747,7 +6768,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="B267" t="s">
         <v>250</v>
@@ -6758,7 +6779,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="B268" t="s">
         <v>251</v>
@@ -6769,10 +6790,10 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="B269" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="E269" t="s">
         <v>480</v>
@@ -6780,18 +6801,18 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="B270" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E270" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="B271" t="s">
         <v>253</v>
@@ -6802,7 +6823,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="B272" t="s">
         <v>254</v>
@@ -6813,21 +6834,21 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="B273" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="E273" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="B274" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="E274" t="s">
         <v>483</v>
@@ -6835,7 +6856,7 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="B275" t="s">
         <v>450</v>
@@ -6846,10 +6867,10 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="B276" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="E276" t="s">
         <v>451</v>
@@ -6857,10 +6878,10 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="B277" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="E277" t="s">
         <v>484</v>
@@ -6868,10 +6889,10 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="B278" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="E278" t="s">
         <v>421</v>
@@ -6879,10 +6900,10 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="B279" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="E279" t="s">
         <v>485</v>
@@ -6890,7 +6911,7 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="B280" t="s">
         <v>275</v>
@@ -6901,10 +6922,10 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="B281" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="E281" t="s">
         <v>487</v>
@@ -6912,10 +6933,10 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="B282" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="E282" t="s">
         <v>434</v>
@@ -6923,7 +6944,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="B283" t="s">
         <v>259</v>
@@ -6934,10 +6955,10 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="B284" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E284" t="s">
         <v>431</v>
@@ -6945,10 +6966,10 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="B285" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="E285" t="s">
         <v>489</v>
@@ -6956,10 +6977,10 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="B286" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="E286" t="s">
         <v>490</v>
@@ -6967,10 +6988,10 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="B287" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="E287" t="s">
         <v>491</v>
@@ -6978,10 +6999,10 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="B288" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="E288" t="s">
         <v>492</v>
@@ -6989,10 +7010,10 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="B289" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="E289" t="s">
         <v>493</v>
@@ -7000,7 +7021,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="B290" t="s">
         <v>265</v>
@@ -7011,7 +7032,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="B291" t="s">
         <v>266</v>
@@ -7022,7 +7043,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="B292" t="s">
         <v>267</v>
@@ -7033,7 +7054,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
       <c r="B293" t="s">
         <v>268</v>
@@ -7044,7 +7065,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="B294" t="s">
         <v>195</v>
@@ -7055,7 +7076,7 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="B295" t="s">
         <v>204</v>
@@ -7066,7 +7087,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="B296" t="s">
         <v>194</v>
@@ -7077,7 +7098,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
       <c r="B297" t="s">
         <v>269</v>
@@ -7088,21 +7109,21 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
       <c r="B298" t="s">
         <v>270</v>
       </c>
       <c r="E298" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="B299" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="E299" t="s">
         <v>499</v>
@@ -7110,13 +7131,37 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
       <c r="B300" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="E300" t="s">
         <v>500</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A301" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="B301" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A302" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="B302" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A303" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="B303" t="s">
+        <v>965</v>
       </c>
     </row>
   </sheetData>

--- a/annotador-core/src/main/resources/rules/TEST-ES2.xlsx
+++ b/annotador-core/src/main/resources/rules/TEST-ES2.xlsx
@@ -2917,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="D292" sqref="D292"/>
+    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/annotador-core/src/main/resources/rules/TEST-ES2.xlsx
+++ b/annotador-core/src/main/resources/rules/TEST-ES2.xlsx
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="856">
-  <si>
-    <t xml:space="preserve"> Problemas con pasado</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="886">
   <si>
     <t>Pasado un tiempo.</t>
   </si>
@@ -51,9 +48,6 @@
     <t>ya lo veremos pasado mañana</t>
   </si>
   <si>
-    <t xml:space="preserve"> Varios</t>
-  </si>
-  <si>
     <t>en ese momento</t>
   </si>
   <si>
@@ -111,24 +105,15 @@
     <t>El tres de abril de 1991.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Problemas con segundos</t>
-  </si>
-  <si>
     <t>el segundo perro tardó dos segundos</t>
   </si>
   <si>
-    <t xml:space="preserve"> Meses</t>
-  </si>
-  <si>
     <t>en mayo me gusta ir con Abril al campo, sobre todo los jueves y los domingos...</t>
   </si>
   <si>
     <t>Abril es una persona maravillosa.</t>
   </si>
   <si>
-    <t>Demostrativos</t>
-  </si>
-  <si>
     <t>el niño, este niño, esas personas, el pasado jueves, unos pocos días</t>
   </si>
   <si>
@@ -156,9 +141,6 @@
     <t>Entre las 12 y las 3.</t>
   </si>
   <si>
-    <t>Sucesiones</t>
-  </si>
-  <si>
     <t>Del 2 al 15 de agosto.</t>
   </si>
   <si>
@@ -171,9 +153,6 @@
     <t>Los días 1, 2, 3 y 4 de marzo.</t>
   </si>
   <si>
-    <t>Horas</t>
-  </si>
-  <si>
     <t>Quedaron a la 1 pm.</t>
   </si>
   <si>
@@ -198,9 +177,6 @@
     <t>A las 12h50.</t>
   </si>
   <si>
-    <t>Fechas</t>
-  </si>
-  <si>
     <t>19-42-1991</t>
   </si>
   <si>
@@ -213,9 +189,6 @@
     <t>50/2/1991</t>
   </si>
   <si>
-    <t>Duraciones</t>
-  </si>
-  <si>
     <t>seiscientos días</t>
   </si>
   <si>
@@ -324,9 +297,6 @@
     <t>son las dos de la tarde.</t>
   </si>
   <si>
-    <t>Fechas consecutivas</t>
-  </si>
-  <si>
     <t>el 1, el 2 y el 3 de enero.</t>
   </si>
   <si>
@@ -384,9 +354,6 @@
     <t>en el año 2000.</t>
   </si>
   <si>
-    <t>Finde</t>
-  </si>
-  <si>
     <t>un fin de semana más.</t>
   </si>
   <si>
@@ -399,9 +366,6 @@
     <t>dos días cada semana</t>
   </si>
   <si>
-    <t>Relativos</t>
-  </si>
-  <si>
     <t>ayer fuimos a comprar</t>
   </si>
   <si>
@@ -438,9 +402,6 @@
     <t>más de una hora y además 1 hora</t>
   </si>
   <si>
-    <t>Fracciones</t>
-  </si>
-  <si>
     <t>tres horas y cuarto</t>
   </si>
   <si>
@@ -543,9 +504,6 @@
     <t>TEXT</t>
   </si>
   <si>
-    <t>COMMENT</t>
-  </si>
-  <si>
     <t>TAG</t>
   </si>
   <si>
@@ -858,12 +816,6 @@
     <t>Nos vemos dentro de 4 minutos, pero 7 años, 2 meses y tres días antes.</t>
   </si>
   <si>
-    <t>Granularidad</t>
-  </si>
-  <si>
-    <t>Referencia</t>
-  </si>
-  <si>
     <t>Ha pasado mucho tiempo.</t>
   </si>
   <si>
@@ -1824,48 +1776,6 @@
     <t>00285</t>
   </si>
   <si>
-    <t>00286</t>
-  </si>
-  <si>
-    <t>00287</t>
-  </si>
-  <si>
-    <t>00288</t>
-  </si>
-  <si>
-    <t>00289</t>
-  </si>
-  <si>
-    <t>00290</t>
-  </si>
-  <si>
-    <t>00291</t>
-  </si>
-  <si>
-    <t>00292</t>
-  </si>
-  <si>
-    <t>00293</t>
-  </si>
-  <si>
-    <t>00294</t>
-  </si>
-  <si>
-    <t>00295</t>
-  </si>
-  <si>
-    <t>00296</t>
-  </si>
-  <si>
-    <t>00297</t>
-  </si>
-  <si>
-    <t>00298</t>
-  </si>
-  <si>
-    <t>00299</t>
-  </si>
-  <si>
     <t>En mayo me gusta ir con Abril al campo, sobre todo los jueves y los domingos…</t>
   </si>
   <si>
@@ -1896,21 +1806,6 @@
     <t>Este trimestre.</t>
   </si>
   <si>
-    <t>00300</t>
-  </si>
-  <si>
-    <t>00301</t>
-  </si>
-  <si>
-    <t>00302</t>
-  </si>
-  <si>
-    <t>00303</t>
-  </si>
-  <si>
-    <t>00304</t>
-  </si>
-  <si>
     <t>Iban al cine una vez cada semana.</t>
   </si>
   <si>
@@ -1983,12 +1878,6 @@
     <t>En el 999 AC</t>
   </si>
   <si>
-    <t>00305</t>
-  </si>
-  <si>
-    <t>00306</t>
-  </si>
-  <si>
     <t>El XX d.C.</t>
   </si>
   <si>
@@ -2007,21 +1896,6 @@
     <t>Los años setenta fueron convulsos.</t>
   </si>
   <si>
-    <t>00307</t>
-  </si>
-  <si>
-    <t>00308</t>
-  </si>
-  <si>
-    <t>00309</t>
-  </si>
-  <si>
-    <t>Siglo</t>
-  </si>
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
     <t>El Estado mantuvo durante años una lucha encarnizada contra la corrupción interna.</t>
   </si>
   <si>
@@ -2139,42 +2013,21 @@
     <t>Hoy se cumple el tercer día.</t>
   </si>
   <si>
-    <t>Día</t>
-  </si>
-  <si>
-    <t>Relativo</t>
-  </si>
-  <si>
     <t>El semestre pasado saqué peores notas.</t>
   </si>
   <si>
-    <t>Trimestre</t>
-  </si>
-  <si>
-    <t>Duración</t>
-  </si>
-  <si>
     <t>Unos días sí y otros no.</t>
   </si>
   <si>
-    <t>Expresión</t>
-  </si>
-  <si>
     <t>Fue un giro de última hora.</t>
   </si>
   <si>
-    <t>Fecha</t>
-  </si>
-  <si>
     <t>El 3 de octubre de 1932 antes de cristo.</t>
   </si>
   <si>
     <t>El 20 antes de cristo.</t>
   </si>
   <si>
-    <t>Cuatrimestre</t>
-  </si>
-  <si>
     <t>Las elecciones municipales del próximo domingo.</t>
   </si>
   <si>
@@ -2211,9 +2064,6 @@
     <t>Un bonito, largo y hermoso año.</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Hace un año y dos meses.</t>
   </si>
   <si>
@@ -2256,9 +2106,6 @@
     <t>Entre un año y 2 meses, y dos años y 3 meses.</t>
   </si>
   <si>
-    <t>Intervalo</t>
-  </si>
-  <si>
     <t>Normalmente ocurre durante la medianoche.</t>
   </si>
   <si>
@@ -2274,9 +2121,6 @@
     <t>Meses largos y penosos.</t>
   </si>
   <si>
-    <t>Año.</t>
-  </si>
-  <si>
     <t>Está próximo a mi casa. Soy el próximo en la lista.</t>
   </si>
   <si>
@@ -2286,9 +2130,6 @@
     <t>Durará de 3 a cinco días.</t>
   </si>
   <si>
-    <t>Meses</t>
-  </si>
-  <si>
     <t>Diariamente se ven en el trabajo.</t>
   </si>
   <si>
@@ -2529,80 +2370,795 @@
     <t>en el año mil novecientos treinta y dos</t>
   </si>
   <si>
-    <t xml:space="preserve">Mandé el borrador a principios de la primavera. Debería haber depositado la tesis a finales del verano. </t>
-  </si>
-  <si>
     <t>Tenemos un plazo de vencimiento interno a mediados de la semana que viene, el plazo oficial acaba el 10 de junio, pero queremos dejar unos días de margen para revisar todo el contenido.</t>
   </si>
   <si>
-    <t>Últimamente no estamos poniendo mucho el aire acondicionado pero ya va viniendo el calor</t>
-  </si>
-  <si>
-    <t>Hasta el 40 de mayo no te quites el sayo</t>
-  </si>
-  <si>
-    <t>Hago visitas diarias a la residencia</t>
-  </si>
-  <si>
-    <t>Hago visitas mensuales a la residencia</t>
-  </si>
-  <si>
-    <t>Hago visitas semanales a la residencia</t>
-  </si>
-  <si>
-    <t>Hago visitas anuales a la residencia</t>
-  </si>
-  <si>
-    <t>Llevo dos horas con este formulario.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aún no he empezado a trabajar en el articulo que tengo que preparar para el lunes. El plazo de vencimiento está a la vuelta de la esquina. </t>
-  </si>
-  <si>
-    <t>Él tiene 25 primaveras</t>
-  </si>
-  <si>
-    <t>A buenas horas mangas verdes</t>
-  </si>
-  <si>
     <t>CORPUS</t>
   </si>
   <si>
     <t>Estoy escribiendo un diario</t>
   </si>
   <si>
-    <t>Debe estar hecho para ayer</t>
-  </si>
-  <si>
-    <t>Esto se hace en dos tardes</t>
-  </si>
-  <si>
     <t>Son un par de días</t>
   </si>
   <si>
-    <t>Ambiguo</t>
-  </si>
-  <si>
     <t>Tenemos la teleconferencia el lunes a media mañana.</t>
   </si>
   <si>
-    <t>A este ritmo estoy describiendo mi agenda para los próximos días en este corpus</t>
-  </si>
-  <si>
-    <t>Dedica lo que queda de día a otra tarea, si ves que esta no te está cundiendo mucho hoy</t>
-  </si>
-  <si>
     <t>Me centro en trabajar en la tesis hoy y mañana, retomaré el artículo para el congreso de septiembre el sábado.</t>
   </si>
   <si>
-    <t>Modificadores</t>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>Problems with past</t>
+  </si>
+  <si>
+    <t>Problems with second ("segundo")</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>Ambiguous</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Trimester</t>
+  </si>
+  <si>
+    <t>Demostrative</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Consecutive dates</t>
+  </si>
+  <si>
+    <t>Weekend</t>
+  </si>
+  <si>
+    <t>Fractions</t>
+  </si>
+  <si>
+    <t>Granularity</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Century</t>
+  </si>
+  <si>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>PROVENANCE</t>
+  </si>
+  <si>
+    <t>SYNTH</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Me contestó al correo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>en cero coma.</t>
+    </r>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>coloquial</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Me contestó al correo en un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pliqui.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Me contestó al correo en un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pispás.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hago visitas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>diarias</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a la residencia.</t>
+    </r>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hago visitas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>mensuales</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a la residencia.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mandé el borrador</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a principios de la primavera. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Debería haber depositado la tesis </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">a finales del verano. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Llevo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">dos horas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>con este formulario. Aún no he empezado a trabajar en el articulo que tengo que preparar para</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> el lunes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. El </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>plazo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> de vencimiento está </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a la vuelta de la esquina</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <t>El tiempo que tardes en llegar al centro dependerá de lo que tardes desde que sales del campus hasta que recorres la A-6; en hora punta hay mucho tráfico en ese tramo.</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>A ver si consigo terminar esta sección del capítulo antes de irme a casa hoy, que llevo una hora con la misma página.</t>
+  </si>
+  <si>
+    <t>¿Cuánto crees que te llevaría cambiar los ejemplos de esa sección del artículo?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Esto se hace en un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pim pam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> y ya estaría listo.</t>
+    </r>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pedro cumplió 37 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">castañas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>el mes pasado.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Él tiene 25 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>primaveras.</t>
+    </r>
+  </si>
+  <si>
+    <t>literario</t>
+  </si>
+  <si>
+    <t>¿Hoy te quedas mucho más?</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">¡Lo hemos hecho </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ipso facto!</t>
+    </r>
+  </si>
+  <si>
+    <t>latin</t>
+  </si>
+  <si>
+    <t>phrase</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>chat</t>
+  </si>
+  <si>
+    <t>Ok, mandadme please un whatsapp cuando salgáis, que yo iré a la zona desde aquí en coche. Calculo ~20:30, lo vuestro dura 1h, no?</t>
+  </si>
+  <si>
+    <t>Registry</t>
+  </si>
+  <si>
+    <t>Sobre qué hora nos vamos?</t>
+  </si>
+  <si>
+    <t>Bueno pues a y 45.</t>
+  </si>
+  <si>
+    <t>Fecha y Hora: 7 junio, 2019 19:15.</t>
+  </si>
+  <si>
+    <t>Era a las 19 o a y 15?</t>
+  </si>
+  <si>
+    <t>Ya estoy.</t>
+  </si>
+  <si>
+    <t>Ya, la idea es montar una excursión de fin de semana</t>
+  </si>
+  <si>
+    <t>Vale, luego te la vuelvo a dejar ahí.</t>
+  </si>
+  <si>
+    <t>Me lo dieron el año pasado en el workshop al que voy la semana que viene.</t>
+  </si>
+  <si>
+    <t>La próxima semana.</t>
+  </si>
+  <si>
+    <t>La semana que viene.</t>
+  </si>
+  <si>
+    <t>Es cuarto para las 5.</t>
+  </si>
+  <si>
+    <t>Cinco para las 11.</t>
+  </si>
+  <si>
+    <t>In illo tempore-</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">¿El estado del arte </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF181818"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF181818"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> cuándo?</t>
+    </r>
+  </si>
+  <si>
+    <t>El cagaprisas luego siempre llega tarde.</t>
+  </si>
+  <si>
+    <t>Date el piro que llegas tarde.</t>
+  </si>
+  <si>
+    <t>A buena hora mangas verdes.</t>
+  </si>
+  <si>
+    <t>Miré el peluco y comprendí que era ya muy tarde.</t>
+  </si>
+  <si>
+    <t>Te quedan tres telediarios para las vacaciones.</t>
+  </si>
+  <si>
+    <t>Me leí el informe en un tris.</t>
+  </si>
+  <si>
+    <t>Hasta el 40 de mayo no te quites el sayo.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Puede hacerse </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sine die.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se hizo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>illa tempora.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hoy cumplo 72 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>abriles.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tardé la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">intemerata </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>en acabarlo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Debe estar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>hecho para ayer.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lo acabáis </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>haciendo leches.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LLego </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>en nada.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Esto es un asunto que </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ya iremos viendo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> como se gestiona.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El paquete tiene que estar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>al caer.</t>
+    </r>
+  </si>
+  <si>
+    <t>De nada, Legolas, y que las hojas del árbol de tu vida nunca se marchiten.</t>
+  </si>
+  <si>
+    <t>Ese contenido lo podemos dejar ahora para trabajo futuro.</t>
+  </si>
+  <si>
+    <t>Esta parte habría que revisarla antes de mandar el segundo borrador de esa sección.</t>
+  </si>
+  <si>
+    <t>Dedica lo que queda de día a otra tarea, si ves que esta no te está cundiendo mucho hoy.</t>
+  </si>
+  <si>
+    <t>A este ritmo estoy describiendo mi agenda para los próximos días en este corpus.</t>
+  </si>
+  <si>
+    <t>Esto se hace en dos tardes.</t>
+  </si>
+  <si>
+    <t>Estoy analizándome todo el rato con cada cosa que digo o escribo.</t>
+  </si>
+  <si>
+    <t>Sí, ahora cuando pienso algo valoro si encajaría o no en tu corpus.</t>
+  </si>
+  <si>
+    <t>Hacía tiempo que Google no me devolvía una traducción tan buena.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Me contestó al correo en un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>momentín.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Me contestó al correo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>en un abrir y cerrar de ojos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hago visitas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">semanales </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a la residencia.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hago visitas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>anuales</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a la residencia.</t>
+    </r>
+  </si>
+  <si>
+    <t>Y luego de ahí a pata.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2610,16 +3166,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF181818"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF181818"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF181818"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2627,14 +3227,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2915,3465 +3545,5114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E310"/>
+  <dimension ref="A1:F349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B304"/>
+    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
+      <selection activeCell="A346" sqref="A346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="36.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="52.7265625" customWidth="1"/>
+    <col min="3" max="3" width="31.36328125" customWidth="1"/>
     <col min="4" max="4" width="25.6328125" customWidth="1"/>
     <col min="5" max="5" width="59.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>312</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>810</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="E1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>841</v>
+      </c>
+      <c r="F1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="B2" t="s">
-        <v>612</v>
+        <v>582</v>
+      </c>
+      <c r="C2" t="s">
+        <v>811</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>811</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>811</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="B5" t="s">
-        <v>278</v>
+        <v>262</v>
+      </c>
+      <c r="C5" t="s">
+        <v>811</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B6" t="s">
-        <v>613</v>
+        <v>583</v>
+      </c>
+      <c r="C6" t="s">
+        <v>811</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="B7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" t="s">
+        <v>811</v>
+      </c>
+      <c r="D7" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" t="s">
+        <v>584</v>
+      </c>
+      <c r="C8" t="s">
+        <v>811</v>
+      </c>
+      <c r="D8" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" t="s">
+        <v>585</v>
+      </c>
+      <c r="C9" t="s">
+        <v>811</v>
+      </c>
+      <c r="D9" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B8" t="s">
-        <v>614</v>
-      </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B9" t="s">
-        <v>615</v>
-      </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="B10" t="s">
-        <v>616</v>
+        <v>586</v>
+      </c>
+      <c r="C10" t="s">
+        <v>811</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="B11" t="s">
-        <v>617</v>
+        <v>587</v>
+      </c>
+      <c r="C11" t="s">
+        <v>811</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="B12" t="s">
-        <v>618</v>
+        <v>588</v>
+      </c>
+      <c r="C12" t="s">
+        <v>811</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="B13" t="s">
-        <v>285</v>
+        <v>269</v>
+      </c>
+      <c r="C13" t="s">
+        <v>811</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="B14" t="s">
-        <v>286</v>
+        <v>270</v>
+      </c>
+      <c r="C14" t="s">
+        <v>811</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>811</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="B16" t="s">
-        <v>745</v>
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>811</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>789</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="B17" t="s">
-        <v>627</v>
+        <v>598</v>
+      </c>
+      <c r="C17" t="s">
+        <v>811</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>789</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="B18" t="s">
-        <v>628</v>
+        <v>599</v>
+      </c>
+      <c r="C18" t="s">
+        <v>811</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>789</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="B19" t="s">
-        <v>629</v>
+        <v>783</v>
+      </c>
+      <c r="C19" t="s">
+        <v>811</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>790</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="B20" t="s">
-        <v>630</v>
+        <v>687</v>
+      </c>
+      <c r="C20" t="s">
+        <v>811</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>791</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="B21" t="s">
-        <v>631</v>
+        <v>627</v>
+      </c>
+      <c r="C21" t="s">
+        <v>811</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>791</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B22" t="s">
-        <v>632</v>
+        <v>187</v>
+      </c>
+      <c r="C22" t="s">
+        <v>811</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>791</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="B23" t="s">
-        <v>753</v>
+        <v>645</v>
+      </c>
+      <c r="C23" t="s">
+        <v>811</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>791</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>675</v>
+      </c>
+      <c r="C24" t="s">
+        <v>811</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>791</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>252</v>
+      </c>
+      <c r="C25" t="s">
+        <v>811</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>791</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B26" t="s">
-        <v>633</v>
+        <v>615</v>
+      </c>
+      <c r="C26" t="s">
+        <v>811</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>791</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="B27" t="s">
-        <v>634</v>
+        <v>620</v>
+      </c>
+      <c r="C27" t="s">
+        <v>811</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>791</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="B28" t="s">
-        <v>635</v>
+        <v>621</v>
+      </c>
+      <c r="C28" t="s">
+        <v>811</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>791</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="B29" t="s">
-        <v>636</v>
+        <v>779</v>
+      </c>
+      <c r="C29" t="s">
+        <v>811</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>791</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="B30" t="s">
-        <v>637</v>
+        <v>679</v>
+      </c>
+      <c r="C30" t="s">
+        <v>811</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>791</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="B31" t="s">
-        <v>619</v>
+        <v>291</v>
+      </c>
+      <c r="C31" t="s">
+        <v>811</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>792</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="B32" t="s">
-        <v>638</v>
+        <v>600</v>
+      </c>
+      <c r="C32" t="s">
+        <v>811</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>793</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="B33" t="s">
-        <v>639</v>
+        <v>601</v>
+      </c>
+      <c r="C33" t="s">
+        <v>811</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>793</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B34" t="s">
-        <v>640</v>
+        <v>602</v>
+      </c>
+      <c r="C34" t="s">
+        <v>811</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>793</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="B35" t="s">
-        <v>287</v>
+        <v>660</v>
+      </c>
+      <c r="C35" t="s">
+        <v>811</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>794</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B36" t="s">
-        <v>288</v>
+        <v>677</v>
+      </c>
+      <c r="C36" t="s">
+        <v>811</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>795</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B37" t="s">
-        <v>289</v>
+        <v>671</v>
+      </c>
+      <c r="C37" t="s">
+        <v>811</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>795</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="B38" t="s">
-        <v>290</v>
+        <v>667</v>
+      </c>
+      <c r="C38" t="s">
+        <v>811</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>795</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B39" t="s">
-        <v>291</v>
+        <v>295</v>
+      </c>
+      <c r="C39" t="s">
+        <v>811</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>795</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="B40" t="s">
-        <v>641</v>
+        <v>589</v>
+      </c>
+      <c r="C40" t="s">
+        <v>811</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>795</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s">
-        <v>644</v>
+        <v>603</v>
+      </c>
+      <c r="C41" t="s">
+        <v>811</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>795</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B42" t="s">
-        <v>645</v>
+        <v>604</v>
+      </c>
+      <c r="C42" t="s">
+        <v>811</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>795</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="B43" t="s">
-        <v>643</v>
+        <v>605</v>
+      </c>
+      <c r="C43" t="s">
+        <v>811</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>795</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="B44" t="s">
-        <v>732</v>
+        <v>271</v>
+      </c>
+      <c r="C44" t="s">
+        <v>811</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>795</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="B45" t="s">
-        <v>642</v>
+        <v>272</v>
+      </c>
+      <c r="C45" t="s">
+        <v>811</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>795</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>292</v>
+        <v>341</v>
+      </c>
+      <c r="B46" t="s">
+        <v>609</v>
+      </c>
+      <c r="C46" t="s">
+        <v>811</v>
       </c>
       <c r="D46" t="s">
-        <v>56</v>
+        <v>795</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>646</v>
+        <v>342</v>
+      </c>
+      <c r="B47" t="s">
+        <v>610</v>
+      </c>
+      <c r="C47" t="s">
+        <v>811</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>795</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>647</v>
+        <v>343</v>
+      </c>
+      <c r="B48" t="s">
+        <v>608</v>
+      </c>
+      <c r="C48" t="s">
+        <v>811</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>795</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>648</v>
+        <v>344</v>
+      </c>
+      <c r="B49" t="s">
+        <v>682</v>
+      </c>
+      <c r="C49" t="s">
+        <v>811</v>
       </c>
       <c r="D49" t="s">
-        <v>56</v>
+        <v>795</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>649</v>
+        <v>345</v>
+      </c>
+      <c r="B50" t="s">
+        <v>607</v>
+      </c>
+      <c r="C50" t="s">
+        <v>811</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>795</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B51" t="s">
-        <v>279</v>
+        <v>720</v>
+      </c>
+      <c r="C51" t="s">
+        <v>811</v>
       </c>
       <c r="D51" t="s">
-        <v>727</v>
+        <v>795</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="B52" t="s">
-        <v>280</v>
+        <v>723</v>
+      </c>
+      <c r="C52" t="s">
+        <v>811</v>
       </c>
       <c r="D52" t="s">
-        <v>727</v>
+        <v>795</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="B53" t="s">
-        <v>281</v>
+        <v>724</v>
+      </c>
+      <c r="C53" t="s">
+        <v>811</v>
       </c>
       <c r="D53" t="s">
-        <v>56</v>
+        <v>795</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="B54" t="s">
-        <v>282</v>
+        <v>725</v>
+      </c>
+      <c r="C54" t="s">
+        <v>811</v>
       </c>
       <c r="D54" t="s">
-        <v>56</v>
+        <v>795</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="B55" t="s">
-        <v>755</v>
+        <v>281</v>
+      </c>
+      <c r="C55" t="s">
+        <v>811</v>
       </c>
       <c r="D55" t="s">
-        <v>98</v>
+        <v>795</v>
       </c>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="B56" t="s">
-        <v>293</v>
+        <v>282</v>
+      </c>
+      <c r="C56" t="s">
+        <v>811</v>
       </c>
       <c r="D56" t="s">
-        <v>98</v>
+        <v>795</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="B57" t="s">
-        <v>756</v>
+        <v>707</v>
+      </c>
+      <c r="C57" t="s">
+        <v>811</v>
       </c>
       <c r="D57" t="s">
-        <v>98</v>
+        <v>795</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="B58" t="s">
-        <v>757</v>
+        <v>690</v>
+      </c>
+      <c r="C58" t="s">
+        <v>811</v>
       </c>
       <c r="D58" t="s">
-        <v>98</v>
+        <v>795</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="B59" t="s">
-        <v>829</v>
+        <v>691</v>
+      </c>
+      <c r="C59" t="s">
+        <v>811</v>
       </c>
       <c r="D59" t="s">
-        <v>98</v>
+        <v>795</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="B60" t="s">
-        <v>828</v>
+        <v>284</v>
+      </c>
+      <c r="C60" t="s">
+        <v>811</v>
       </c>
       <c r="D60" t="s">
-        <v>98</v>
+        <v>795</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="B61" t="s">
-        <v>827</v>
+        <v>285</v>
+      </c>
+      <c r="C61" t="s">
+        <v>811</v>
       </c>
       <c r="D61" t="s">
-        <v>98</v>
+        <v>795</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="B62" t="s">
-        <v>826</v>
+        <v>705</v>
+      </c>
+      <c r="C62" t="s">
+        <v>811</v>
       </c>
       <c r="D62" t="s">
-        <v>98</v>
+        <v>795</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="B63" t="s">
-        <v>825</v>
+        <v>622</v>
+      </c>
+      <c r="C63" t="s">
+        <v>811</v>
       </c>
       <c r="D63" t="s">
-        <v>118</v>
+        <v>795</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="B64" t="s">
-        <v>824</v>
+        <v>639</v>
+      </c>
+      <c r="C64" t="s">
+        <v>811</v>
       </c>
       <c r="D64" t="s">
-        <v>118</v>
+        <v>795</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="B65" t="s">
-        <v>823</v>
+        <v>698</v>
+      </c>
+      <c r="C65" t="s">
+        <v>811</v>
       </c>
       <c r="D65" t="s">
-        <v>118</v>
+        <v>795</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="B66" t="s">
-        <v>822</v>
+        <v>646</v>
+      </c>
+      <c r="C66" t="s">
+        <v>811</v>
       </c>
       <c r="D66" t="s">
-        <v>118</v>
+        <v>795</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="B67" t="s">
-        <v>821</v>
+        <v>649</v>
+      </c>
+      <c r="C67" t="s">
+        <v>811</v>
       </c>
       <c r="D67" t="s">
-        <v>136</v>
+        <v>795</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="B68" t="s">
-        <v>820</v>
+        <v>695</v>
+      </c>
+      <c r="C68" t="s">
+        <v>811</v>
       </c>
       <c r="D68" t="s">
-        <v>136</v>
+        <v>795</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="B69" t="s">
-        <v>819</v>
+        <v>653</v>
+      </c>
+      <c r="C69" t="s">
+        <v>811</v>
       </c>
       <c r="D69" t="s">
-        <v>136</v>
+        <v>795</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="B70" t="s">
-        <v>818</v>
+        <v>654</v>
+      </c>
+      <c r="C70" t="s">
+        <v>811</v>
       </c>
       <c r="D70" t="s">
-        <v>136</v>
+        <v>795</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="B71" t="s">
-        <v>817</v>
+        <v>655</v>
+      </c>
+      <c r="C71" t="s">
+        <v>811</v>
       </c>
       <c r="D71" t="s">
-        <v>136</v>
+        <v>795</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B72" t="s">
-        <v>816</v>
+        <v>676</v>
+      </c>
+      <c r="C72" t="s">
+        <v>811</v>
       </c>
       <c r="D72" t="s">
-        <v>136</v>
+        <v>795</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="B73" t="s">
-        <v>815</v>
+        <v>696</v>
+      </c>
+      <c r="C73" t="s">
+        <v>811</v>
       </c>
       <c r="D73" t="s">
-        <v>136</v>
+        <v>795</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="B74" t="s">
-        <v>814</v>
+        <v>777</v>
+      </c>
+      <c r="C74" t="s">
+        <v>811</v>
       </c>
       <c r="D74" t="s">
-        <v>136</v>
+        <v>795</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="B75" t="s">
-        <v>813</v>
+        <v>663</v>
+      </c>
+      <c r="C75" t="s">
+        <v>811</v>
       </c>
       <c r="D75" t="s">
-        <v>136</v>
+        <v>796</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="B76" t="s">
-        <v>294</v>
+        <v>643</v>
+      </c>
+      <c r="C76" t="s">
+        <v>811</v>
       </c>
       <c r="D76" t="s">
-        <v>136</v>
+        <v>797</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="B77" t="s">
-        <v>812</v>
+        <v>648</v>
+      </c>
+      <c r="C77" t="s">
+        <v>811</v>
       </c>
       <c r="D77" t="s">
-        <v>136</v>
+        <v>797</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="B78" t="s">
-        <v>800</v>
+        <v>216</v>
+      </c>
+      <c r="C78" t="s">
+        <v>811</v>
       </c>
       <c r="D78" t="s">
-        <v>136</v>
+        <v>797</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="B79" t="s">
-        <v>149</v>
+        <v>652</v>
+      </c>
+      <c r="C79" t="s">
+        <v>811</v>
       </c>
       <c r="D79" t="s">
-        <v>136</v>
+        <v>797</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="B80" t="s">
-        <v>48</v>
+        <v>233</v>
+      </c>
+      <c r="C80" t="s">
+        <v>811</v>
       </c>
       <c r="D80" t="s">
-        <v>47</v>
+        <v>797</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="B81" t="s">
-        <v>49</v>
+        <v>293</v>
+      </c>
+      <c r="C81" t="s">
+        <v>811</v>
       </c>
       <c r="D81" t="s">
-        <v>47</v>
+        <v>797</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="B82" t="s">
-        <v>50</v>
+        <v>294</v>
+      </c>
+      <c r="C82" t="s">
+        <v>811</v>
       </c>
       <c r="D82" t="s">
-        <v>47</v>
+        <v>797</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="B83" t="s">
-        <v>51</v>
+        <v>664</v>
+      </c>
+      <c r="C83" t="s">
+        <v>811</v>
       </c>
       <c r="D83" t="s">
-        <v>47</v>
+        <v>797</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="B84" t="s">
-        <v>801</v>
+        <v>273</v>
+      </c>
+      <c r="C84" t="s">
+        <v>811</v>
       </c>
       <c r="D84" t="s">
-        <v>47</v>
+        <v>797</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="B85" t="s">
-        <v>53</v>
+        <v>274</v>
+      </c>
+      <c r="C85" t="s">
+        <v>811</v>
       </c>
       <c r="D85" t="s">
-        <v>47</v>
+        <v>797</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="B86" t="s">
-        <v>54</v>
+        <v>275</v>
+      </c>
+      <c r="C86" t="s">
+        <v>811</v>
       </c>
       <c r="D86" t="s">
-        <v>47</v>
+        <v>797</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="B87" t="s">
-        <v>55</v>
+        <v>606</v>
+      </c>
+      <c r="C87" t="s">
+        <v>811</v>
       </c>
       <c r="D87" t="s">
-        <v>47</v>
+        <v>797</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B88" t="s">
-        <v>802</v>
+        <v>383</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C88" t="s">
+        <v>811</v>
       </c>
       <c r="D88" t="s">
-        <v>47</v>
+        <v>797</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B89" t="s">
-        <v>803</v>
+        <v>384</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C89" t="s">
+        <v>811</v>
       </c>
       <c r="D89" t="s">
-        <v>47</v>
+        <v>797</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B90" t="s">
-        <v>804</v>
+        <v>385</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C90" t="s">
+        <v>811</v>
       </c>
       <c r="D90" t="s">
-        <v>47</v>
+        <v>797</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B91" t="s">
-        <v>805</v>
+        <v>386</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C91" t="s">
+        <v>811</v>
       </c>
       <c r="D91" t="s">
-        <v>47</v>
+        <v>797</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="B92" t="s">
-        <v>806</v>
+        <v>265</v>
+      </c>
+      <c r="C92" t="s">
+        <v>811</v>
       </c>
       <c r="D92" t="s">
-        <v>47</v>
+        <v>797</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="B93" t="s">
-        <v>807</v>
+        <v>266</v>
+      </c>
+      <c r="C93" t="s">
+        <v>811</v>
       </c>
       <c r="D93" t="s">
-        <v>47</v>
+        <v>797</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="B94" t="s">
-        <v>808</v>
+        <v>24</v>
+      </c>
+      <c r="C94" t="s">
+        <v>811</v>
       </c>
       <c r="D94" t="s">
-        <v>47</v>
+        <v>797</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="B95" t="s">
-        <v>809</v>
+        <v>279</v>
+      </c>
+      <c r="C95" t="s">
+        <v>811</v>
       </c>
       <c r="D95" t="s">
-        <v>47</v>
+        <v>797</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="B96" t="s">
-        <v>810</v>
+        <v>280</v>
+      </c>
+      <c r="C96" t="s">
+        <v>811</v>
       </c>
       <c r="D96" t="s">
-        <v>47</v>
+        <v>797</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="B97" t="s">
+        <v>719</v>
+      </c>
+      <c r="C97" t="s">
         <v>811</v>
       </c>
       <c r="D97" t="s">
-        <v>47</v>
+        <v>797</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="B98" t="s">
-        <v>779</v>
+        <v>722</v>
+      </c>
+      <c r="C98" t="s">
+        <v>811</v>
       </c>
       <c r="D98" t="s">
-        <v>47</v>
+        <v>797</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="B99" t="s">
-        <v>780</v>
+        <v>706</v>
+      </c>
+      <c r="C99" t="s">
+        <v>811</v>
       </c>
       <c r="D99" t="s">
-        <v>47</v>
+        <v>797</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="B100" t="s">
-        <v>781</v>
+        <v>625</v>
+      </c>
+      <c r="C100" t="s">
+        <v>811</v>
       </c>
       <c r="D100" t="s">
-        <v>47</v>
+        <v>797</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="B101" t="s">
-        <v>782</v>
+        <v>626</v>
+      </c>
+      <c r="C101" t="s">
+        <v>811</v>
       </c>
       <c r="D101" t="s">
-        <v>47</v>
+        <v>797</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="B102" t="s">
-        <v>783</v>
+        <v>287</v>
+      </c>
+      <c r="C102" t="s">
+        <v>811</v>
       </c>
       <c r="D102" t="s">
-        <v>47</v>
+        <v>797</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="B103" t="s">
-        <v>784</v>
+        <v>186</v>
+      </c>
+      <c r="C103" t="s">
+        <v>811</v>
       </c>
       <c r="D103" t="s">
-        <v>47</v>
+        <v>797</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="B104" t="s">
-        <v>785</v>
+        <v>702</v>
+      </c>
+      <c r="C104" t="s">
+        <v>811</v>
       </c>
       <c r="D104" t="s">
-        <v>47</v>
+        <v>798</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="B105" t="s">
-        <v>786</v>
+        <v>277</v>
+      </c>
+      <c r="C105" t="s">
+        <v>811</v>
       </c>
       <c r="D105" t="s">
-        <v>47</v>
+        <v>798</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="B106" t="s">
-        <v>787</v>
+        <v>703</v>
+      </c>
+      <c r="C106" t="s">
+        <v>811</v>
       </c>
       <c r="D106" t="s">
-        <v>47</v>
+        <v>798</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="B107" t="s">
-        <v>788</v>
+        <v>704</v>
+      </c>
+      <c r="C107" t="s">
+        <v>811</v>
       </c>
       <c r="D107" t="s">
-        <v>47</v>
+        <v>798</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="B108" t="s">
-        <v>789</v>
+        <v>776</v>
+      </c>
+      <c r="C108" t="s">
+        <v>811</v>
       </c>
       <c r="D108" t="s">
-        <v>47</v>
+        <v>798</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="B109" t="s">
-        <v>790</v>
+        <v>775</v>
+      </c>
+      <c r="C109" t="s">
+        <v>811</v>
       </c>
       <c r="D109" t="s">
-        <v>47</v>
+        <v>798</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="B110" t="s">
-        <v>791</v>
+        <v>774</v>
+      </c>
+      <c r="C110" t="s">
+        <v>811</v>
       </c>
       <c r="D110" t="s">
-        <v>150</v>
+        <v>798</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="B111" t="s">
-        <v>792</v>
+        <v>773</v>
+      </c>
+      <c r="C111" t="s">
+        <v>811</v>
       </c>
       <c r="D111" t="s">
-        <v>150</v>
+        <v>798</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="B112" t="s">
-        <v>793</v>
+        <v>772</v>
+      </c>
+      <c r="C112" t="s">
+        <v>811</v>
       </c>
       <c r="D112" t="s">
-        <v>150</v>
+        <v>799</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="B113" t="s">
-        <v>794</v>
+        <v>771</v>
+      </c>
+      <c r="C113" t="s">
+        <v>811</v>
       </c>
       <c r="D113" t="s">
-        <v>150</v>
+        <v>799</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="B114" t="s">
-        <v>795</v>
+        <v>770</v>
+      </c>
+      <c r="C114" t="s">
+        <v>811</v>
       </c>
       <c r="D114" t="s">
-        <v>150</v>
+        <v>799</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="B115" t="s">
-        <v>796</v>
+        <v>769</v>
+      </c>
+      <c r="C115" t="s">
+        <v>811</v>
       </c>
       <c r="D115" t="s">
-        <v>150</v>
+        <v>799</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="B116" t="s">
-        <v>797</v>
+        <v>768</v>
+      </c>
+      <c r="C116" t="s">
+        <v>811</v>
       </c>
       <c r="D116" t="s">
-        <v>150</v>
+        <v>800</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="B117" t="s">
-        <v>798</v>
+        <v>767</v>
+      </c>
+      <c r="C117" t="s">
+        <v>811</v>
       </c>
       <c r="D117" t="s">
-        <v>150</v>
+        <v>800</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="B118" t="s">
-        <v>799</v>
+        <v>766</v>
+      </c>
+      <c r="C118" t="s">
+        <v>811</v>
       </c>
       <c r="D118" t="s">
-        <v>150</v>
+        <v>800</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="B119" t="s">
-        <v>771</v>
+        <v>765</v>
+      </c>
+      <c r="C119" t="s">
+        <v>811</v>
       </c>
       <c r="D119" t="s">
-        <v>150</v>
+        <v>800</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="B120" t="s">
-        <v>161</v>
+        <v>764</v>
+      </c>
+      <c r="C120" t="s">
+        <v>811</v>
       </c>
       <c r="D120" t="s">
-        <v>150</v>
+        <v>800</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="B121" t="s">
-        <v>25</v>
+        <v>763</v>
+      </c>
+      <c r="C121" t="s">
+        <v>811</v>
       </c>
       <c r="D121" t="s">
-        <v>123</v>
+        <v>800</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="B122" t="s">
-        <v>26</v>
+        <v>762</v>
+      </c>
+      <c r="C122" t="s">
+        <v>811</v>
       </c>
       <c r="D122" t="s">
-        <v>56</v>
+        <v>800</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="B123" t="s">
-        <v>295</v>
+        <v>761</v>
+      </c>
+      <c r="C123" t="s">
+        <v>811</v>
       </c>
       <c r="D123" t="s">
-        <v>56</v>
+        <v>800</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="B124" t="s">
-        <v>296</v>
+        <v>760</v>
+      </c>
+      <c r="C124" t="s">
+        <v>811</v>
       </c>
       <c r="D124" t="s">
-        <v>56</v>
+        <v>800</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="B125" t="s">
-        <v>772</v>
+        <v>278</v>
+      </c>
+      <c r="C125" t="s">
+        <v>811</v>
       </c>
       <c r="D125" t="s">
-        <v>56</v>
+        <v>800</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="B126" t="s">
-        <v>773</v>
+        <v>759</v>
+      </c>
+      <c r="C126" t="s">
+        <v>811</v>
       </c>
       <c r="D126" t="s">
-        <v>61</v>
+        <v>800</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="B127" t="s">
-        <v>40</v>
+        <v>747</v>
+      </c>
+      <c r="C127" t="s">
+        <v>811</v>
       </c>
       <c r="D127" t="s">
-        <v>47</v>
+        <v>800</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="B128" t="s">
-        <v>41</v>
+        <v>136</v>
+      </c>
+      <c r="C128" t="s">
+        <v>811</v>
       </c>
       <c r="D128" t="s">
-        <v>47</v>
+        <v>800</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="B129" t="s">
-        <v>774</v>
+        <v>286</v>
+      </c>
+      <c r="C129" t="s">
+        <v>811</v>
       </c>
       <c r="D129" t="s">
-        <v>704</v>
+        <v>801</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="B130" t="s">
-        <v>775</v>
+        <v>165</v>
+      </c>
+      <c r="C130" t="s">
+        <v>811</v>
       </c>
       <c r="D130" t="s">
-        <v>56</v>
+        <v>801</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="B131" t="s">
-        <v>776</v>
+        <v>41</v>
+      </c>
+      <c r="C131" t="s">
+        <v>811</v>
       </c>
       <c r="D131" t="s">
-        <v>61</v>
+        <v>802</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="B132" t="s">
-        <v>777</v>
+        <v>42</v>
+      </c>
+      <c r="C132" t="s">
+        <v>811</v>
       </c>
       <c r="D132" t="s">
-        <v>61</v>
+        <v>802</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="B133" t="s">
-        <v>778</v>
+        <v>43</v>
+      </c>
+      <c r="C133" t="s">
+        <v>811</v>
       </c>
       <c r="D133" t="s">
-        <v>61</v>
+        <v>802</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="B134" t="s">
-        <v>297</v>
+        <v>44</v>
+      </c>
+      <c r="C134" t="s">
+        <v>811</v>
       </c>
       <c r="D134" t="s">
-        <v>61</v>
+        <v>802</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="B135" t="s">
-        <v>298</v>
+        <v>748</v>
+      </c>
+      <c r="C135" t="s">
+        <v>811</v>
       </c>
       <c r="D135" t="s">
-        <v>61</v>
+        <v>802</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="B136" t="s">
-        <v>760</v>
+        <v>46</v>
+      </c>
+      <c r="C136" t="s">
+        <v>811</v>
       </c>
       <c r="D136" t="s">
-        <v>61</v>
+        <v>802</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="B137" t="s">
-        <v>738</v>
+        <v>47</v>
+      </c>
+      <c r="C137" t="s">
+        <v>811</v>
       </c>
       <c r="D137" t="s">
-        <v>107</v>
+        <v>802</v>
       </c>
       <c r="E137" s="1"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="B138" t="s">
-        <v>739</v>
+        <v>48</v>
+      </c>
+      <c r="C138" t="s">
+        <v>811</v>
       </c>
       <c r="D138" t="s">
-        <v>107</v>
+        <v>802</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="B139" t="s">
-        <v>299</v>
+        <v>749</v>
+      </c>
+      <c r="C139" t="s">
+        <v>811</v>
       </c>
       <c r="D139" t="s">
-        <v>123</v>
+        <v>802</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="B140" t="s">
-        <v>740</v>
+        <v>750</v>
+      </c>
+      <c r="C140" t="s">
+        <v>811</v>
       </c>
       <c r="D140" t="s">
-        <v>61</v>
+        <v>802</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="B141" t="s">
-        <v>741</v>
+        <v>751</v>
+      </c>
+      <c r="C141" t="s">
+        <v>811</v>
       </c>
       <c r="D141" t="s">
-        <v>61</v>
+        <v>802</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="B142" t="s">
-        <v>300</v>
+        <v>752</v>
+      </c>
+      <c r="C142" t="s">
+        <v>811</v>
       </c>
       <c r="D142" t="s">
-        <v>61</v>
+        <v>802</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="B143" t="s">
-        <v>301</v>
+        <v>753</v>
+      </c>
+      <c r="C143" t="s">
+        <v>811</v>
       </c>
       <c r="D143" t="s">
-        <v>61</v>
+        <v>802</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="B144" t="s">
-        <v>283</v>
+        <v>754</v>
+      </c>
+      <c r="C144" t="s">
+        <v>811</v>
       </c>
       <c r="D144" t="s">
-        <v>727</v>
+        <v>802</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="B145" t="s">
-        <v>761</v>
+        <v>755</v>
+      </c>
+      <c r="C145" t="s">
+        <v>811</v>
       </c>
       <c r="D145" t="s">
-        <v>123</v>
+        <v>802</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="B146" t="s">
-        <v>762</v>
+        <v>756</v>
+      </c>
+      <c r="C146" t="s">
+        <v>811</v>
       </c>
       <c r="D146" t="s">
-        <v>123</v>
+        <v>802</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="B147" t="s">
-        <v>763</v>
+        <v>757</v>
+      </c>
+      <c r="C147" t="s">
+        <v>811</v>
       </c>
       <c r="D147" t="s">
-        <v>123</v>
+        <v>802</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="B148" t="s">
-        <v>764</v>
+        <v>758</v>
+      </c>
+      <c r="C148" t="s">
+        <v>811</v>
       </c>
       <c r="D148" t="s">
-        <v>277</v>
+        <v>802</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="B149" t="s">
-        <v>765</v>
+        <v>726</v>
+      </c>
+      <c r="C149" t="s">
+        <v>811</v>
       </c>
       <c r="D149" t="s">
-        <v>107</v>
+        <v>802</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="B150" t="s">
-        <v>766</v>
+        <v>727</v>
+      </c>
+      <c r="C150" t="s">
+        <v>811</v>
       </c>
       <c r="D150" t="s">
-        <v>47</v>
+        <v>802</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="B151" t="s">
-        <v>767</v>
+        <v>728</v>
+      </c>
+      <c r="C151" t="s">
+        <v>811</v>
       </c>
       <c r="D151" t="s">
-        <v>47</v>
+        <v>802</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="B152" t="s">
-        <v>768</v>
+        <v>729</v>
+      </c>
+      <c r="C152" t="s">
+        <v>811</v>
       </c>
       <c r="D152" t="s">
-        <v>47</v>
+        <v>802</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="B153" t="s">
-        <v>769</v>
+        <v>730</v>
+      </c>
+      <c r="C153" t="s">
+        <v>811</v>
       </c>
       <c r="D153" t="s">
-        <v>47</v>
+        <v>802</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="B154" t="s">
-        <v>770</v>
+        <v>731</v>
+      </c>
+      <c r="C154" t="s">
+        <v>811</v>
       </c>
       <c r="D154" t="s">
-        <v>727</v>
+        <v>802</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="B155" t="s">
-        <v>759</v>
+        <v>732</v>
+      </c>
+      <c r="C155" t="s">
+        <v>811</v>
       </c>
       <c r="D155" t="s">
-        <v>56</v>
+        <v>802</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="B156" t="s">
-        <v>758</v>
+        <v>733</v>
+      </c>
+      <c r="C156" t="s">
+        <v>811</v>
       </c>
       <c r="D156" t="s">
-        <v>61</v>
+        <v>802</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="B157" t="s">
-        <v>736</v>
+        <v>734</v>
+      </c>
+      <c r="C157" t="s">
+        <v>811</v>
       </c>
       <c r="D157" t="s">
-        <v>727</v>
+        <v>802</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="B158" t="s">
-        <v>737</v>
+        <v>735</v>
+      </c>
+      <c r="C158" t="s">
+        <v>811</v>
       </c>
       <c r="D158" t="s">
-        <v>663</v>
+        <v>802</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="B159" t="s">
-        <v>43</v>
+        <v>736</v>
+      </c>
+      <c r="C159" t="s">
+        <v>811</v>
       </c>
       <c r="D159" t="s">
-        <v>742</v>
+        <v>802</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="B160" t="s">
-        <v>44</v>
+        <v>737</v>
+      </c>
+      <c r="C160" t="s">
+        <v>811</v>
       </c>
       <c r="D160" t="s">
-        <v>742</v>
+        <v>802</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="B161" t="s">
-        <v>45</v>
+        <v>35</v>
+      </c>
+      <c r="C161" t="s">
+        <v>811</v>
       </c>
       <c r="D161" t="s">
-        <v>42</v>
+        <v>802</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="B162" t="s">
-        <v>46</v>
+        <v>36</v>
+      </c>
+      <c r="C162" t="s">
+        <v>811</v>
       </c>
       <c r="D162" t="s">
-        <v>42</v>
+        <v>802</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="B163" t="s">
-        <v>735</v>
+        <v>713</v>
+      </c>
+      <c r="C163" t="s">
+        <v>811</v>
       </c>
       <c r="D163" t="s">
-        <v>727</v>
+        <v>802</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="B164" t="s">
-        <v>275</v>
+        <v>714</v>
+      </c>
+      <c r="C164" t="s">
+        <v>811</v>
       </c>
       <c r="D164" t="s">
-        <v>123</v>
+        <v>802</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="B165" t="s">
-        <v>174</v>
+        <v>715</v>
+      </c>
+      <c r="C165" t="s">
+        <v>811</v>
       </c>
       <c r="D165" t="s">
-        <v>123</v>
+        <v>802</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="B166" t="s">
-        <v>274</v>
+        <v>716</v>
+      </c>
+      <c r="C166" t="s">
+        <v>811</v>
       </c>
       <c r="D166" t="s">
-        <v>123</v>
+        <v>802</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="B167" t="s">
-        <v>302</v>
+        <v>738</v>
+      </c>
+      <c r="C167" t="s">
+        <v>811</v>
       </c>
       <c r="D167" t="s">
-        <v>276</v>
+        <v>137</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B168" t="s">
-        <v>734</v>
+        <v>739</v>
+      </c>
+      <c r="C168" t="s">
+        <v>811</v>
       </c>
       <c r="D168" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="B169" t="s">
-        <v>177</v>
+        <v>740</v>
+      </c>
+      <c r="C169" t="s">
+        <v>811</v>
       </c>
       <c r="D169" t="s">
-        <v>277</v>
+        <v>137</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="B170" t="s">
-        <v>670</v>
+        <v>741</v>
+      </c>
+      <c r="C170" t="s">
+        <v>811</v>
       </c>
       <c r="D170" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="B171" t="s">
-        <v>179</v>
+        <v>742</v>
+      </c>
+      <c r="C171" t="s">
+        <v>811</v>
       </c>
       <c r="D171" t="s">
-        <v>276</v>
+        <v>137</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="B172" t="s">
-        <v>180</v>
+        <v>743</v>
+      </c>
+      <c r="C172" t="s">
+        <v>811</v>
       </c>
       <c r="D172" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="B173" t="s">
-        <v>664</v>
+        <v>744</v>
+      </c>
+      <c r="C173" t="s">
+        <v>811</v>
       </c>
       <c r="D173" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="B174" t="s">
-        <v>665</v>
+        <v>745</v>
+      </c>
+      <c r="C174" t="s">
+        <v>811</v>
       </c>
       <c r="D174" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="B175" t="s">
-        <v>666</v>
+        <v>746</v>
+      </c>
+      <c r="C175" t="s">
+        <v>811</v>
       </c>
       <c r="D175" t="s">
-        <v>701</v>
+        <v>137</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="B176" t="s">
-        <v>184</v>
+        <v>718</v>
+      </c>
+      <c r="C176" t="s">
+        <v>811</v>
       </c>
       <c r="D176" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="B177" t="s">
-        <v>667</v>
+        <v>148</v>
+      </c>
+      <c r="C177" t="s">
+        <v>811</v>
       </c>
       <c r="D177" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="B178" t="s">
-        <v>668</v>
+        <v>636</v>
+      </c>
+      <c r="C178" t="s">
+        <v>811</v>
       </c>
       <c r="D178" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="B179" t="s">
-        <v>669</v>
+        <v>662</v>
+      </c>
+      <c r="C179" t="s">
+        <v>811</v>
       </c>
       <c r="D179" t="s">
-        <v>663</v>
+        <v>137</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="B180" t="s">
-        <v>751</v>
+        <v>37</v>
+      </c>
+      <c r="C180" t="s">
+        <v>811</v>
       </c>
       <c r="D180" t="s">
-        <v>742</v>
+        <v>803</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="B181" t="s">
-        <v>672</v>
+        <v>38</v>
+      </c>
+      <c r="C181" t="s">
+        <v>811</v>
       </c>
       <c r="D181" t="s">
-        <v>123</v>
+        <v>803</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="B182" t="s">
-        <v>673</v>
+        <v>699</v>
+      </c>
+      <c r="C182" t="s">
+        <v>811</v>
       </c>
       <c r="D182" t="s">
-        <v>662</v>
+        <v>803</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="B183" t="s">
-        <v>674</v>
+        <v>201</v>
+      </c>
+      <c r="C183" t="s">
+        <v>811</v>
       </c>
       <c r="D183" t="s">
-        <v>123</v>
+        <v>803</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="B184" t="s">
-        <v>675</v>
+        <v>681</v>
+      </c>
+      <c r="C184" t="s">
+        <v>811</v>
       </c>
       <c r="D184" t="s">
-        <v>123</v>
+        <v>803</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="B185" t="s">
-        <v>676</v>
+        <v>195</v>
+      </c>
+      <c r="C185" t="s">
+        <v>811</v>
       </c>
       <c r="D185" t="s">
-        <v>727</v>
+        <v>804</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="B186" t="s">
-        <v>671</v>
+        <v>263</v>
+      </c>
+      <c r="C186" t="s">
+        <v>811</v>
       </c>
       <c r="D186" t="s">
-        <v>662</v>
+        <v>805</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="B187" t="s">
-        <v>195</v>
+        <v>264</v>
+      </c>
+      <c r="C187" t="s">
+        <v>811</v>
       </c>
       <c r="D187" t="s">
-        <v>662</v>
+        <v>805</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="B188" t="s">
-        <v>196</v>
+        <v>267</v>
+      </c>
+      <c r="C188" t="s">
+        <v>811</v>
       </c>
       <c r="D188" t="s">
-        <v>662</v>
+        <v>805</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="B189" t="s">
-        <v>733</v>
+        <v>717</v>
+      </c>
+      <c r="C189" t="s">
+        <v>811</v>
       </c>
       <c r="D189" t="s">
-        <v>662</v>
+        <v>805</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="B190" t="s">
-        <v>303</v>
+        <v>686</v>
+      </c>
+      <c r="C190" t="s">
+        <v>811</v>
       </c>
       <c r="D190" t="s">
-        <v>56</v>
+        <v>805</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="B191" t="s">
-        <v>304</v>
+        <v>685</v>
+      </c>
+      <c r="C191" t="s">
+        <v>811</v>
       </c>
       <c r="D191" t="s">
-        <v>706</v>
+        <v>805</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="B192" t="s">
-        <v>200</v>
+        <v>634</v>
+      </c>
+      <c r="C192" t="s">
+        <v>811</v>
       </c>
       <c r="D192" t="s">
-        <v>56</v>
+        <v>805</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="B193" t="s">
-        <v>201</v>
+        <v>268</v>
+      </c>
+      <c r="C193" t="s">
+        <v>811</v>
       </c>
       <c r="D193" t="s">
-        <v>663</v>
+        <v>805</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="B194" t="s">
-        <v>677</v>
+        <v>644</v>
+      </c>
+      <c r="C194" t="s">
+        <v>811</v>
       </c>
       <c r="D194" t="s">
-        <v>123</v>
+        <v>805</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="B195" t="s">
-        <v>678</v>
+        <v>697</v>
+      </c>
+      <c r="C195" t="s">
+        <v>811</v>
       </c>
       <c r="D195" t="s">
-        <v>150</v>
+        <v>805</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="B196" t="s">
-        <v>679</v>
+        <v>213</v>
+      </c>
+      <c r="C196" t="s">
+        <v>811</v>
       </c>
       <c r="D196" t="s">
-        <v>704</v>
+        <v>805</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="B197" t="s">
-        <v>680</v>
+        <v>782</v>
+      </c>
+      <c r="C197" t="s">
+        <v>811</v>
       </c>
       <c r="D197" t="s">
-        <v>704</v>
+        <v>805</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="B198" t="s">
-        <v>681</v>
+        <v>711</v>
+      </c>
+      <c r="C198" t="s">
+        <v>811</v>
       </c>
       <c r="D198" t="s">
-        <v>61</v>
+        <v>806</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="B199" t="s">
-        <v>682</v>
+        <v>163</v>
+      </c>
+      <c r="C199" t="s">
+        <v>811</v>
       </c>
       <c r="D199" t="s">
-        <v>42</v>
+        <v>806</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="B200" t="s">
-        <v>744</v>
+        <v>642</v>
+      </c>
+      <c r="C200" t="s">
+        <v>811</v>
       </c>
       <c r="D200" t="s">
-        <v>123</v>
+        <v>806</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="B201" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="C201" t="s">
+        <v>811</v>
       </c>
       <c r="D201" t="s">
-        <v>752</v>
+        <v>806</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="B202" t="s">
-        <v>210</v>
+        <v>670</v>
+      </c>
+      <c r="C202" t="s">
+        <v>811</v>
       </c>
       <c r="D202" t="s">
-        <v>42</v>
+        <v>806</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="B203" t="s">
-        <v>211</v>
+        <v>721</v>
+      </c>
+      <c r="C203" t="s">
+        <v>811</v>
       </c>
       <c r="D203" t="s">
-        <v>704</v>
+        <v>807</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="B204" t="s">
-        <v>212</v>
+        <v>637</v>
+      </c>
+      <c r="C204" t="s">
+        <v>811</v>
       </c>
       <c r="D204" t="s">
-        <v>704</v>
+        <v>807</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="B205" t="s">
-        <v>683</v>
+        <v>638</v>
+      </c>
+      <c r="C205" t="s">
+        <v>811</v>
       </c>
       <c r="D205" t="s">
-        <v>704</v>
+        <v>807</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="B206" t="s">
-        <v>684</v>
+        <v>197</v>
+      </c>
+      <c r="C206" t="s">
+        <v>811</v>
       </c>
       <c r="D206" t="s">
-        <v>277</v>
+        <v>807</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="B207" t="s">
-        <v>215</v>
+        <v>198</v>
+      </c>
+      <c r="C207" t="s">
+        <v>811</v>
       </c>
       <c r="D207" t="s">
-        <v>742</v>
+        <v>807</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="B208" t="s">
-        <v>750</v>
+        <v>641</v>
+      </c>
+      <c r="C208" t="s">
+        <v>811</v>
       </c>
       <c r="D208" t="s">
-        <v>61</v>
+        <v>807</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="B209" t="s">
-        <v>284</v>
+        <v>230</v>
+      </c>
+      <c r="C209" t="s">
+        <v>811</v>
       </c>
       <c r="D209" t="s">
-        <v>727</v>
+        <v>807</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="B210" t="s">
-        <v>685</v>
+        <v>231</v>
+      </c>
+      <c r="C210" t="s">
+        <v>811</v>
       </c>
       <c r="D210" t="s">
-        <v>711</v>
+        <v>807</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="B211" t="s">
-        <v>686</v>
+        <v>232</v>
+      </c>
+      <c r="C211" t="s">
+        <v>811</v>
       </c>
       <c r="D211" t="s">
-        <v>727</v>
+        <v>807</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="B212" t="s">
-        <v>687</v>
+        <v>701</v>
+      </c>
+      <c r="C212" t="s">
+        <v>811</v>
       </c>
       <c r="D212" t="s">
-        <v>663</v>
+        <v>807</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="B213" t="s">
-        <v>688</v>
+        <v>674</v>
+      </c>
+      <c r="C213" t="s">
+        <v>811</v>
       </c>
       <c r="D213" t="s">
-        <v>61</v>
+        <v>807</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="B214" t="s">
-        <v>306</v>
+        <v>678</v>
+      </c>
+      <c r="C214" t="s">
+        <v>811</v>
       </c>
       <c r="D214" t="s">
-        <v>107</v>
+        <v>807</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="B215" t="s">
-        <v>690</v>
+        <v>259</v>
+      </c>
+      <c r="C215" t="s">
+        <v>811</v>
       </c>
       <c r="D215" t="s">
-        <v>711</v>
+        <v>807</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B216" t="s">
-        <v>689</v>
+        <v>668</v>
+      </c>
+      <c r="C216" t="s">
+        <v>811</v>
       </c>
       <c r="D216" t="s">
-        <v>123</v>
+        <v>807</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="B217" t="s">
-        <v>224</v>
+        <v>666</v>
+      </c>
+      <c r="C217" t="s">
+        <v>811</v>
       </c>
       <c r="D217" t="s">
-        <v>277</v>
+        <v>807</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="B218" t="s">
-        <v>749</v>
+        <v>292</v>
+      </c>
+      <c r="C218" t="s">
+        <v>811</v>
       </c>
       <c r="D218" t="s">
-        <v>727</v>
+        <v>807</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="B219" t="s">
-        <v>226</v>
+        <v>251</v>
+      </c>
+      <c r="C219" t="s">
+        <v>811</v>
       </c>
       <c r="D219" t="s">
-        <v>123</v>
+        <v>807</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="B220" t="s">
-        <v>227</v>
+        <v>661</v>
+      </c>
+      <c r="C220" t="s">
+        <v>811</v>
       </c>
       <c r="D220" t="s">
-        <v>727</v>
+        <v>807</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="B221" t="s">
-        <v>228</v>
+        <v>590</v>
+      </c>
+      <c r="C221" t="s">
+        <v>811</v>
       </c>
       <c r="D221" t="s">
-        <v>42</v>
+        <v>807</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="B222" t="s">
-        <v>691</v>
+        <v>591</v>
+      </c>
+      <c r="C222" t="s">
+        <v>811</v>
       </c>
       <c r="D222" t="s">
-        <v>61</v>
+        <v>807</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="B223" t="s">
-        <v>692</v>
+        <v>23</v>
+      </c>
+      <c r="C223" t="s">
+        <v>811</v>
       </c>
       <c r="D223" t="s">
-        <v>107</v>
+        <v>807</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="B224" t="s">
-        <v>230</v>
+        <v>283</v>
+      </c>
+      <c r="C224" t="s">
+        <v>811</v>
       </c>
       <c r="D224" t="s">
-        <v>711</v>
+        <v>807</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="B225" t="s">
-        <v>693</v>
+        <v>708</v>
+      </c>
+      <c r="C225" t="s">
+        <v>811</v>
       </c>
       <c r="D225" t="s">
-        <v>123</v>
+        <v>807</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="B226" t="s">
-        <v>694</v>
+        <v>709</v>
+      </c>
+      <c r="C226" t="s">
+        <v>811</v>
       </c>
       <c r="D226" t="s">
-        <v>711</v>
+        <v>807</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="B227" t="s">
-        <v>746</v>
+        <v>710</v>
+      </c>
+      <c r="C227" t="s">
+        <v>811</v>
       </c>
       <c r="D227" t="s">
-        <v>61</v>
+        <v>807</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="B228" t="s">
-        <v>695</v>
+        <v>261</v>
+      </c>
+      <c r="C228" t="s">
+        <v>811</v>
       </c>
       <c r="D228" t="s">
-        <v>61</v>
+        <v>807</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="B229" t="s">
-        <v>696</v>
+        <v>160</v>
+      </c>
+      <c r="C229" t="s">
+        <v>811</v>
       </c>
       <c r="D229" t="s">
-        <v>61</v>
+        <v>807</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="B230" t="s">
-        <v>697</v>
+        <v>260</v>
+      </c>
+      <c r="C230" t="s">
+        <v>811</v>
       </c>
       <c r="D230" t="s">
-        <v>61</v>
+        <v>807</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="B231" t="s">
-        <v>237</v>
+        <v>684</v>
+      </c>
+      <c r="C231" t="s">
+        <v>811</v>
       </c>
       <c r="D231" t="s">
-        <v>123</v>
+        <v>807</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="B232" t="s">
-        <v>725</v>
+        <v>628</v>
+      </c>
+      <c r="C232" t="s">
+        <v>811</v>
       </c>
       <c r="D232" t="s">
-        <v>61</v>
+        <v>807</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="B233" t="s">
-        <v>747</v>
+        <v>170</v>
+      </c>
+      <c r="C233" t="s">
+        <v>811</v>
       </c>
       <c r="D233" t="s">
-        <v>61</v>
+        <v>807</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="B234" t="s">
-        <v>729</v>
+        <v>630</v>
+      </c>
+      <c r="C234" t="s">
+        <v>811</v>
       </c>
       <c r="D234" t="s">
-        <v>748</v>
+        <v>807</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="B235" t="s">
-        <v>730</v>
+        <v>632</v>
+      </c>
+      <c r="C235" t="s">
+        <v>811</v>
       </c>
       <c r="D235" t="s">
-        <v>123</v>
+        <v>807</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="B236" t="s">
-        <v>242</v>
+        <v>633</v>
+      </c>
+      <c r="C236" t="s">
+        <v>811</v>
       </c>
       <c r="D236" t="s">
-        <v>123</v>
+        <v>807</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="B237" t="s">
-        <v>731</v>
+        <v>635</v>
+      </c>
+      <c r="C237" t="s">
+        <v>811</v>
       </c>
       <c r="D237" t="s">
-        <v>742</v>
+        <v>807</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="B238" t="s">
-        <v>743</v>
+        <v>693</v>
+      </c>
+      <c r="C238" t="s">
+        <v>811</v>
       </c>
       <c r="D238" t="s">
-        <v>701</v>
+        <v>807</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="B239" t="s">
-        <v>244</v>
+        <v>647</v>
+      </c>
+      <c r="C239" t="s">
+        <v>811</v>
       </c>
       <c r="D239" t="s">
-        <v>704</v>
+        <v>807</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="B240" t="s">
-        <v>245</v>
+        <v>212</v>
+      </c>
+      <c r="C240" t="s">
+        <v>811</v>
       </c>
       <c r="D240" t="s">
-        <v>704</v>
+        <v>807</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="B241" t="s">
-        <v>246</v>
+        <v>651</v>
+      </c>
+      <c r="C241" t="s">
+        <v>811</v>
       </c>
       <c r="D241" t="s">
-        <v>704</v>
+        <v>807</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="B242" t="s">
-        <v>247</v>
+        <v>223</v>
+      </c>
+      <c r="C242" t="s">
+        <v>811</v>
       </c>
       <c r="D242" t="s">
-        <v>711</v>
+        <v>807</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="B243" t="s">
-        <v>724</v>
+        <v>680</v>
+      </c>
+      <c r="C243" t="s">
+        <v>811</v>
       </c>
       <c r="D243" t="s">
-        <v>663</v>
+        <v>807</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="B244" t="s">
-        <v>754</v>
+        <v>228</v>
+      </c>
+      <c r="C244" t="s">
+        <v>811</v>
       </c>
       <c r="D244" t="s">
-        <v>704</v>
+        <v>807</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="B245" t="s">
-        <v>726</v>
+        <v>657</v>
+      </c>
+      <c r="C245" t="s">
+        <v>811</v>
       </c>
       <c r="D245" t="s">
-        <v>707</v>
+        <v>807</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="B246" t="s">
-        <v>723</v>
+        <v>10</v>
+      </c>
+      <c r="C246" t="s">
+        <v>811</v>
       </c>
       <c r="D246" t="s">
-        <v>704</v>
+        <v>97</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="B247" t="s">
-        <v>728</v>
+        <v>694</v>
+      </c>
+      <c r="C247" t="s">
+        <v>811</v>
       </c>
       <c r="D247" t="s">
-        <v>704</v>
+        <v>97</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="B248" t="s">
-        <v>722</v>
+        <v>592</v>
+      </c>
+      <c r="C248" t="s">
+        <v>811</v>
       </c>
       <c r="D248" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="B249" t="s">
-        <v>721</v>
+        <v>593</v>
+      </c>
+      <c r="C249" t="s">
+        <v>811</v>
       </c>
       <c r="D249" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="B250" t="s">
-        <v>720</v>
+        <v>594</v>
+      </c>
+      <c r="C250" t="s">
+        <v>811</v>
       </c>
       <c r="D250" t="s">
-        <v>707</v>
+        <v>97</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="B251" t="s">
-        <v>719</v>
+        <v>595</v>
+      </c>
+      <c r="C251" t="s">
+        <v>811</v>
       </c>
       <c r="D251" t="s">
-        <v>277</v>
+        <v>97</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="B252" t="s">
-        <v>273</v>
+        <v>596</v>
+      </c>
+      <c r="C252" t="s">
+        <v>811</v>
       </c>
       <c r="D252" t="s">
-        <v>704</v>
+        <v>97</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="B253" t="s">
-        <v>718</v>
+        <v>597</v>
+      </c>
+      <c r="C253" t="s">
+        <v>811</v>
       </c>
       <c r="D253" t="s">
-        <v>701</v>
+        <v>97</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="B254" t="s">
-        <v>717</v>
+        <v>700</v>
+      </c>
+      <c r="C254" t="s">
+        <v>811</v>
       </c>
       <c r="D254" t="s">
-        <v>704</v>
+        <v>97</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="B255" t="s">
-        <v>716</v>
+        <v>550</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C255" t="s">
+        <v>811</v>
       </c>
       <c r="D255" t="s">
-        <v>707</v>
+        <v>97</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="B256" t="s">
-        <v>715</v>
+        <v>688</v>
+      </c>
+      <c r="C256" t="s">
+        <v>811</v>
       </c>
       <c r="D256" t="s">
-        <v>704</v>
+        <v>97</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="B257" t="s">
-        <v>307</v>
+        <v>689</v>
+      </c>
+      <c r="C257" t="s">
+        <v>811</v>
       </c>
       <c r="D257" t="s">
-        <v>714</v>
+        <v>97</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="B258" t="s">
-        <v>308</v>
+        <v>712</v>
+      </c>
+      <c r="C258" t="s">
+        <v>811</v>
       </c>
       <c r="D258" t="s">
-        <v>704</v>
+        <v>97</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="B259" t="s">
-        <v>309</v>
+        <v>623</v>
+      </c>
+      <c r="C259" t="s">
+        <v>811</v>
       </c>
       <c r="D259" t="s">
-        <v>711</v>
+        <v>97</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="B260" t="s">
-        <v>310</v>
+        <v>290</v>
+      </c>
+      <c r="C260" t="s">
+        <v>811</v>
       </c>
       <c r="D260" t="s">
-        <v>711</v>
+        <v>97</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B261" t="s">
-        <v>713</v>
+        <v>650</v>
+      </c>
+      <c r="C261" t="s">
+        <v>811</v>
       </c>
       <c r="D261" t="s">
-        <v>662</v>
+        <v>97</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="B262" t="s">
-        <v>712</v>
+        <v>673</v>
+      </c>
+      <c r="C262" t="s">
+        <v>811</v>
       </c>
       <c r="D262" t="s">
-        <v>711</v>
+        <v>97</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="B263" t="s">
-        <v>265</v>
+        <v>672</v>
+      </c>
+      <c r="C263" t="s">
+        <v>811</v>
       </c>
       <c r="D263" t="s">
-        <v>704</v>
+        <v>97</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="B264" t="s">
-        <v>266</v>
+        <v>778</v>
+      </c>
+      <c r="C264" t="s">
+        <v>811</v>
       </c>
       <c r="D264" t="s">
-        <v>663</v>
+        <v>97</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="B265" t="s">
-        <v>710</v>
+        <v>631</v>
+      </c>
+      <c r="C265" t="s">
+        <v>811</v>
       </c>
       <c r="D265" t="s">
-        <v>709</v>
+        <v>808</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="B266" t="s">
-        <v>708</v>
+        <v>629</v>
+      </c>
+      <c r="C266" t="s">
+        <v>811</v>
       </c>
       <c r="D266" t="s">
-        <v>150</v>
+        <v>808</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="B267" t="s">
-        <v>700</v>
+        <v>181</v>
+      </c>
+      <c r="C267" t="s">
+        <v>811</v>
       </c>
       <c r="D267" t="s">
-        <v>701</v>
+        <v>808</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="B268" t="s">
-        <v>699</v>
+        <v>182</v>
+      </c>
+      <c r="C268" t="s">
+        <v>811</v>
       </c>
       <c r="D268" t="s">
-        <v>123</v>
+        <v>808</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="B269" t="s">
-        <v>311</v>
+        <v>683</v>
+      </c>
+      <c r="C269" t="s">
+        <v>811</v>
       </c>
       <c r="D269" t="s">
-        <v>707</v>
+        <v>808</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="B270" t="s">
-        <v>698</v>
+        <v>665</v>
+      </c>
+      <c r="C270" t="s">
+        <v>811</v>
       </c>
       <c r="D270" t="s">
-        <v>706</v>
+        <v>808</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="B271" t="s">
-        <v>705</v>
+        <v>618</v>
+      </c>
+      <c r="C271" t="s">
+        <v>811</v>
       </c>
       <c r="D271" t="s">
-        <v>704</v>
+        <v>808</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="B272" t="s">
-        <v>620</v>
+        <v>617</v>
+      </c>
+      <c r="C272" t="s">
+        <v>811</v>
       </c>
       <c r="D272" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="B273" t="s">
-        <v>621</v>
+        <v>616</v>
+      </c>
+      <c r="C273" t="s">
+        <v>811</v>
       </c>
       <c r="D273" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="B274" t="s">
-        <v>650</v>
+        <v>619</v>
+      </c>
+      <c r="C274" t="s">
+        <v>811</v>
       </c>
       <c r="D274" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="B275" t="s">
-        <v>655</v>
+        <v>39</v>
+      </c>
+      <c r="C275" t="s">
+        <v>811</v>
       </c>
       <c r="D275" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="B276" t="s">
-        <v>654</v>
+        <v>40</v>
+      </c>
+      <c r="C276" t="s">
+        <v>811</v>
       </c>
       <c r="D276" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="B277" t="s">
-        <v>653</v>
+        <v>166</v>
+      </c>
+      <c r="C277" t="s">
+        <v>811</v>
       </c>
       <c r="D277" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="B278" t="s">
+        <v>640</v>
+      </c>
+      <c r="C278" t="s">
+        <v>811</v>
+      </c>
+      <c r="D278" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A279" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B279" t="s">
+        <v>196</v>
+      </c>
+      <c r="C279" t="s">
+        <v>811</v>
+      </c>
+      <c r="D279" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A280" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B280" t="s">
+        <v>214</v>
+      </c>
+      <c r="C280" t="s">
+        <v>811</v>
+      </c>
+      <c r="D280" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A281" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B281" t="s">
+        <v>624</v>
+      </c>
+      <c r="C281" t="s">
+        <v>811</v>
+      </c>
+      <c r="D281" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A282" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B282" t="s">
+        <v>692</v>
+      </c>
+      <c r="C282" t="s">
+        <v>811</v>
+      </c>
+      <c r="D282" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A283" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B283" t="s">
+        <v>669</v>
+      </c>
+      <c r="C283" t="s">
+        <v>811</v>
+      </c>
+      <c r="D283" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A284" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B284" t="s">
+        <v>658</v>
+      </c>
+      <c r="C284" t="s">
+        <v>811</v>
+      </c>
+      <c r="D284" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A285" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B285" t="s">
+        <v>288</v>
+      </c>
+      <c r="C285" t="s">
+        <v>811</v>
+      </c>
+      <c r="D285" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A286" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B286" t="s">
         <v>656</v>
       </c>
-      <c r="D278" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A279" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="B279" t="s">
-        <v>657</v>
-      </c>
-      <c r="D279" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A280" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="B280" t="s">
-        <v>658</v>
-      </c>
-      <c r="D280" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A281" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="B281" t="s">
-        <v>702</v>
-      </c>
-      <c r="D281" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A282" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="B282" t="s">
+      <c r="C286" t="s">
+        <v>811</v>
+      </c>
+      <c r="D286" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A287" s="7">
+        <v>90001</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="C287" t="s">
+        <v>781</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A288" s="7">
+        <v>90002</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="C288" t="s">
+        <v>781</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A289" s="7">
+        <v>90003</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="C289" t="s">
+        <v>781</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A290" s="7">
+        <v>90004</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="C290" t="s">
+        <v>781</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A291" s="7">
+        <v>90005</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="C291" t="s">
+        <v>781</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A292" s="7">
+        <v>90006</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="C292" t="s">
+        <v>781</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A293" s="7">
+        <v>90007</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="C293" t="s">
+        <v>781</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A294" s="7">
+        <v>90008</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="C294" t="s">
+        <v>781</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A295" s="7">
+        <v>90009</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="C295" t="s">
+        <v>781</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A296" s="7">
+        <v>90010</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="C296" t="s">
+        <v>781</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
+      <c r="A297" s="7">
+        <v>90011</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="C297" t="s">
+        <v>781</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="A298" s="7">
+        <v>90012</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="C298" t="s">
+        <v>781</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="A299" s="7">
+        <v>90013</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="C299" t="s">
+        <v>781</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="A300" s="7">
+        <v>90014</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="C300" t="s">
+        <v>781</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="A301" s="7">
+        <v>90015</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="C301" t="s">
+        <v>781</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A302" s="7">
+        <v>90016</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="C302" t="s">
+        <v>781</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="A303" s="7">
+        <v>90017</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="C303" t="s">
+        <v>781</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="A304" s="7">
+        <v>90019</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="C304" t="s">
+        <v>781</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A305" s="7">
+        <v>90020</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="C305" t="s">
+        <v>781</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="A306" s="7">
+        <v>90021</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="C306" t="s">
+        <v>781</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="A307" s="7">
+        <v>90022</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="C307" t="s">
+        <v>781</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="A308" s="7">
+        <v>90023</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="C308" t="s">
+        <v>781</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="51" x14ac:dyDescent="0.35">
+      <c r="A309" s="7">
+        <v>90024</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="C309" t="s">
+        <v>781</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="A310" s="7">
+        <v>90025</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="C310" t="s">
+        <v>781</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A311" s="7">
+        <v>90026</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="C311" t="s">
+        <v>781</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A312" s="7">
+        <v>90029</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C312" t="s">
+        <v>781</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A313" s="7">
+        <v>90030</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="C313" t="s">
+        <v>781</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A314" s="7">
+        <v>90031</v>
+      </c>
+      <c r="B314" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="D282" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A283" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="B283" t="s">
+      <c r="C314" t="s">
+        <v>781</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="A315" s="7">
+        <v>90032</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C315" t="s">
+        <v>781</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="E315" s="4" t="s">
         <v>831</v>
       </c>
-      <c r="D283" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A284" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="B284" t="s">
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A316" s="7">
+        <v>90033</v>
+      </c>
+      <c r="B316" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="D284" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A285" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B285" t="s">
+      <c r="C316" t="s">
+        <v>781</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A317" s="7">
+        <v>90034</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="C317" t="s">
+        <v>781</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A318" s="7">
+        <v>90035</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="C318" t="s">
+        <v>781</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A319" s="7">
+        <v>90036</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="C319" t="s">
+        <v>781</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A320" s="7">
+        <v>90037</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="C320" t="s">
+        <v>781</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A321" s="7">
+        <v>90038</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="C321" t="s">
+        <v>781</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A322" s="7">
+        <v>90039</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="C322" t="s">
+        <v>781</v>
+      </c>
+      <c r="D322" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A323" s="7">
+        <v>90040</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="C323" t="s">
+        <v>781</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A324" s="7">
+        <v>90041</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="C324" t="s">
+        <v>781</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A325" s="7">
+        <v>90042</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="C325" t="s">
+        <v>781</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A326" s="7">
+        <v>90043</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="C326" t="s">
+        <v>781</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A327" s="7">
+        <v>90044</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="C327" t="s">
+        <v>781</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A328" s="7">
+        <v>90045</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="C328" t="s">
+        <v>781</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A329" s="7">
+        <v>90046</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="C329" t="s">
+        <v>781</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A330" s="7">
+        <v>90047</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="C330" t="s">
+        <v>781</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A331" s="7">
+        <v>90048</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="C331" t="s">
+        <v>781</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A332" s="7">
+        <v>90049</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="C332" t="s">
+        <v>781</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A333" s="7">
+        <v>90050</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="C333" t="s">
+        <v>781</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A334" s="7">
+        <v>90051</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="C334" t="s">
+        <v>781</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A335" s="7">
+        <v>90052</v>
+      </c>
+      <c r="B335" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="C335" t="s">
+        <v>781</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A336" s="7">
+        <v>90053</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="C336" t="s">
+        <v>781</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A337" s="7">
+        <v>90054</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="C337" t="s">
+        <v>781</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A338" s="7">
+        <v>90055</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="C338" t="s">
+        <v>781</v>
+      </c>
+      <c r="D338" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A339" s="7">
+        <v>90056</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="C339" t="s">
+        <v>781</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="A340" s="7">
+        <v>90057</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="C340" t="s">
+        <v>781</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A341" s="7">
+        <v>90058</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="C341" t="s">
+        <v>781</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="E341" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A342" s="7">
+        <v>90059</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="C342" t="s">
+        <v>781</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E342" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A343" s="7">
+        <v>90060</v>
+      </c>
+      <c r="B343" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="D285" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A286" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="B286" t="s">
-        <v>849</v>
-      </c>
-      <c r="D286" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A287" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="B287" t="s">
+      <c r="C343" t="s">
+        <v>781</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="E343" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A344" s="7">
+        <v>90061</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="C344" t="s">
+        <v>781</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E344" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A345" s="7">
+        <v>90062</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="C345" t="s">
+        <v>781</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E345" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A346" s="7">
+        <v>90063</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="C346" t="s">
+        <v>781</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="E346" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A347" s="7">
+        <v>90064</v>
+      </c>
+      <c r="B347" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="C287" t="s">
-        <v>845</v>
-      </c>
-      <c r="D287" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A288" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="B288" t="s">
-        <v>833</v>
-      </c>
-      <c r="C288" t="s">
-        <v>845</v>
-      </c>
-      <c r="D288" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A289" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="B289" t="s">
-        <v>841</v>
-      </c>
-      <c r="C289" t="s">
-        <v>845</v>
-      </c>
-      <c r="D289" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A290" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="B290" t="s">
-        <v>834</v>
-      </c>
-      <c r="C290" t="s">
-        <v>845</v>
-      </c>
-      <c r="D290" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A291" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B291" t="s">
-        <v>835</v>
-      </c>
-      <c r="C291" t="s">
-        <v>845</v>
-      </c>
-      <c r="D291" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A292" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="B292" t="s">
-        <v>843</v>
-      </c>
-      <c r="C292" t="s">
-        <v>845</v>
-      </c>
-      <c r="D292" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A293" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="B293" t="s">
-        <v>836</v>
-      </c>
-      <c r="C293" t="s">
-        <v>845</v>
-      </c>
-      <c r="D293" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A294" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="B294" t="s">
-        <v>844</v>
-      </c>
-      <c r="C294" t="s">
-        <v>845</v>
-      </c>
-      <c r="D294" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A295" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="B295" t="s">
-        <v>837</v>
-      </c>
-      <c r="C295" t="s">
-        <v>845</v>
-      </c>
-      <c r="D295" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A296" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="B296" t="s">
+      <c r="C347" t="s">
+        <v>781</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="E347" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="C296" t="s">
-        <v>845</v>
-      </c>
-      <c r="D296" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A297" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="B297" t="s">
-        <v>838</v>
-      </c>
-      <c r="C297" t="s">
-        <v>845</v>
-      </c>
-      <c r="D297" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A298" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="B298" t="s">
+    </row>
+    <row r="348" spans="1:5" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="A348" s="7">
+        <v>90065</v>
+      </c>
+      <c r="B348" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="C298" t="s">
-        <v>845</v>
-      </c>
-      <c r="D298" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A299" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="B299" t="s">
-        <v>847</v>
-      </c>
-      <c r="C299" t="s">
-        <v>845</v>
-      </c>
-      <c r="D299" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A300" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="B300" t="s">
-        <v>848</v>
-      </c>
-      <c r="C300" t="s">
-        <v>845</v>
-      </c>
-      <c r="D300" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A301" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="B301" t="s">
-        <v>851</v>
-      </c>
-      <c r="C301" t="s">
-        <v>845</v>
-      </c>
-      <c r="D301" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A302" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="B302" t="s">
-        <v>852</v>
-      </c>
-      <c r="C302" t="s">
-        <v>845</v>
-      </c>
-      <c r="D302" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A303" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="B303" t="s">
-        <v>853</v>
-      </c>
-      <c r="C303" t="s">
-        <v>845</v>
-      </c>
-      <c r="D303" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A304" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="B304" t="s">
-        <v>854</v>
-      </c>
-      <c r="C304" t="s">
-        <v>845</v>
-      </c>
-      <c r="D304" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A305" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A306" s="2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A307" s="2" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A308" s="2" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A309" s="2" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A310" s="2" t="s">
-        <v>661</v>
+      <c r="C348" t="s">
+        <v>781</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E348" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A349" s="7">
+        <v>90066</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="C349" t="s">
+        <v>781</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="E349" s="4" t="s">
+        <v>839</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:D310"/>
+  <autoFilter ref="B1:D309"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -6383,230 +8662,230 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A299"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="A302" sqref="A302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
@@ -6636,12 +8915,12 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
@@ -6666,412 +8945,412 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
@@ -7081,802 +9360,802 @@
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/annotador-core/src/main/resources/rules/TEST-ES2.xlsx
+++ b/annotador-core/src/main/resources/rules/TEST-ES2.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="890">
   <si>
     <t>Pasado un tiempo.</t>
   </si>
@@ -891,9 +891,6 @@
     <t>Algún mes, aquel bonito; largo aunque hermoso mes.</t>
   </si>
   <si>
-    <t>Hoy, 3 de marzo de 1991.</t>
-  </si>
-  <si>
     <t>El primer trimestre del año.</t>
   </si>
   <si>
@@ -909,12 +906,6 @@
     <t>En un bienio.</t>
   </si>
   <si>
-    <t>Hoy, lunes, se armó la marimorena.</t>
-  </si>
-  <si>
-    <t>Hoy, 3 de marzo de 1991, se armó la marimorena.</t>
-  </si>
-  <si>
     <t>Al cumplirse hoy la segunda jornada de la protesta.</t>
   </si>
   <si>
@@ -1836,9 +1827,6 @@
     <t>El futuro nos depara algo futuro, igual que a su futuro hijo.</t>
   </si>
   <si>
-    <t>Mañana comeré en la mañana; no la segunda mañana, pero varias mañanas seguidas, pensando en el mañana, o en el día de mañana.</t>
-  </si>
-  <si>
     <t>Unos 1991 días.</t>
   </si>
   <si>
@@ -1875,18 +1863,9 @@
     <t>Tres días cada dos meses</t>
   </si>
   <si>
-    <t>En el 999 AC</t>
-  </si>
-  <si>
     <t>El XX d.C.</t>
   </si>
   <si>
-    <t>El XI AC</t>
-  </si>
-  <si>
-    <t>El siglo X después de Cristo</t>
-  </si>
-  <si>
     <t>En el siglo 20.</t>
   </si>
   <si>
@@ -1914,21 +1893,9 @@
     <t>Ocurrió este mismo año 2000.</t>
   </si>
   <si>
-    <t>Se medirán en el campo próximo sábado.</t>
-  </si>
-  <si>
-    <t>Este siglo XXI.</t>
-  </si>
-  <si>
     <t>Hace dos lustros.</t>
   </si>
   <si>
-    <t>Miles de inventos llegarán a lo largo del siglo 21.</t>
-  </si>
-  <si>
-    <t>Fue condenado ese mismo día del señor.</t>
-  </si>
-  <si>
     <t>Ya hace una semana.</t>
   </si>
   <si>
@@ -2004,9 +1971,6 @@
     <t>Hasta finales del pasado mayo .</t>
   </si>
   <si>
-    <t>Cerraron por la noche.</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
@@ -2058,9 +2022,6 @@
     <t>El cuerpo ha ido cambiando desde 1997.</t>
   </si>
   <si>
-    <t>Nos vemos dentro de 4 meses, pero 7 años, 2 meses y tres minutos antes.</t>
-  </si>
-  <si>
     <t>Un bonito, largo y hermoso año.</t>
   </si>
   <si>
@@ -2208,9 +2169,6 @@
     <t>Durante una hora y 15 minutos.</t>
   </si>
   <si>
-    <t>Quedamos a las tres de la tarde.</t>
-  </si>
-  <si>
     <t>Las tres dijeron lo mismo.</t>
   </si>
   <si>
@@ -2277,15 +2235,9 @@
     <t>De 12:15 a 3:50.</t>
   </si>
   <si>
-    <t>A las 12 de la tarde.</t>
-  </si>
-  <si>
     <t>Las 5 por la tarde.</t>
   </si>
   <si>
-    <t>Las 12 de aquella nublada y bella tarde.</t>
-  </si>
-  <si>
     <t>Las 12 del mediodía.</t>
   </si>
   <si>
@@ -2310,18 +2262,12 @@
     <t>Duró más de dos días.</t>
   </si>
   <si>
-    <t>Esperaron 45 minutos y unos 3 cuartos de hora, más tres cuartos de hora.</t>
-  </si>
-  <si>
     <t>Duró medio día.</t>
   </si>
   <si>
     <t>Una hora y tres cuartos.</t>
   </si>
   <si>
-    <t>Tres horas y media.</t>
-  </si>
-  <si>
     <t>Dos días y tres cuartos.</t>
   </si>
   <si>
@@ -2352,12 +2298,6 @@
     <t>El lunes y el martes.</t>
   </si>
   <si>
-    <t>Martes, 3 de octubre.</t>
-  </si>
-  <si>
-    <t>Martes 3 de octubre.</t>
-  </si>
-  <si>
     <t>El tres de octubre y el 2 de marzo.</t>
   </si>
   <si>
@@ -2367,9 +2307,6 @@
     <t>Dos veces cada 23 años</t>
   </si>
   <si>
-    <t>en el año mil novecientos treinta y dos</t>
-  </si>
-  <si>
     <t>Tenemos un plazo de vencimiento interno a mediados de la semana que viene, el plazo oficial acaba el 10 de junio, pero queremos dejar unos días de margen para revisar todo el contenido.</t>
   </si>
   <si>
@@ -2379,9 +2316,6 @@
     <t>Estoy escribiendo un diario</t>
   </si>
   <si>
-    <t>Son un par de días</t>
-  </si>
-  <si>
     <t>Tenemos la teleconferencia el lunes a media mañana.</t>
   </si>
   <si>
@@ -2389,9 +2323,6 @@
   </si>
   <si>
     <t>Months</t>
-  </si>
-  <si>
-    <t>Problems with past</t>
   </si>
   <si>
     <t>Problems with second ("segundo")</t>
@@ -2845,9 +2776,6 @@
     <t>Cinco para las 11.</t>
   </si>
   <si>
-    <t>In illo tempore-</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">¿El estado del arte </t>
     </r>
@@ -3152,6 +3080,90 @@
   </si>
   <si>
     <t>Y luego de ahí a pata.</t>
+  </si>
+  <si>
+    <t>Problems with "pasado"</t>
+  </si>
+  <si>
+    <t>Son un par de días.</t>
+  </si>
+  <si>
+    <t>En el 999 AC.</t>
+  </si>
+  <si>
+    <t>en el año mil novecientos treinta y dos.</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Mañana comeré en la mañana; lo haré así varias mañanas seguidas, pensando en el mañana, o en el día de mañana.</t>
+  </si>
+  <si>
+    <t>Nos vemos dentro de 4 meses, que son 7 años, 2 meses y tres minutos antes de fin de año.</t>
+  </si>
+  <si>
+    <t>Hoy, viernes, se armó la marimorena.</t>
+  </si>
+  <si>
+    <t>Hoy, 20 de diciembre de 2019, se armó la marimorena.</t>
+  </si>
+  <si>
+    <t>Ayer, 19 de diciembre de 2019.</t>
+  </si>
+  <si>
+    <t>Jueves 3 de octubre.</t>
+  </si>
+  <si>
+    <t>Jueves, 3 de octubre.</t>
+  </si>
+  <si>
+    <t>Tres siglos y medio.</t>
+  </si>
+  <si>
+    <t>Esperaron 45 minutos, es decir unos 3 cuartos de hora; fueron más de tres cuartos de hora.</t>
+  </si>
+  <si>
+    <t>A las 7 de la tarde.</t>
+  </si>
+  <si>
+    <t>Las 2 de aquella nublada y bella tarde.</t>
+  </si>
+  <si>
+    <t>Quedamos a las cuatro de la tarde.</t>
+  </si>
+  <si>
+    <t>Correference</t>
+  </si>
+  <si>
+    <t>Se medirán en el campo el próximo sábado.</t>
+  </si>
+  <si>
+    <t>Ha sido condenado este mismo día del señor.</t>
+  </si>
+  <si>
+    <t>Miles de inventos llegaron a lo largo del siglo 18.</t>
+  </si>
+  <si>
+    <t>Este siglo XX.</t>
+  </si>
+  <si>
+    <t>El siglo X después de Cristo.</t>
+  </si>
+  <si>
+    <t>El XI AC.</t>
+  </si>
+  <si>
+    <t>El día 1 y el 2.</t>
+  </si>
+  <si>
+    <t>Hoy cierran por la noche.</t>
+  </si>
+  <si>
+    <t>In illo tempore</t>
+  </si>
+  <si>
+    <t>90066</t>
   </si>
 </sst>
 </file>
@@ -3547,8 +3559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
-      <selection activeCell="A346" sqref="A346"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A197" sqref="A197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3562,19 +3574,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B1" t="s">
         <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>810</v>
+        <v>787</v>
       </c>
       <c r="D1" t="s">
         <v>158</v>
       </c>
       <c r="E1" t="s">
-        <v>841</v>
+        <v>818</v>
       </c>
       <c r="F1" t="s">
         <v>159</v>
@@ -3582,2333 +3594,2333 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C2" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D2" t="s">
-        <v>786</v>
+        <v>764</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D3" t="s">
-        <v>786</v>
+        <v>764</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D4" t="s">
-        <v>787</v>
+        <v>862</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B5" t="s">
         <v>262</v>
       </c>
       <c r="C5" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D5" t="s">
-        <v>787</v>
+        <v>862</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B6" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C6" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D6" t="s">
-        <v>787</v>
+        <v>862</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C7" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D7" t="s">
-        <v>787</v>
+        <v>862</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B8" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C8" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D8" t="s">
-        <v>787</v>
+        <v>862</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B9" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C9" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D9" t="s">
-        <v>787</v>
+        <v>862</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B10" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C10" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D10" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B11" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C11" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D11" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B12" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C12" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D12" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B13" t="s">
         <v>269</v>
       </c>
       <c r="C13" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D13" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B14" t="s">
         <v>270</v>
       </c>
       <c r="C14" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D14" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D15" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D16" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B17" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C17" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D17" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B18" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C18" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D18" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B19" t="s">
-        <v>783</v>
+        <v>863</v>
       </c>
       <c r="C19" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D19" t="s">
-        <v>790</v>
+        <v>767</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B20" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="C20" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D20" t="s">
-        <v>791</v>
+        <v>768</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B21" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="C21" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D21" t="s">
-        <v>791</v>
+        <v>768</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B22" t="s">
         <v>187</v>
       </c>
       <c r="C22" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D22" t="s">
-        <v>791</v>
+        <v>768</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B23" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="C23" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D23" t="s">
-        <v>791</v>
+        <v>768</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B24" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="C24" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D24" t="s">
-        <v>791</v>
+        <v>768</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B25" t="s">
         <v>252</v>
       </c>
       <c r="C25" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D25" t="s">
-        <v>791</v>
+        <v>768</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B26" t="s">
-        <v>615</v>
+        <v>864</v>
       </c>
       <c r="C26" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D26" t="s">
-        <v>791</v>
+        <v>768</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B27" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="C27" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D27" t="s">
-        <v>791</v>
+        <v>768</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B28" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="C28" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D28" t="s">
-        <v>791</v>
+        <v>768</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B29" t="s">
-        <v>779</v>
+        <v>865</v>
       </c>
       <c r="C29" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D29" t="s">
-        <v>791</v>
+        <v>768</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B30" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="C30" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D30" t="s">
-        <v>791</v>
+        <v>768</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C31" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D31" t="s">
-        <v>792</v>
+        <v>866</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B32" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C32" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D32" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B33" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C33" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D33" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B34" t="s">
-        <v>602</v>
+        <v>867</v>
       </c>
       <c r="C34" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D34" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="C35" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D35" t="s">
-        <v>794</v>
+        <v>771</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B36" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="C36" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D36" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B37" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="C37" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D37" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B38" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="C38" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D38" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B39" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C39" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D39" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B40" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C40" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D40" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C41" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D41" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B42" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C42" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D42" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C43" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D43" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B44" t="s">
         <v>271</v>
       </c>
       <c r="C44" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D44" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B45" t="s">
         <v>272</v>
       </c>
       <c r="C45" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D45" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B46" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C46" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D46" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B47" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C47" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D47" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B48" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C48" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D48" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B49" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="C49" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D49" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B50" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C50" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D50" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B51" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="C51" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D51" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B52" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="C52" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D52" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B53" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="C53" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D53" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B54" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="C54" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D54" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B55" t="s">
         <v>281</v>
       </c>
       <c r="C55" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D55" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B56" t="s">
         <v>282</v>
       </c>
       <c r="C56" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D56" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B57" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="C57" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D57" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B58" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="C58" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D58" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B59" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="C59" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D59" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B60" t="s">
         <v>284</v>
       </c>
       <c r="C60" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D60" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B61" t="s">
         <v>285</v>
       </c>
       <c r="C61" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D61" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B62" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="C62" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D62" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B63" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="C63" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D63" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B64" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="C64" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D64" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B65" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="C65" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D65" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B66" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="C66" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D66" t="s">
-        <v>795</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B67" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="C67" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D67" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B68" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="C68" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D68" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B69" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="C69" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D69" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B70" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="C70" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D70" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B71" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="C71" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D71" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B72" t="s">
-        <v>676</v>
+        <v>868</v>
       </c>
       <c r="C72" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D72" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B73" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="C73" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D73" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B74" t="s">
-        <v>777</v>
+        <v>757</v>
       </c>
       <c r="C74" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D74" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B75" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="C75" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D75" t="s">
-        <v>796</v>
+        <v>773</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B76" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="C76" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D76" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B77" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="C77" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D77" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B78" t="s">
         <v>216</v>
       </c>
       <c r="C78" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D78" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B79" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="C79" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D79" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B80" t="s">
         <v>233</v>
       </c>
       <c r="C80" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D80" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B81" t="s">
-        <v>293</v>
+        <v>869</v>
       </c>
       <c r="C81" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D81" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B82" t="s">
-        <v>294</v>
+        <v>870</v>
       </c>
       <c r="C82" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D82" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B83" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="C83" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D83" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B84" t="s">
         <v>273</v>
       </c>
       <c r="C84" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D84" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B85" t="s">
         <v>274</v>
       </c>
       <c r="C85" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D85" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B86" t="s">
         <v>275</v>
       </c>
       <c r="C86" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D86" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B87" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C87" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D87" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C88" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D88" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C89" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D89" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C90" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D90" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C91" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D91" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B92" t="s">
         <v>265</v>
       </c>
       <c r="C92" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D92" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B93" t="s">
         <v>266</v>
       </c>
       <c r="C93" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D93" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B94" t="s">
         <v>24</v>
       </c>
       <c r="C94" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D94" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B95" t="s">
         <v>279</v>
       </c>
       <c r="C95" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D95" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B96" t="s">
         <v>280</v>
       </c>
       <c r="C96" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D96" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B97" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="C97" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D97" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B98" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="C98" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D98" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B99" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="C99" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D99" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B100" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="C100" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D100" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B101" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C101" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D101" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B102" t="s">
-        <v>287</v>
+        <v>871</v>
       </c>
       <c r="C102" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D102" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B103" t="s">
         <v>186</v>
       </c>
       <c r="C103" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D103" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B104" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="C104" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D104" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B105" t="s">
         <v>277</v>
       </c>
       <c r="C105" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D105" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B106" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="C106" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D106" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B107" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="C107" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D107" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B108" t="s">
-        <v>776</v>
+        <v>756</v>
       </c>
       <c r="C108" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D108" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B109" t="s">
+        <v>872</v>
+      </c>
+      <c r="C109" t="s">
+        <v>788</v>
+      </c>
+      <c r="D109" t="s">
         <v>775</v>
-      </c>
-      <c r="C109" t="s">
-        <v>811</v>
-      </c>
-      <c r="D109" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B110" t="s">
-        <v>774</v>
+        <v>873</v>
       </c>
       <c r="C110" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D110" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B111" t="s">
-        <v>773</v>
+        <v>755</v>
       </c>
       <c r="C111" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D111" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B112" t="s">
-        <v>772</v>
+        <v>754</v>
       </c>
       <c r="C112" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D112" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B113" t="s">
-        <v>771</v>
+        <v>753</v>
       </c>
       <c r="C113" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D113" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B114" t="s">
-        <v>770</v>
+        <v>752</v>
       </c>
       <c r="C114" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D114" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B115" t="s">
-        <v>769</v>
+        <v>751</v>
       </c>
       <c r="C115" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D115" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B116" t="s">
-        <v>768</v>
+        <v>750</v>
       </c>
       <c r="C116" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D116" t="s">
-        <v>800</v>
+        <v>777</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B117" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
       <c r="C117" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D117" t="s">
-        <v>800</v>
+        <v>777</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B118" t="s">
-        <v>766</v>
+        <v>748</v>
       </c>
       <c r="C118" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D118" t="s">
-        <v>800</v>
+        <v>777</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B119" t="s">
-        <v>765</v>
+        <v>747</v>
       </c>
       <c r="C119" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D119" t="s">
-        <v>800</v>
+        <v>777</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B120" t="s">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="C120" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D120" t="s">
-        <v>800</v>
+        <v>777</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B121" t="s">
-        <v>763</v>
+        <v>874</v>
       </c>
       <c r="C121" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D121" t="s">
-        <v>800</v>
+        <v>777</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B122" t="s">
-        <v>762</v>
+        <v>745</v>
       </c>
       <c r="C122" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D122" t="s">
-        <v>800</v>
+        <v>777</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B123" t="s">
-        <v>761</v>
+        <v>744</v>
       </c>
       <c r="C123" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D123" t="s">
-        <v>800</v>
+        <v>777</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B124" t="s">
-        <v>760</v>
+        <v>875</v>
       </c>
       <c r="C124" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D124" t="s">
-        <v>800</v>
+        <v>777</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B125" t="s">
         <v>278</v>
       </c>
       <c r="C125" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D125" t="s">
-        <v>800</v>
+        <v>777</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B126" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="C126" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D126" t="s">
-        <v>800</v>
+        <v>777</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B127" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="C127" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D127" t="s">
-        <v>800</v>
+        <v>777</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B128" t="s">
         <v>136</v>
       </c>
       <c r="C128" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D128" t="s">
-        <v>800</v>
+        <v>777</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B129" t="s">
         <v>286</v>
       </c>
       <c r="C129" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D129" t="s">
-        <v>801</v>
+        <v>778</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B130" t="s">
         <v>165</v>
       </c>
       <c r="C130" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D130" t="s">
-        <v>801</v>
+        <v>778</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B131" t="s">
         <v>41</v>
       </c>
       <c r="C131" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D131" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B132" t="s">
         <v>42</v>
       </c>
       <c r="C132" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D132" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B133" t="s">
         <v>43</v>
       </c>
       <c r="C133" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D133" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B134" t="s">
         <v>44</v>
       </c>
       <c r="C134" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D134" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B135" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="C135" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D135" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B136" t="s">
         <v>46</v>
       </c>
       <c r="C136" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D136" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B137" t="s">
         <v>47</v>
       </c>
       <c r="C137" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D137" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
       <c r="E137" s="1"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B138" t="s">
         <v>48</v>
       </c>
       <c r="C138" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D138" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B139" t="s">
-        <v>749</v>
+        <v>876</v>
       </c>
       <c r="C139" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D139" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B140" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="C140" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D140" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B141" t="s">
-        <v>751</v>
+        <v>877</v>
       </c>
       <c r="C141" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D141" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B142" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="C142" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D142" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B143" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="C143" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D143" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B144" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="C144" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D144" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B145" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="C145" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D145" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B146" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="C146" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D146" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B147" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="C147" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D147" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B148" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="C148" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D148" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B149" t="s">
-        <v>726</v>
+        <v>878</v>
       </c>
       <c r="C149" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D149" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B150" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="C150" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D150" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B151" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="C151" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D151" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B152" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="C152" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D152" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B153" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="C153" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D153" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B154" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="C154" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D154" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B155" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
       <c r="C155" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D155" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B156" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
       <c r="C156" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D156" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B157" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
       <c r="C157" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D157" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B158" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="C158" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D158" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B159" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="C159" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D159" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B160" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="C160" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D160" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B161" t="s">
         <v>35</v>
       </c>
       <c r="C161" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D161" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B162" t="s">
         <v>36</v>
       </c>
       <c r="C162" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D162" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B163" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="C163" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D163" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B164" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="C164" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D164" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B165" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="C165" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D165" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B166" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="C166" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D166" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B167" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="C167" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D167" t="s">
         <v>137</v>
@@ -5916,13 +5928,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B168" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="C168" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D168" t="s">
         <v>137</v>
@@ -5930,13 +5942,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B169" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="C169" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D169" t="s">
         <v>137</v>
@@ -5944,13 +5956,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B170" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="C170" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D170" t="s">
         <v>137</v>
@@ -5958,13 +5970,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B171" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="C171" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D171" t="s">
         <v>137</v>
@@ -5972,13 +5984,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B172" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="C172" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D172" t="s">
         <v>137</v>
@@ -5986,13 +5998,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B173" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="C173" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D173" t="s">
         <v>137</v>
@@ -6000,13 +6012,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B174" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="C174" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D174" t="s">
         <v>137</v>
@@ -6014,13 +6026,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B175" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="C175" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D175" t="s">
         <v>137</v>
@@ -6028,13 +6040,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B176" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="C176" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D176" t="s">
         <v>137</v>
@@ -6042,27 +6054,27 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B177" t="s">
         <v>148</v>
       </c>
       <c r="C177" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D177" t="s">
-        <v>137</v>
+        <v>647</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B178" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="C178" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D178" t="s">
         <v>137</v>
@@ -6070,951 +6082,951 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B179" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="C179" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D179" t="s">
-        <v>137</v>
+        <v>879</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B180" t="s">
         <v>37</v>
       </c>
       <c r="C180" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D180" t="s">
-        <v>803</v>
+        <v>780</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B181" t="s">
         <v>38</v>
       </c>
       <c r="C181" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D181" t="s">
-        <v>803</v>
+        <v>780</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B182" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="C182" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D182" t="s">
-        <v>803</v>
+        <v>780</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B183" t="s">
         <v>201</v>
       </c>
       <c r="C183" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D183" t="s">
-        <v>803</v>
+        <v>780</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B184" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="C184" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D184" t="s">
-        <v>803</v>
+        <v>780</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B185" t="s">
         <v>195</v>
       </c>
       <c r="C185" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D185" t="s">
-        <v>804</v>
+        <v>781</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B186" t="s">
         <v>263</v>
       </c>
       <c r="C186" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D186" t="s">
-        <v>805</v>
+        <v>782</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B187" t="s">
         <v>264</v>
       </c>
       <c r="C187" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D187" t="s">
-        <v>805</v>
+        <v>782</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B188" t="s">
         <v>267</v>
       </c>
       <c r="C188" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D188" t="s">
-        <v>805</v>
+        <v>782</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B189" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="C189" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D189" t="s">
-        <v>805</v>
+        <v>782</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B190" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="C190" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D190" t="s">
-        <v>805</v>
+        <v>782</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B191" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="C191" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D191" t="s">
-        <v>805</v>
+        <v>782</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B192" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="C192" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D192" t="s">
-        <v>805</v>
+        <v>782</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B193" t="s">
         <v>268</v>
       </c>
       <c r="C193" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D193" t="s">
-        <v>805</v>
+        <v>782</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B194" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="C194" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D194" t="s">
-        <v>805</v>
+        <v>782</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B195" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="C195" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D195" t="s">
-        <v>805</v>
+        <v>782</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B196" t="s">
         <v>213</v>
       </c>
       <c r="C196" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D196" t="s">
-        <v>805</v>
+        <v>782</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B197" t="s">
+        <v>761</v>
+      </c>
+      <c r="C197" t="s">
+        <v>788</v>
+      </c>
+      <c r="D197" t="s">
         <v>782</v>
-      </c>
-      <c r="C197" t="s">
-        <v>811</v>
-      </c>
-      <c r="D197" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B198" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="C198" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D198" t="s">
-        <v>806</v>
+        <v>783</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B199" t="s">
         <v>163</v>
       </c>
       <c r="C199" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D199" t="s">
-        <v>806</v>
+        <v>783</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B200" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="C200" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D200" t="s">
-        <v>806</v>
+        <v>783</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B201" t="s">
         <v>210</v>
       </c>
       <c r="C201" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D201" t="s">
-        <v>806</v>
+        <v>783</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B202" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="C202" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D202" t="s">
-        <v>806</v>
+        <v>783</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B203" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="C203" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D203" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B204" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="C204" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D204" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B205" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="C205" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D205" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B206" t="s">
         <v>197</v>
       </c>
       <c r="C206" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D206" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B207" t="s">
         <v>198</v>
       </c>
       <c r="C207" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D207" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B208" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="C208" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D208" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B209" t="s">
         <v>230</v>
       </c>
       <c r="C209" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D209" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B210" t="s">
         <v>231</v>
       </c>
       <c r="C210" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D210" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B211" t="s">
         <v>232</v>
       </c>
       <c r="C211" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D211" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B212" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="C212" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D212" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B213" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="C213" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D213" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B214" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="C214" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D214" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B215" t="s">
         <v>259</v>
       </c>
       <c r="C215" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D215" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B216" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="C216" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D216" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B217" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="C217" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D217" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B218" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C218" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D218" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B219" t="s">
         <v>251</v>
       </c>
       <c r="C219" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D219" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B220" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="C220" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D220" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B221" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C221" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D221" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B222" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C222" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D222" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B223" t="s">
         <v>23</v>
       </c>
       <c r="C223" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D223" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B224" t="s">
         <v>283</v>
       </c>
       <c r="C224" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D224" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B225" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="C225" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D225" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B226" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="C226" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D226" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B227" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="C227" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D227" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B228" t="s">
         <v>261</v>
       </c>
       <c r="C228" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D228" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B229" t="s">
         <v>160</v>
       </c>
       <c r="C229" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D229" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B230" t="s">
         <v>260</v>
       </c>
       <c r="C230" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D230" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B231" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="C231" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D231" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B232" t="s">
-        <v>628</v>
+        <v>880</v>
       </c>
       <c r="C232" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D232" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B233" t="s">
         <v>170</v>
       </c>
       <c r="C233" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D233" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B234" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="C234" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D234" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B235" t="s">
-        <v>632</v>
+        <v>881</v>
       </c>
       <c r="C235" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D235" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B236" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="C236" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D236" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B237" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="C237" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D237" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B238" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="C238" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D238" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B239" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="C239" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D239" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B240" t="s">
         <v>212</v>
       </c>
       <c r="C240" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D240" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B241" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="C241" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D241" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B242" t="s">
         <v>223</v>
       </c>
       <c r="C242" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D242" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B243" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="C243" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D243" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B244" t="s">
         <v>228</v>
       </c>
       <c r="C244" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D244" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B245" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="C245" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D245" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B246" t="s">
         <v>10</v>
       </c>
       <c r="C246" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D246" t="s">
         <v>97</v>
@@ -7022,13 +7034,13 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B247" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="C247" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D247" t="s">
         <v>97</v>
@@ -7036,13 +7048,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B248" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C248" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D248" t="s">
         <v>97</v>
@@ -7050,13 +7062,13 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B249" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C249" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D249" t="s">
         <v>97</v>
@@ -7064,13 +7076,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B250" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C250" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D250" t="s">
         <v>97</v>
@@ -7078,13 +7090,13 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B251" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C251" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D251" t="s">
         <v>97</v>
@@ -7092,13 +7104,13 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B252" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C252" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D252" t="s">
         <v>97</v>
@@ -7106,13 +7118,13 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B253" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C253" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D253" t="s">
         <v>97</v>
@@ -7120,13 +7132,13 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B254" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="C254" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D254" t="s">
         <v>97</v>
@@ -7134,13 +7146,13 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C255" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D255" t="s">
         <v>97</v>
@@ -7148,13 +7160,13 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B256" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="C256" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D256" t="s">
         <v>97</v>
@@ -7162,13 +7174,13 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B257" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="C257" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D257" t="s">
         <v>97</v>
@@ -7176,13 +7188,13 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B258" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="C258" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D258" t="s">
         <v>97</v>
@@ -7190,13 +7202,13 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B259" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="C259" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D259" t="s">
         <v>97</v>
@@ -7204,13 +7216,13 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B260" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C260" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D260" t="s">
         <v>97</v>
@@ -7218,13 +7230,13 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B261" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="C261" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D261" t="s">
         <v>97</v>
@@ -7232,13 +7244,13 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B262" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="C262" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D262" t="s">
         <v>97</v>
@@ -7246,13 +7258,13 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B263" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="C263" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D263" t="s">
         <v>97</v>
@@ -7260,13 +7272,13 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B264" t="s">
-        <v>778</v>
+        <v>758</v>
       </c>
       <c r="C264" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D264" t="s">
         <v>97</v>
@@ -7274,310 +7286,310 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B265" t="s">
-        <v>631</v>
+        <v>882</v>
       </c>
       <c r="C265" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D265" t="s">
-        <v>808</v>
+        <v>785</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B266" t="s">
-        <v>629</v>
+        <v>883</v>
       </c>
       <c r="C266" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D266" t="s">
-        <v>808</v>
+        <v>785</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B267" t="s">
         <v>181</v>
       </c>
       <c r="C267" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D267" t="s">
-        <v>808</v>
+        <v>785</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B268" t="s">
         <v>182</v>
       </c>
       <c r="C268" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D268" t="s">
-        <v>808</v>
+        <v>785</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B269" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="C269" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D269" t="s">
-        <v>808</v>
+        <v>785</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B270" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="C270" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D270" t="s">
-        <v>808</v>
+        <v>785</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B271" t="s">
-        <v>618</v>
+        <v>884</v>
       </c>
       <c r="C271" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D271" t="s">
-        <v>808</v>
+        <v>785</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B272" t="s">
-        <v>617</v>
+        <v>885</v>
       </c>
       <c r="C272" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D272" t="s">
-        <v>808</v>
+        <v>785</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B273" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C273" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D273" t="s">
-        <v>808</v>
+        <v>785</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B274" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="C274" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D274" t="s">
-        <v>808</v>
+        <v>785</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B275" t="s">
         <v>39</v>
       </c>
       <c r="C275" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D275" t="s">
-        <v>809</v>
+        <v>786</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B276" t="s">
         <v>40</v>
       </c>
       <c r="C276" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D276" t="s">
-        <v>809</v>
+        <v>786</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B277" t="s">
         <v>166</v>
       </c>
       <c r="C277" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D277" t="s">
-        <v>809</v>
+        <v>786</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B278" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="C278" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D278" t="s">
-        <v>809</v>
+        <v>786</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B279" t="s">
         <v>196</v>
       </c>
       <c r="C279" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D279" t="s">
-        <v>809</v>
+        <v>786</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B280" t="s">
-        <v>214</v>
+        <v>886</v>
       </c>
       <c r="C280" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D280" t="s">
-        <v>809</v>
+        <v>786</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B281" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="C281" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D281" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B282" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="C282" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D282" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B283" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="C283" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D283" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B284" t="s">
-        <v>658</v>
+        <v>887</v>
       </c>
       <c r="C284" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D284" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B285" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D285" t="s">
-        <v>792</v>
+        <v>769</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B286" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="C286" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="D286" t="s">
-        <v>792</v>
+        <v>769</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.35">
@@ -7585,16 +7597,16 @@
         <v>90001</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>812</v>
+        <v>789</v>
       </c>
       <c r="C287" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>813</v>
+        <v>790</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.35">
@@ -7602,16 +7614,16 @@
         <v>90002</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>815</v>
+        <v>792</v>
       </c>
       <c r="C288" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>813</v>
+        <v>790</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
@@ -7619,16 +7631,16 @@
         <v>90003</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>816</v>
+        <v>793</v>
       </c>
       <c r="C289" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>813</v>
+        <v>790</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.35">
@@ -7636,16 +7648,16 @@
         <v>90004</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>881</v>
+        <v>857</v>
       </c>
       <c r="C290" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>813</v>
+        <v>790</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.35">
@@ -7653,16 +7665,16 @@
         <v>90005</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>882</v>
+        <v>858</v>
       </c>
       <c r="C291" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>813</v>
+        <v>790</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.35">
@@ -7670,16 +7682,16 @@
         <v>90006</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>817</v>
+        <v>794</v>
       </c>
       <c r="C292" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.35">
@@ -7687,16 +7699,16 @@
         <v>90007</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>820</v>
+        <v>797</v>
       </c>
       <c r="C293" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.35">
@@ -7704,16 +7716,16 @@
         <v>90008</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>884</v>
+        <v>860</v>
       </c>
       <c r="C294" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.35">
@@ -7721,16 +7733,16 @@
         <v>90009</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>883</v>
+        <v>859</v>
       </c>
       <c r="C295" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="26.5" x14ac:dyDescent="0.35">
@@ -7738,16 +7750,16 @@
         <v>90010</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>821</v>
+        <v>798</v>
       </c>
       <c r="C296" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
@@ -7755,16 +7767,16 @@
         <v>90011</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>822</v>
+        <v>799</v>
       </c>
       <c r="C297" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="38.5" x14ac:dyDescent="0.35">
@@ -7772,16 +7784,16 @@
         <v>90012</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>823</v>
+        <v>800</v>
       </c>
       <c r="C298" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>818</v>
+        <v>801</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="26" x14ac:dyDescent="0.35">
@@ -7789,16 +7801,16 @@
         <v>90013</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>880</v>
+        <v>856</v>
       </c>
       <c r="C299" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="26" x14ac:dyDescent="0.35">
@@ -7806,16 +7818,16 @@
         <v>90014</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>879</v>
+        <v>855</v>
       </c>
       <c r="C300" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="26" x14ac:dyDescent="0.35">
@@ -7823,16 +7835,16 @@
         <v>90015</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>878</v>
+        <v>854</v>
       </c>
       <c r="C301" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.35">
@@ -7840,16 +7852,16 @@
         <v>90016</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>877</v>
+        <v>853</v>
       </c>
       <c r="C302" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>813</v>
+        <v>790</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="26" x14ac:dyDescent="0.35">
@@ -7857,16 +7869,16 @@
         <v>90017</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>825</v>
+        <v>802</v>
       </c>
       <c r="C303" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="26" x14ac:dyDescent="0.35">
@@ -7874,16 +7886,16 @@
         <v>90019</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>826</v>
+        <v>803</v>
       </c>
       <c r="C304" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.35">
@@ -7891,16 +7903,16 @@
         <v>90020</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>784</v>
+        <v>762</v>
       </c>
       <c r="C305" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="26" x14ac:dyDescent="0.35">
@@ -7908,16 +7920,16 @@
         <v>90021</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>876</v>
+        <v>852</v>
       </c>
       <c r="C306" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="26" x14ac:dyDescent="0.35">
@@ -7925,16 +7937,16 @@
         <v>90022</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>875</v>
+        <v>851</v>
       </c>
       <c r="C307" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="26" x14ac:dyDescent="0.35">
@@ -7942,16 +7954,16 @@
         <v>90023</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>785</v>
+        <v>763</v>
       </c>
       <c r="C308" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="51" x14ac:dyDescent="0.35">
@@ -7959,16 +7971,16 @@
         <v>90024</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>780</v>
+        <v>759</v>
       </c>
       <c r="C309" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="26" x14ac:dyDescent="0.35">
@@ -7976,16 +7988,16 @@
         <v>90025</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>874</v>
+        <v>850</v>
       </c>
       <c r="C310" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
@@ -7993,16 +8005,16 @@
         <v>90026</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>873</v>
+        <v>849</v>
       </c>
       <c r="C311" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
@@ -8010,16 +8022,16 @@
         <v>90029</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>827</v>
+        <v>804</v>
       </c>
       <c r="C312" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>813</v>
+        <v>790</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
@@ -8027,16 +8039,16 @@
         <v>90030</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>829</v>
+        <v>806</v>
       </c>
       <c r="C313" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>828</v>
+        <v>805</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
@@ -8044,16 +8056,16 @@
         <v>90031</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
       <c r="C314" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>828</v>
+        <v>805</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="26" x14ac:dyDescent="0.35">
@@ -8061,16 +8073,16 @@
         <v>90032</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>872</v>
+        <v>848</v>
       </c>
       <c r="C315" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>831</v>
+        <v>808</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.35">
@@ -8078,16 +8090,16 @@
         <v>90033</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>832</v>
+        <v>809</v>
       </c>
       <c r="C316" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
@@ -8095,16 +8107,16 @@
         <v>90034</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>871</v>
+        <v>847</v>
       </c>
       <c r="C317" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.35">
@@ -8112,16 +8124,16 @@
         <v>90035</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>870</v>
+        <v>846</v>
       </c>
       <c r="C318" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.35">
@@ -8129,16 +8141,16 @@
         <v>90036</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>869</v>
+        <v>845</v>
       </c>
       <c r="C319" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>813</v>
+        <v>790</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.35">
@@ -8146,16 +8158,16 @@
         <v>90037</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>868</v>
+        <v>844</v>
       </c>
       <c r="C320" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.35">
@@ -8163,16 +8175,16 @@
         <v>90038</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>867</v>
+        <v>843</v>
       </c>
       <c r="C321" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>833</v>
+        <v>810</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
@@ -8180,16 +8192,16 @@
         <v>90039</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>866</v>
+        <v>842</v>
       </c>
       <c r="C322" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.35">
@@ -8197,16 +8209,16 @@
         <v>90040</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>865</v>
+        <v>841</v>
       </c>
       <c r="C323" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>828</v>
+        <v>805</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.35">
@@ -8214,16 +8226,16 @@
         <v>90041</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
       <c r="C324" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>836</v>
+        <v>813</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.35">
@@ -8231,16 +8243,16 @@
         <v>90042</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>864</v>
+        <v>840</v>
       </c>
       <c r="C325" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>836</v>
+        <v>813</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
@@ -8248,16 +8260,16 @@
         <v>90043</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>863</v>
+        <v>839</v>
       </c>
       <c r="C326" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="E326" s="3" t="s">
-        <v>836</v>
+        <v>813</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.35">
@@ -8265,16 +8277,16 @@
         <v>90044</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>862</v>
+        <v>838</v>
       </c>
       <c r="C327" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>833</v>
+        <v>810</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.35">
@@ -8282,16 +8294,16 @@
         <v>90045</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>861</v>
+        <v>837</v>
       </c>
       <c r="C328" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>813</v>
+        <v>790</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.35">
@@ -8299,16 +8311,16 @@
         <v>90046</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>860</v>
+        <v>836</v>
       </c>
       <c r="C329" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>813</v>
+        <v>790</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.35">
@@ -8316,16 +8328,16 @@
         <v>90047</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>859</v>
+        <v>835</v>
       </c>
       <c r="C330" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.35">
@@ -8333,16 +8345,16 @@
         <v>90048</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>858</v>
+        <v>834</v>
       </c>
       <c r="C331" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>833</v>
+        <v>810</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.35">
@@ -8350,16 +8362,16 @@
         <v>90049</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>857</v>
+        <v>833</v>
       </c>
       <c r="C332" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.35">
@@ -8367,16 +8379,16 @@
         <v>90050</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>856</v>
+        <v>832</v>
       </c>
       <c r="C333" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="E333" s="3" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.35">
@@ -8384,16 +8396,16 @@
         <v>90051</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="C334" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.35">
@@ -8401,16 +8413,16 @@
         <v>90052</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>854</v>
+        <v>888</v>
       </c>
       <c r="C335" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D335" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="E335" s="3" t="s">
         <v>813</v>
-      </c>
-      <c r="E335" s="3" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.35">
@@ -8418,16 +8430,16 @@
         <v>90053</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="C336" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>813</v>
+        <v>790</v>
       </c>
       <c r="E336" s="3" t="s">
-        <v>838</v>
+        <v>815</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.35">
@@ -8435,16 +8447,16 @@
         <v>90054</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="C337" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>813</v>
+        <v>790</v>
       </c>
       <c r="E337" s="3" t="s">
-        <v>838</v>
+        <v>815</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.35">
@@ -8452,16 +8464,16 @@
         <v>90055</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>851</v>
+        <v>828</v>
       </c>
       <c r="C338" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.35">
@@ -8469,16 +8481,16 @@
         <v>90056</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>850</v>
+        <v>827</v>
       </c>
       <c r="C339" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
       <c r="E339" s="3" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="26" x14ac:dyDescent="0.35">
@@ -8486,16 +8498,16 @@
         <v>90057</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>849</v>
+        <v>826</v>
       </c>
       <c r="C340" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
       <c r="E340" s="3" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.35">
@@ -8503,16 +8515,16 @@
         <v>90058</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
       <c r="C341" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="E341" s="4" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.35">
@@ -8520,16 +8532,16 @@
         <v>90059</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>847</v>
+        <v>824</v>
       </c>
       <c r="C342" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
       <c r="E342" s="4" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.35">
@@ -8537,16 +8549,16 @@
         <v>90060</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>846</v>
+        <v>823</v>
       </c>
       <c r="C343" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="E343" s="4" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.35">
@@ -8554,16 +8566,16 @@
         <v>90061</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>845</v>
+        <v>822</v>
       </c>
       <c r="C344" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
       <c r="E344" s="4" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.35">
@@ -8571,16 +8583,16 @@
         <v>90062</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>844</v>
+        <v>821</v>
       </c>
       <c r="C345" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
       <c r="E345" s="4" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.35">
@@ -8588,16 +8600,16 @@
         <v>90063</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>843</v>
+        <v>820</v>
       </c>
       <c r="C346" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>813</v>
+        <v>790</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.35">
@@ -8605,16 +8617,16 @@
         <v>90064</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>842</v>
+        <v>819</v>
       </c>
       <c r="C347" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="38.5" x14ac:dyDescent="0.35">
@@ -8622,33 +8634,33 @@
         <v>90065</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>840</v>
+        <v>817</v>
       </c>
       <c r="C348" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A349" s="7">
-        <v>90066</v>
+      <c r="A349" s="7" t="s">
+        <v>889</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>885</v>
+        <v>861</v>
       </c>
       <c r="C349" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>
